--- a/data/VEGA_QSAR_modeli/PBTC_results.xlsx
+++ b/data/VEGA_QSAR_modeli/PBTC_results.xlsx
@@ -501,7 +501,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Kuželj-Gorski kotar - Kupa</t>
+          <t>Kuželj - Kupa</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -537,7 +537,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Kuželj-Gorski kotar - Kupa</t>
+          <t>Kuželj - Kupa</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -573,7 +573,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Kuželj-Gorski kotar - Kupa</t>
+          <t>Kuželj - Kupa</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -609,7 +609,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Kuželj-Gorski kotar - Kupa</t>
+          <t>Kuželj - Kupa</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -645,7 +645,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Kuželj-Gorski kotar - Kupa</t>
+          <t>Kuželj - Kupa</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -681,7 +681,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Kuželj-Gorski kotar - Kupa</t>
+          <t>Kuželj - Kupa</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -717,7 +717,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Kuželj-Gorski kotar - Kupa</t>
+          <t>Kuželj - Kupa</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -753,7 +753,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Kuželj-Gorski kotar - Kupa</t>
+          <t>Kuželj - Kupa</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -789,7 +789,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Kuželj-Gorski kotar - Kupa</t>
+          <t>Kuželj - Kupa</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -825,7 +825,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Kuželj-Gorski kotar - Kupa</t>
+          <t>Kuželj - Kupa</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -861,7 +861,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Kuželj-Gorski kotar - Kupa</t>
+          <t>Kuželj - Kupa</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -897,7 +897,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Kuželj-Gorski kotar - Kupa</t>
+          <t>Kuželj - Kupa</t>
         </is>
       </c>
       <c r="G13" t="n">
@@ -933,7 +933,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Kuželj-Gorski kotar - Kupa</t>
+          <t>Kuželj - Kupa</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -969,7 +969,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Kuželj-Gorski kotar - Kupa</t>
+          <t>Kuželj - Kupa</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -1005,7 +1005,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Kuželj-Gorski kotar - Kupa</t>
+          <t>Kuželj - Kupa</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -1041,7 +1041,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Kuželj-Gorski kotar - Kupa</t>
+          <t>Kuželj - Kupa</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -1077,7 +1077,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Kuželj-Gorski kotar - Kupa</t>
+          <t>Kuželj - Kupa</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -1113,7 +1113,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Kuželj-Gorski kotar - Kupa</t>
+          <t>Kuželj - Kupa</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -1149,7 +1149,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Kuželj-Gorski kotar - Kupa</t>
+          <t>Kuželj - Kupa</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -1185,7 +1185,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Kuželj-Gorski kotar - Kupa</t>
+          <t>Kuželj - Kupa</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -1221,7 +1221,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Kuželj-Gorski kotar - Kupa</t>
+          <t>Kuželj - Kupa</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -1257,7 +1257,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Kuželj-Gorski kotar - Kupa</t>
+          <t>Kuželj - Kupa</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -1293,7 +1293,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Kuželj-Gorski kotar - Kupa</t>
+          <t>Kuželj - Kupa</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -1329,7 +1329,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Kuželj-Gorski kotar - Kupa</t>
+          <t>Kuželj - Kupa</t>
         </is>
       </c>
       <c r="G25" t="n">
@@ -1365,7 +1365,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Kuželj-Gorski kotar - Kupa</t>
+          <t>Kuželj - Kupa</t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -1401,7 +1401,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Kuželj-Gorski kotar - Kupa</t>
+          <t>Kuželj - Kupa</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -1437,7 +1437,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Kuželj-Gorski kotar - Kupa</t>
+          <t>Kuželj - Kupa</t>
         </is>
       </c>
       <c r="G28" t="n">
@@ -1473,7 +1473,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Kuželj-Gorski kotar - Kupa</t>
+          <t>Kuželj - Kupa</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -1509,7 +1509,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Kuželj-Gorski kotar - Kupa</t>
+          <t>Kuželj - Kupa</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -1545,7 +1545,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Kuželj-Gorski kotar - Kupa</t>
+          <t>Kuželj - Kupa</t>
         </is>
       </c>
       <c r="G31" t="n">
@@ -1581,7 +1581,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Kuželj-Gorski kotar - Kupa</t>
+          <t>Kuželj - Kupa</t>
         </is>
       </c>
       <c r="G32" t="n">
@@ -1617,7 +1617,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Kuželj-Gorski kotar - Kupa</t>
+          <t>Kuželj - Kupa</t>
         </is>
       </c>
       <c r="G33" t="n">
@@ -1653,7 +1653,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Kuželj-Gorski kotar - Kupa</t>
+          <t>Kuželj - Kupa</t>
         </is>
       </c>
       <c r="G34" t="n">
@@ -1689,7 +1689,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Kuželj-Gorski kotar - Kupa</t>
+          <t>Kuželj - Kupa</t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Kuželj-Gorski kotar - Kupa</t>
+          <t>Kuželj - Kupa</t>
         </is>
       </c>
       <c r="G36" t="n">
@@ -1761,7 +1761,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Iševnica- Gorski kotar - Kupica</t>
+          <t>Brod na Kupi - Kupica</t>
         </is>
       </c>
       <c r="G37" t="n">
@@ -1797,7 +1797,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Iševnica- Gorski kotar - Kupica</t>
+          <t>Brod na Kupi - Kupica</t>
         </is>
       </c>
       <c r="G38" t="n">
@@ -1833,7 +1833,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Iševnica- Gorski kotar - Kupica</t>
+          <t>Brod na Kupi - Kupica</t>
         </is>
       </c>
       <c r="G39" t="n">
@@ -1869,7 +1869,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Iševnica- Gorski kotar - Kupica</t>
+          <t>Brod na Kupi - Kupica</t>
         </is>
       </c>
       <c r="G40" t="n">
@@ -1905,7 +1905,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Iševnica- Gorski kotar - Kupica</t>
+          <t>Brod na Kupi - Kupica</t>
         </is>
       </c>
       <c r="G41" t="n">
@@ -1941,7 +1941,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Iševnica- Gorski kotar - Kupica</t>
+          <t>Brod na Kupi - Kupica</t>
         </is>
       </c>
       <c r="G42" t="n">
@@ -1977,7 +1977,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Iševnica- Gorski kotar - Kupica</t>
+          <t>Brod na Kupi - Kupica</t>
         </is>
       </c>
       <c r="G43" t="n">
@@ -2013,7 +2013,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Iševnica- Gorski kotar - Kupica</t>
+          <t>Brod na Kupi - Kupica</t>
         </is>
       </c>
       <c r="G44" t="n">
@@ -2049,7 +2049,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Iševnica- Gorski kotar - Kupica</t>
+          <t>Brod na Kupi - Kupica</t>
         </is>
       </c>
       <c r="G45" t="n">
@@ -2085,7 +2085,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Iševnica- Gorski kotar - Kupica</t>
+          <t>Brod na Kupi - Kupica</t>
         </is>
       </c>
       <c r="G46" t="n">
@@ -2121,7 +2121,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Iševnica- Gorski kotar - Kupica</t>
+          <t>Brod na Kupi - Kupica</t>
         </is>
       </c>
       <c r="G47" t="n">
@@ -2157,7 +2157,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Iševnica- Gorski kotar - Kupica</t>
+          <t>Brod na Kupi - Kupica</t>
         </is>
       </c>
       <c r="G48" t="n">
@@ -2193,7 +2193,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Iševnica- Gorski kotar - Kupica</t>
+          <t>Brod na Kupi - Kupica</t>
         </is>
       </c>
       <c r="G49" t="n">
@@ -2229,7 +2229,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Iševnica- Gorski kotar - Kupica</t>
+          <t>Brod na Kupi - Kupica</t>
         </is>
       </c>
       <c r="G50" t="n">
@@ -2265,7 +2265,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Iševnica- Gorski kotar - Kupica</t>
+          <t>Brod na Kupi - Kupica</t>
         </is>
       </c>
       <c r="G51" t="n">
@@ -2301,7 +2301,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Iševnica- Gorski kotar - Kupica</t>
+          <t>Brod na Kupi - Kupica</t>
         </is>
       </c>
       <c r="G52" t="n">
@@ -2337,7 +2337,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Iševnica- Gorski kotar - Kupica</t>
+          <t>Brod na Kupi - Kupica</t>
         </is>
       </c>
       <c r="G53" t="n">
@@ -2373,7 +2373,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Iševnica- Gorski kotar - Kupica</t>
+          <t>Brod na Kupi - Kupica</t>
         </is>
       </c>
       <c r="G54" t="n">
@@ -2409,7 +2409,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Iševnica- Gorski kotar - Kupica</t>
+          <t>Brod na Kupi - Kupica</t>
         </is>
       </c>
       <c r="G55" t="n">
@@ -2445,7 +2445,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Iševnica- Gorski kotar - Kupica</t>
+          <t>Brod na Kupi - Kupica</t>
         </is>
       </c>
       <c r="G56" t="n">
@@ -2481,7 +2481,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Iševnica- Gorski kotar - Kupica</t>
+          <t>Brod na Kupi - Kupica</t>
         </is>
       </c>
       <c r="G57" t="n">
@@ -2517,7 +2517,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Iševnica- Gorski kotar - Kupica</t>
+          <t>Brod na Kupi - Kupica</t>
         </is>
       </c>
       <c r="G58" t="n">
@@ -2553,7 +2553,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Iševnica- Gorski kotar - Kupica</t>
+          <t>Brod na Kupi - Kupica</t>
         </is>
       </c>
       <c r="G59" t="n">
@@ -2589,7 +2589,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Iševnica- Gorski kotar - Kupica</t>
+          <t>Brod na Kupi - Kupica</t>
         </is>
       </c>
       <c r="G60" t="n">
@@ -2625,7 +2625,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Iševnica- Gorski kotar - Kupica</t>
+          <t>Brod na Kupi - Kupica</t>
         </is>
       </c>
       <c r="G61" t="n">
@@ -2661,7 +2661,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Iševnica- Gorski kotar - Kupica</t>
+          <t>Brod na Kupi - Kupica</t>
         </is>
       </c>
       <c r="G62" t="n">
@@ -2697,7 +2697,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Iševnica- Gorski kotar - Kupica</t>
+          <t>Brod na Kupi - Kupica</t>
         </is>
       </c>
       <c r="G63" t="n">
@@ -2733,7 +2733,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Iševnica- Gorski kotar - Kupica</t>
+          <t>Brod na Kupi - Kupica</t>
         </is>
       </c>
       <c r="G64" t="n">
@@ -2769,7 +2769,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Iševnica- Gorski kotar - Kupica</t>
+          <t>Brod na Kupi - Kupica</t>
         </is>
       </c>
       <c r="G65" t="n">
@@ -2805,7 +2805,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Iševnica- Gorski kotar - Kupica</t>
+          <t>Brod na Kupi - Kupica</t>
         </is>
       </c>
       <c r="G66" t="n">
@@ -2841,7 +2841,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Iševnica- Gorski kotar - Kupica</t>
+          <t>Brod na Kupi - Kupica</t>
         </is>
       </c>
       <c r="G67" t="n">
@@ -2877,7 +2877,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Iševnica- Gorski kotar - Kupica</t>
+          <t>Brod na Kupi - Kupica</t>
         </is>
       </c>
       <c r="G68" t="n">
@@ -2913,7 +2913,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Iševnica- Gorski kotar - Kupica</t>
+          <t>Brod na Kupi - Kupica</t>
         </is>
       </c>
       <c r="G69" t="n">
@@ -2949,7 +2949,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Iševnica- Gorski kotar - Kupica</t>
+          <t>Brod na Kupi - Kupica</t>
         </is>
       </c>
       <c r="G70" t="n">
@@ -2985,7 +2985,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Iševnica- Gorski kotar - Kupica</t>
+          <t>Brod na Kupi - Kupica</t>
         </is>
       </c>
       <c r="G71" t="n">
@@ -3021,7 +3021,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>centar Karlovca - Kupa</t>
+          <t>Karlovac - Kupa</t>
         </is>
       </c>
       <c r="G72" t="n">
@@ -3057,7 +3057,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>centar Karlovca - Kupa</t>
+          <t>Karlovac - Kupa</t>
         </is>
       </c>
       <c r="G73" t="n">
@@ -3093,7 +3093,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>centar Karlovca - Kupa</t>
+          <t>Karlovac - Kupa</t>
         </is>
       </c>
       <c r="G74" t="n">
@@ -3129,7 +3129,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>centar Karlovca - Kupa</t>
+          <t>Karlovac - Kupa</t>
         </is>
       </c>
       <c r="G75" t="n">
@@ -3165,7 +3165,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>centar Karlovca - Kupa</t>
+          <t>Karlovac - Kupa</t>
         </is>
       </c>
       <c r="G76" t="n">
@@ -3201,7 +3201,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>centar Karlovca - Kupa</t>
+          <t>Karlovac - Kupa</t>
         </is>
       </c>
       <c r="G77" t="n">
@@ -3237,7 +3237,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>centar Karlovca - Kupa</t>
+          <t>Karlovac - Kupa</t>
         </is>
       </c>
       <c r="G78" t="n">
@@ -3273,7 +3273,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>centar Karlovca - Kupa</t>
+          <t>Karlovac - Kupa</t>
         </is>
       </c>
       <c r="G79" t="n">
@@ -3309,7 +3309,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>centar Karlovca - Kupa</t>
+          <t>Karlovac - Kupa</t>
         </is>
       </c>
       <c r="G80" t="n">
@@ -3345,7 +3345,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>centar Karlovca - Kupa</t>
+          <t>Karlovac - Kupa</t>
         </is>
       </c>
       <c r="G81" t="n">
@@ -3381,7 +3381,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>centar Karlovca - Kupa</t>
+          <t>Karlovac - Kupa</t>
         </is>
       </c>
       <c r="G82" t="n">
@@ -3417,7 +3417,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>centar Karlovca - Kupa</t>
+          <t>Karlovac - Kupa</t>
         </is>
       </c>
       <c r="G83" t="n">
@@ -3453,7 +3453,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>centar Karlovca - Kupa</t>
+          <t>Karlovac - Kupa</t>
         </is>
       </c>
       <c r="G84" t="n">
@@ -3489,7 +3489,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>centar Karlovca - Kupa</t>
+          <t>Karlovac - Kupa</t>
         </is>
       </c>
       <c r="G85" t="n">
@@ -3525,7 +3525,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>centar Karlovca - Kupa</t>
+          <t>Karlovac - Kupa</t>
         </is>
       </c>
       <c r="G86" t="n">
@@ -3561,7 +3561,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>centar Karlovca - Kupa</t>
+          <t>Karlovac - Kupa</t>
         </is>
       </c>
       <c r="G87" t="n">
@@ -3597,7 +3597,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>centar Karlovca - Kupa</t>
+          <t>Karlovac - Kupa</t>
         </is>
       </c>
       <c r="G88" t="n">
@@ -3633,7 +3633,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>centar Karlovca - Kupa</t>
+          <t>Karlovac - Kupa</t>
         </is>
       </c>
       <c r="G89" t="n">
@@ -3669,7 +3669,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>centar Karlovca - Kupa</t>
+          <t>Karlovac - Kupa</t>
         </is>
       </c>
       <c r="G90" t="n">
@@ -3705,7 +3705,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>centar Karlovca - Kupa</t>
+          <t>Karlovac - Kupa</t>
         </is>
       </c>
       <c r="G91" t="n">
@@ -3741,7 +3741,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>centar Karlovca - Kupa</t>
+          <t>Karlovac - Kupa</t>
         </is>
       </c>
       <c r="G92" t="n">
@@ -3777,7 +3777,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>centar Karlovca - Kupa</t>
+          <t>Karlovac - Kupa</t>
         </is>
       </c>
       <c r="G93" t="n">
@@ -3813,7 +3813,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>centar Karlovca - Kupa</t>
+          <t>Karlovac - Kupa</t>
         </is>
       </c>
       <c r="G94" t="n">
@@ -3849,7 +3849,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>centar Karlovca - Kupa</t>
+          <t>Karlovac - Kupa</t>
         </is>
       </c>
       <c r="G95" t="n">
@@ -3885,7 +3885,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>centar Karlovca - Kupa</t>
+          <t>Karlovac - Kupa</t>
         </is>
       </c>
       <c r="G96" t="n">
@@ -3921,7 +3921,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>centar Karlovca - Kupa</t>
+          <t>Karlovac - Kupa</t>
         </is>
       </c>
       <c r="G97" t="n">
@@ -3957,7 +3957,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>centar Karlovca - Kupa</t>
+          <t>Karlovac - Kupa</t>
         </is>
       </c>
       <c r="G98" t="n">
@@ -3993,7 +3993,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>centar Karlovca - Kupa</t>
+          <t>Karlovac - Kupa</t>
         </is>
       </c>
       <c r="G99" t="n">
@@ -4029,7 +4029,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>centar Karlovca - Kupa</t>
+          <t>Karlovac - Kupa</t>
         </is>
       </c>
       <c r="G100" t="n">
@@ -4065,7 +4065,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>centar Karlovca - Kupa</t>
+          <t>Karlovac - Kupa</t>
         </is>
       </c>
       <c r="G101" t="n">
@@ -4101,7 +4101,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>centar Karlovca - Kupa</t>
+          <t>Karlovac - Kupa</t>
         </is>
       </c>
       <c r="G102" t="n">
@@ -4137,7 +4137,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>centar Karlovca - Kupa</t>
+          <t>Karlovac - Kupa</t>
         </is>
       </c>
       <c r="G103" t="n">
@@ -4173,7 +4173,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>centar Karlovca - Kupa</t>
+          <t>Karlovac - Kupa</t>
         </is>
       </c>
       <c r="G104" t="n">
@@ -4209,7 +4209,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>centar Karlovca - Kupa</t>
+          <t>Karlovac - Kupa</t>
         </is>
       </c>
       <c r="G105" t="n">
@@ -4245,7 +4245,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>centar Karlovca - Kupa</t>
+          <t>Karlovac - Kupa</t>
         </is>
       </c>
       <c r="G106" t="n">
@@ -5541,7 +5541,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Zagrebačka županija - Kupčina</t>
+          <t>ZG županija - Kupčina</t>
         </is>
       </c>
       <c r="G142" t="n">
@@ -5577,7 +5577,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Zagrebačka županija - Kupčina</t>
+          <t>ZG županija - Kupčina</t>
         </is>
       </c>
       <c r="G143" t="n">
@@ -5613,7 +5613,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Zagrebačka županija - Kupčina</t>
+          <t>ZG županija - Kupčina</t>
         </is>
       </c>
       <c r="G144" t="n">
@@ -5649,7 +5649,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Zagrebačka županija - Kupčina</t>
+          <t>ZG županija - Kupčina</t>
         </is>
       </c>
       <c r="G145" t="n">
@@ -5685,7 +5685,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Zagrebačka županija - Kupčina</t>
+          <t>ZG županija - Kupčina</t>
         </is>
       </c>
       <c r="G146" t="n">
@@ -5721,7 +5721,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Zagrebačka županija - Kupčina</t>
+          <t>ZG županija - Kupčina</t>
         </is>
       </c>
       <c r="G147" t="n">
@@ -5757,7 +5757,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Zagrebačka županija - Kupčina</t>
+          <t>ZG županija - Kupčina</t>
         </is>
       </c>
       <c r="G148" t="n">
@@ -5793,7 +5793,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Zagrebačka županija - Kupčina</t>
+          <t>ZG županija - Kupčina</t>
         </is>
       </c>
       <c r="G149" t="n">
@@ -5829,7 +5829,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Zagrebačka županija - Kupčina</t>
+          <t>ZG županija - Kupčina</t>
         </is>
       </c>
       <c r="G150" t="n">
@@ -5865,7 +5865,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Zagrebačka županija - Kupčina</t>
+          <t>ZG županija - Kupčina</t>
         </is>
       </c>
       <c r="G151" t="n">
@@ -5901,7 +5901,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Zagrebačka županija - Kupčina</t>
+          <t>ZG županija - Kupčina</t>
         </is>
       </c>
       <c r="G152" t="n">
@@ -5937,7 +5937,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Zagrebačka županija - Kupčina</t>
+          <t>ZG županija - Kupčina</t>
         </is>
       </c>
       <c r="G153" t="n">
@@ -5973,7 +5973,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Zagrebačka županija - Kupčina</t>
+          <t>ZG županija - Kupčina</t>
         </is>
       </c>
       <c r="G154" t="n">
@@ -6009,7 +6009,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Zagrebačka županija - Kupčina</t>
+          <t>ZG županija - Kupčina</t>
         </is>
       </c>
       <c r="G155" t="n">
@@ -6045,7 +6045,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Zagrebačka županija - Kupčina</t>
+          <t>ZG županija - Kupčina</t>
         </is>
       </c>
       <c r="G156" t="n">
@@ -6081,7 +6081,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Zagrebačka županija - Kupčina</t>
+          <t>ZG županija - Kupčina</t>
         </is>
       </c>
       <c r="G157" t="n">
@@ -6117,7 +6117,7 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Zagrebačka županija - Kupčina</t>
+          <t>ZG županija - Kupčina</t>
         </is>
       </c>
       <c r="G158" t="n">
@@ -6153,7 +6153,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Zagrebačka županija - Kupčina</t>
+          <t>ZG županija - Kupčina</t>
         </is>
       </c>
       <c r="G159" t="n">
@@ -6189,7 +6189,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Zagrebačka županija - Kupčina</t>
+          <t>ZG županija - Kupčina</t>
         </is>
       </c>
       <c r="G160" t="n">
@@ -6225,7 +6225,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Zagrebačka županija - Kupčina</t>
+          <t>ZG županija - Kupčina</t>
         </is>
       </c>
       <c r="G161" t="n">
@@ -6261,7 +6261,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Zagrebačka županija - Kupčina</t>
+          <t>ZG županija - Kupčina</t>
         </is>
       </c>
       <c r="G162" t="n">
@@ -6297,7 +6297,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Zagrebačka županija - Kupčina</t>
+          <t>ZG županija - Kupčina</t>
         </is>
       </c>
       <c r="G163" t="n">
@@ -6333,7 +6333,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Zagrebačka županija - Kupčina</t>
+          <t>ZG županija - Kupčina</t>
         </is>
       </c>
       <c r="G164" t="n">
@@ -6369,7 +6369,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Zagrebačka županija - Kupčina</t>
+          <t>ZG županija - Kupčina</t>
         </is>
       </c>
       <c r="G165" t="n">
@@ -6405,7 +6405,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Zagrebačka županija - Kupčina</t>
+          <t>ZG županija - Kupčina</t>
         </is>
       </c>
       <c r="G166" t="n">
@@ -6441,7 +6441,7 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Zagrebačka županija - Kupčina</t>
+          <t>ZG županija - Kupčina</t>
         </is>
       </c>
       <c r="G167" t="n">
@@ -6477,7 +6477,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Zagrebačka županija - Kupčina</t>
+          <t>ZG županija - Kupčina</t>
         </is>
       </c>
       <c r="G168" t="n">
@@ -6513,7 +6513,7 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Zagrebačka županija - Kupčina</t>
+          <t>ZG županija - Kupčina</t>
         </is>
       </c>
       <c r="G169" t="n">
@@ -6549,7 +6549,7 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Zagrebačka županija - Kupčina</t>
+          <t>ZG županija - Kupčina</t>
         </is>
       </c>
       <c r="G170" t="n">
@@ -6585,7 +6585,7 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Zagrebačka županija - Kupčina</t>
+          <t>ZG županija - Kupčina</t>
         </is>
       </c>
       <c r="G171" t="n">
@@ -6621,7 +6621,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Zagrebačka županija - Kupčina</t>
+          <t>ZG županija - Kupčina</t>
         </is>
       </c>
       <c r="G172" t="n">
@@ -6657,7 +6657,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Zagrebačka županija - Kupčina</t>
+          <t>ZG županija - Kupčina</t>
         </is>
       </c>
       <c r="G173" t="n">
@@ -6693,7 +6693,7 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Zagrebačka županija - Kupčina</t>
+          <t>ZG županija - Kupčina</t>
         </is>
       </c>
       <c r="G174" t="n">
@@ -6729,7 +6729,7 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Zagrebačka županija - Kupčina</t>
+          <t>ZG županija - Kupčina</t>
         </is>
       </c>
       <c r="G175" t="n">
@@ -6765,7 +6765,7 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Zagrebačka županija - Kupčina</t>
+          <t>ZG županija - Kupčina</t>
         </is>
       </c>
       <c r="G176" t="n">
@@ -11841,7 +11841,7 @@
       </c>
       <c r="F317" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jurovo - Jurovski Brod (utok Lahinje - lijevi pritok) - Kupa </t>
+          <t xml:space="preserve">Jurovo - Kupa </t>
         </is>
       </c>
       <c r="G317" t="n">
@@ -11877,7 +11877,7 @@
       </c>
       <c r="F318" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jurovo - Jurovski Brod (utok Lahinje - lijevi pritok) - Kupa </t>
+          <t xml:space="preserve">Jurovo - Kupa </t>
         </is>
       </c>
       <c r="G318" t="n">
@@ -11913,7 +11913,7 @@
       </c>
       <c r="F319" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jurovo - Jurovski Brod (utok Lahinje - lijevi pritok) - Kupa </t>
+          <t xml:space="preserve">Jurovo - Kupa </t>
         </is>
       </c>
       <c r="G319" t="n">
@@ -11949,7 +11949,7 @@
       </c>
       <c r="F320" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jurovo - Jurovski Brod (utok Lahinje - lijevi pritok) - Kupa </t>
+          <t xml:space="preserve">Jurovo - Kupa </t>
         </is>
       </c>
       <c r="G320" t="n">
@@ -11985,7 +11985,7 @@
       </c>
       <c r="F321" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jurovo - Jurovski Brod (utok Lahinje - lijevi pritok) - Kupa </t>
+          <t xml:space="preserve">Jurovo - Kupa </t>
         </is>
       </c>
       <c r="G321" t="n">
@@ -12021,7 +12021,7 @@
       </c>
       <c r="F322" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jurovo - Jurovski Brod (utok Lahinje - lijevi pritok) - Kupa </t>
+          <t xml:space="preserve">Jurovo - Kupa </t>
         </is>
       </c>
       <c r="G322" t="n">
@@ -12057,7 +12057,7 @@
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jurovo - Jurovski Brod (utok Lahinje - lijevi pritok) - Kupa </t>
+          <t xml:space="preserve">Jurovo - Kupa </t>
         </is>
       </c>
       <c r="G323" t="n">
@@ -12093,7 +12093,7 @@
       </c>
       <c r="F324" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jurovo - Jurovski Brod (utok Lahinje - lijevi pritok) - Kupa </t>
+          <t xml:space="preserve">Jurovo - Kupa </t>
         </is>
       </c>
       <c r="G324" t="n">
@@ -12129,7 +12129,7 @@
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jurovo - Jurovski Brod (utok Lahinje - lijevi pritok) - Kupa </t>
+          <t xml:space="preserve">Jurovo - Kupa </t>
         </is>
       </c>
       <c r="G325" t="n">
@@ -12165,7 +12165,7 @@
       </c>
       <c r="F326" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jurovo - Jurovski Brod (utok Lahinje - lijevi pritok) - Kupa </t>
+          <t xml:space="preserve">Jurovo - Kupa </t>
         </is>
       </c>
       <c r="G326" t="n">
@@ -12201,7 +12201,7 @@
       </c>
       <c r="F327" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jurovo - Jurovski Brod (utok Lahinje - lijevi pritok) - Kupa </t>
+          <t xml:space="preserve">Jurovo - Kupa </t>
         </is>
       </c>
       <c r="G327" t="n">
@@ -12237,7 +12237,7 @@
       </c>
       <c r="F328" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jurovo - Jurovski Brod (utok Lahinje - lijevi pritok) - Kupa </t>
+          <t xml:space="preserve">Jurovo - Kupa </t>
         </is>
       </c>
       <c r="G328" t="n">
@@ -12273,7 +12273,7 @@
       </c>
       <c r="F329" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jurovo - Jurovski Brod (utok Lahinje - lijevi pritok) - Kupa </t>
+          <t xml:space="preserve">Jurovo - Kupa </t>
         </is>
       </c>
       <c r="G329" t="n">
@@ -12309,7 +12309,7 @@
       </c>
       <c r="F330" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jurovo - Jurovski Brod (utok Lahinje - lijevi pritok) - Kupa </t>
+          <t xml:space="preserve">Jurovo - Kupa </t>
         </is>
       </c>
       <c r="G330" t="n">
@@ -12345,7 +12345,7 @@
       </c>
       <c r="F331" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jurovo - Jurovski Brod (utok Lahinje - lijevi pritok) - Kupa </t>
+          <t xml:space="preserve">Jurovo - Kupa </t>
         </is>
       </c>
       <c r="G331" t="n">
@@ -12381,7 +12381,7 @@
       </c>
       <c r="F332" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jurovo - Jurovski Brod (utok Lahinje - lijevi pritok) - Kupa </t>
+          <t xml:space="preserve">Jurovo - Kupa </t>
         </is>
       </c>
       <c r="G332" t="n">
@@ -12417,7 +12417,7 @@
       </c>
       <c r="F333" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jurovo - Jurovski Brod (utok Lahinje - lijevi pritok) - Kupa </t>
+          <t xml:space="preserve">Jurovo - Kupa </t>
         </is>
       </c>
       <c r="G333" t="n">
@@ -12453,7 +12453,7 @@
       </c>
       <c r="F334" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jurovo - Jurovski Brod (utok Lahinje - lijevi pritok) - Kupa </t>
+          <t xml:space="preserve">Jurovo - Kupa </t>
         </is>
       </c>
       <c r="G334" t="n">
@@ -12489,7 +12489,7 @@
       </c>
       <c r="F335" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jurovo - Jurovski Brod (utok Lahinje - lijevi pritok) - Kupa </t>
+          <t xml:space="preserve">Jurovo - Kupa </t>
         </is>
       </c>
       <c r="G335" t="n">
@@ -12525,7 +12525,7 @@
       </c>
       <c r="F336" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jurovo - Jurovski Brod (utok Lahinje - lijevi pritok) - Kupa </t>
+          <t xml:space="preserve">Jurovo - Kupa </t>
         </is>
       </c>
       <c r="G336" t="n">
@@ -12561,7 +12561,7 @@
       </c>
       <c r="F337" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jurovo - Jurovski Brod (utok Lahinje - lijevi pritok) - Kupa </t>
+          <t xml:space="preserve">Jurovo - Kupa </t>
         </is>
       </c>
       <c r="G337" t="n">
@@ -12597,7 +12597,7 @@
       </c>
       <c r="F338" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jurovo - Jurovski Brod (utok Lahinje - lijevi pritok) - Kupa </t>
+          <t xml:space="preserve">Jurovo - Kupa </t>
         </is>
       </c>
       <c r="G338" t="n">
@@ -12633,7 +12633,7 @@
       </c>
       <c r="F339" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jurovo - Jurovski Brod (utok Lahinje - lijevi pritok) - Kupa </t>
+          <t xml:space="preserve">Jurovo - Kupa </t>
         </is>
       </c>
       <c r="G339" t="n">
@@ -12669,7 +12669,7 @@
       </c>
       <c r="F340" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jurovo - Jurovski Brod (utok Lahinje - lijevi pritok) - Kupa </t>
+          <t xml:space="preserve">Jurovo - Kupa </t>
         </is>
       </c>
       <c r="G340" t="n">
@@ -12705,7 +12705,7 @@
       </c>
       <c r="F341" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jurovo - Jurovski Brod (utok Lahinje - lijevi pritok) - Kupa </t>
+          <t xml:space="preserve">Jurovo - Kupa </t>
         </is>
       </c>
       <c r="G341" t="n">
@@ -12741,7 +12741,7 @@
       </c>
       <c r="F342" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jurovo - Jurovski Brod (utok Lahinje - lijevi pritok) - Kupa </t>
+          <t xml:space="preserve">Jurovo - Kupa </t>
         </is>
       </c>
       <c r="G342" t="n">
@@ -12777,7 +12777,7 @@
       </c>
       <c r="F343" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jurovo - Jurovski Brod (utok Lahinje - lijevi pritok) - Kupa </t>
+          <t xml:space="preserve">Jurovo - Kupa </t>
         </is>
       </c>
       <c r="G343" t="n">
@@ -12813,7 +12813,7 @@
       </c>
       <c r="F344" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jurovo - Jurovski Brod (utok Lahinje - lijevi pritok) - Kupa </t>
+          <t xml:space="preserve">Jurovo - Kupa </t>
         </is>
       </c>
       <c r="G344" t="n">
@@ -12849,7 +12849,7 @@
       </c>
       <c r="F345" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jurovo - Jurovski Brod (utok Lahinje - lijevi pritok) - Kupa </t>
+          <t xml:space="preserve">Jurovo - Kupa </t>
         </is>
       </c>
       <c r="G345" t="n">
@@ -12885,7 +12885,7 @@
       </c>
       <c r="F346" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jurovo - Jurovski Brod (utok Lahinje - lijevi pritok) - Kupa </t>
+          <t xml:space="preserve">Jurovo - Kupa </t>
         </is>
       </c>
       <c r="G346" t="n">
@@ -12921,7 +12921,7 @@
       </c>
       <c r="F347" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jurovo - Jurovski Brod (utok Lahinje - lijevi pritok) - Kupa </t>
+          <t xml:space="preserve">Jurovo - Kupa </t>
         </is>
       </c>
       <c r="G347" t="n">
@@ -12957,7 +12957,7 @@
       </c>
       <c r="F348" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jurovo - Jurovski Brod (utok Lahinje - lijevi pritok) - Kupa </t>
+          <t xml:space="preserve">Jurovo - Kupa </t>
         </is>
       </c>
       <c r="G348" t="n">
@@ -12993,7 +12993,7 @@
       </c>
       <c r="F349" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jurovo - Jurovski Brod (utok Lahinje - lijevi pritok) - Kupa </t>
+          <t xml:space="preserve">Jurovo - Kupa </t>
         </is>
       </c>
       <c r="G349" t="n">
@@ -13029,7 +13029,7 @@
       </c>
       <c r="F350" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jurovo - Jurovski Brod (utok Lahinje - lijevi pritok) - Kupa </t>
+          <t xml:space="preserve">Jurovo - Kupa </t>
         </is>
       </c>
       <c r="G350" t="n">
@@ -13065,7 +13065,7 @@
       </c>
       <c r="F351" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jurovo - Jurovski Brod (utok Lahinje - lijevi pritok) - Kupa </t>
+          <t xml:space="preserve">Jurovo - Kupa </t>
         </is>
       </c>
       <c r="G351" t="n">
@@ -13101,7 +13101,7 @@
       </c>
       <c r="F352" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ozalj - Kupa </t>
+          <t xml:space="preserve">HE - Kupa </t>
         </is>
       </c>
       <c r="G352" t="n">
@@ -13137,7 +13137,7 @@
       </c>
       <c r="F353" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ozalj - Kupa </t>
+          <t xml:space="preserve">HE - Kupa </t>
         </is>
       </c>
       <c r="G353" t="n">
@@ -13173,7 +13173,7 @@
       </c>
       <c r="F354" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ozalj - Kupa </t>
+          <t xml:space="preserve">HE - Kupa </t>
         </is>
       </c>
       <c r="G354" t="n">
@@ -13209,7 +13209,7 @@
       </c>
       <c r="F355" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ozalj - Kupa </t>
+          <t xml:space="preserve">HE - Kupa </t>
         </is>
       </c>
       <c r="G355" t="n">
@@ -13245,7 +13245,7 @@
       </c>
       <c r="F356" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ozalj - Kupa </t>
+          <t xml:space="preserve">HE - Kupa </t>
         </is>
       </c>
       <c r="G356" t="n">
@@ -13281,7 +13281,7 @@
       </c>
       <c r="F357" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ozalj - Kupa </t>
+          <t xml:space="preserve">HE - Kupa </t>
         </is>
       </c>
       <c r="G357" t="n">
@@ -13317,7 +13317,7 @@
       </c>
       <c r="F358" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ozalj - Kupa </t>
+          <t xml:space="preserve">HE - Kupa </t>
         </is>
       </c>
       <c r="G358" t="n">
@@ -13353,7 +13353,7 @@
       </c>
       <c r="F359" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ozalj - Kupa </t>
+          <t xml:space="preserve">HE - Kupa </t>
         </is>
       </c>
       <c r="G359" t="n">
@@ -13389,7 +13389,7 @@
       </c>
       <c r="F360" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ozalj - Kupa </t>
+          <t xml:space="preserve">HE - Kupa </t>
         </is>
       </c>
       <c r="G360" t="n">
@@ -13425,7 +13425,7 @@
       </c>
       <c r="F361" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ozalj - Kupa </t>
+          <t xml:space="preserve">HE - Kupa </t>
         </is>
       </c>
       <c r="G361" t="n">
@@ -13461,7 +13461,7 @@
       </c>
       <c r="F362" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ozalj - Kupa </t>
+          <t xml:space="preserve">HE - Kupa </t>
         </is>
       </c>
       <c r="G362" t="n">
@@ -13497,7 +13497,7 @@
       </c>
       <c r="F363" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ozalj - Kupa </t>
+          <t xml:space="preserve">HE - Kupa </t>
         </is>
       </c>
       <c r="G363" t="n">
@@ -13533,7 +13533,7 @@
       </c>
       <c r="F364" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ozalj - Kupa </t>
+          <t xml:space="preserve">HE - Kupa </t>
         </is>
       </c>
       <c r="G364" t="n">
@@ -13569,7 +13569,7 @@
       </c>
       <c r="F365" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ozalj - Kupa </t>
+          <t xml:space="preserve">HE - Kupa </t>
         </is>
       </c>
       <c r="G365" t="n">
@@ -13605,7 +13605,7 @@
       </c>
       <c r="F366" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ozalj - Kupa </t>
+          <t xml:space="preserve">HE - Kupa </t>
         </is>
       </c>
       <c r="G366" t="n">
@@ -13641,7 +13641,7 @@
       </c>
       <c r="F367" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ozalj - Kupa </t>
+          <t xml:space="preserve">HE - Kupa </t>
         </is>
       </c>
       <c r="G367" t="n">
@@ -13677,7 +13677,7 @@
       </c>
       <c r="F368" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ozalj - Kupa </t>
+          <t xml:space="preserve">HE - Kupa </t>
         </is>
       </c>
       <c r="G368" t="n">
@@ -13713,7 +13713,7 @@
       </c>
       <c r="F369" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ozalj - Kupa </t>
+          <t xml:space="preserve">HE - Kupa </t>
         </is>
       </c>
       <c r="G369" t="n">
@@ -13749,7 +13749,7 @@
       </c>
       <c r="F370" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ozalj - Kupa </t>
+          <t xml:space="preserve">HE - Kupa </t>
         </is>
       </c>
       <c r="G370" t="n">
@@ -13785,7 +13785,7 @@
       </c>
       <c r="F371" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ozalj - Kupa </t>
+          <t xml:space="preserve">HE - Kupa </t>
         </is>
       </c>
       <c r="G371" t="n">
@@ -13821,7 +13821,7 @@
       </c>
       <c r="F372" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ozalj - Kupa </t>
+          <t xml:space="preserve">HE - Kupa </t>
         </is>
       </c>
       <c r="G372" t="n">
@@ -13857,7 +13857,7 @@
       </c>
       <c r="F373" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ozalj - Kupa </t>
+          <t xml:space="preserve">HE - Kupa </t>
         </is>
       </c>
       <c r="G373" t="n">
@@ -13893,7 +13893,7 @@
       </c>
       <c r="F374" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ozalj - Kupa </t>
+          <t xml:space="preserve">HE - Kupa </t>
         </is>
       </c>
       <c r="G374" t="n">
@@ -13929,7 +13929,7 @@
       </c>
       <c r="F375" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ozalj - Kupa </t>
+          <t xml:space="preserve">HE - Kupa </t>
         </is>
       </c>
       <c r="G375" t="n">
@@ -13965,7 +13965,7 @@
       </c>
       <c r="F376" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ozalj - Kupa </t>
+          <t xml:space="preserve">HE - Kupa </t>
         </is>
       </c>
       <c r="G376" t="n">
@@ -14001,7 +14001,7 @@
       </c>
       <c r="F377" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ozalj - Kupa </t>
+          <t xml:space="preserve">HE - Kupa </t>
         </is>
       </c>
       <c r="G377" t="n">
@@ -14037,7 +14037,7 @@
       </c>
       <c r="F378" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ozalj - Kupa </t>
+          <t xml:space="preserve">HE - Kupa </t>
         </is>
       </c>
       <c r="G378" t="n">
@@ -14073,7 +14073,7 @@
       </c>
       <c r="F379" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ozalj - Kupa </t>
+          <t xml:space="preserve">HE - Kupa </t>
         </is>
       </c>
       <c r="G379" t="n">
@@ -14109,7 +14109,7 @@
       </c>
       <c r="F380" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ozalj - Kupa </t>
+          <t xml:space="preserve">HE - Kupa </t>
         </is>
       </c>
       <c r="G380" t="n">
@@ -14145,7 +14145,7 @@
       </c>
       <c r="F381" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ozalj - Kupa </t>
+          <t xml:space="preserve">HE - Kupa </t>
         </is>
       </c>
       <c r="G381" t="n">
@@ -14181,7 +14181,7 @@
       </c>
       <c r="F382" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ozalj - Kupa </t>
+          <t xml:space="preserve">HE - Kupa </t>
         </is>
       </c>
       <c r="G382" t="n">
@@ -14217,7 +14217,7 @@
       </c>
       <c r="F383" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ozalj - Kupa </t>
+          <t xml:space="preserve">HE - Kupa </t>
         </is>
       </c>
       <c r="G383" t="n">
@@ -14253,7 +14253,7 @@
       </c>
       <c r="F384" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ozalj - Kupa </t>
+          <t xml:space="preserve">HE - Kupa </t>
         </is>
       </c>
       <c r="G384" t="n">
@@ -14289,7 +14289,7 @@
       </c>
       <c r="F385" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ozalj - Kupa </t>
+          <t xml:space="preserve">HE - Kupa </t>
         </is>
       </c>
       <c r="G385" t="n">
@@ -14325,7 +14325,7 @@
       </c>
       <c r="F386" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ozalj - Kupa </t>
+          <t xml:space="preserve">HE - Kupa </t>
         </is>
       </c>
       <c r="G386" t="n">
@@ -14361,7 +14361,7 @@
       </c>
       <c r="F387" t="inlineStr">
         <is>
-          <t>Metković-Doljani - Neretva</t>
+          <t>Doljani - Neretva</t>
         </is>
       </c>
       <c r="G387" t="n">
@@ -14397,7 +14397,7 @@
       </c>
       <c r="F388" t="inlineStr">
         <is>
-          <t>Metković-Doljani - Neretva</t>
+          <t>Doljani - Neretva</t>
         </is>
       </c>
       <c r="G388" t="n">
@@ -14433,7 +14433,7 @@
       </c>
       <c r="F389" t="inlineStr">
         <is>
-          <t>Metković-Doljani - Neretva</t>
+          <t>Doljani - Neretva</t>
         </is>
       </c>
       <c r="G389" t="n">
@@ -14469,7 +14469,7 @@
       </c>
       <c r="F390" t="inlineStr">
         <is>
-          <t>Metković-Doljani - Neretva</t>
+          <t>Doljani - Neretva</t>
         </is>
       </c>
       <c r="G390" t="n">
@@ -14505,7 +14505,7 @@
       </c>
       <c r="F391" t="inlineStr">
         <is>
-          <t>Metković-Doljani - Neretva</t>
+          <t>Doljani - Neretva</t>
         </is>
       </c>
       <c r="G391" t="n">
@@ -14541,7 +14541,7 @@
       </c>
       <c r="F392" t="inlineStr">
         <is>
-          <t>Metković-Doljani - Neretva</t>
+          <t>Doljani - Neretva</t>
         </is>
       </c>
       <c r="G392" t="n">
@@ -14577,7 +14577,7 @@
       </c>
       <c r="F393" t="inlineStr">
         <is>
-          <t>Metković-Doljani - Neretva</t>
+          <t>Doljani - Neretva</t>
         </is>
       </c>
       <c r="G393" t="n">
@@ -14613,7 +14613,7 @@
       </c>
       <c r="F394" t="inlineStr">
         <is>
-          <t>Metković-Doljani - Neretva</t>
+          <t>Doljani - Neretva</t>
         </is>
       </c>
       <c r="G394" t="n">
@@ -14649,7 +14649,7 @@
       </c>
       <c r="F395" t="inlineStr">
         <is>
-          <t>Metković-Doljani - Neretva</t>
+          <t>Doljani - Neretva</t>
         </is>
       </c>
       <c r="G395" t="n">
@@ -14685,7 +14685,7 @@
       </c>
       <c r="F396" t="inlineStr">
         <is>
-          <t>Metković-Doljani - Neretva</t>
+          <t>Doljani - Neretva</t>
         </is>
       </c>
       <c r="G396" t="n">
@@ -14721,7 +14721,7 @@
       </c>
       <c r="F397" t="inlineStr">
         <is>
-          <t>Metković-Doljani - Neretva</t>
+          <t>Doljani - Neretva</t>
         </is>
       </c>
       <c r="G397" t="n">
@@ -14757,7 +14757,7 @@
       </c>
       <c r="F398" t="inlineStr">
         <is>
-          <t>Metković-Doljani - Neretva</t>
+          <t>Doljani - Neretva</t>
         </is>
       </c>
       <c r="G398" t="n">
@@ -14793,7 +14793,7 @@
       </c>
       <c r="F399" t="inlineStr">
         <is>
-          <t>Metković-Doljani - Neretva</t>
+          <t>Doljani - Neretva</t>
         </is>
       </c>
       <c r="G399" t="n">
@@ -14829,7 +14829,7 @@
       </c>
       <c r="F400" t="inlineStr">
         <is>
-          <t>Metković-Doljani - Neretva</t>
+          <t>Doljani - Neretva</t>
         </is>
       </c>
       <c r="G400" t="n">
@@ -14865,7 +14865,7 @@
       </c>
       <c r="F401" t="inlineStr">
         <is>
-          <t>Metković-Doljani - Neretva</t>
+          <t>Doljani - Neretva</t>
         </is>
       </c>
       <c r="G401" t="n">
@@ -14901,7 +14901,7 @@
       </c>
       <c r="F402" t="inlineStr">
         <is>
-          <t>Metković-Doljani - Neretva</t>
+          <t>Doljani - Neretva</t>
         </is>
       </c>
       <c r="G402" t="n">
@@ -14937,7 +14937,7 @@
       </c>
       <c r="F403" t="inlineStr">
         <is>
-          <t>Metković-Doljani - Neretva</t>
+          <t>Doljani - Neretva</t>
         </is>
       </c>
       <c r="G403" t="n">
@@ -14973,7 +14973,7 @@
       </c>
       <c r="F404" t="inlineStr">
         <is>
-          <t>Metković-Doljani - Neretva</t>
+          <t>Doljani - Neretva</t>
         </is>
       </c>
       <c r="G404" t="n">
@@ -15009,7 +15009,7 @@
       </c>
       <c r="F405" t="inlineStr">
         <is>
-          <t>Metković-Doljani - Neretva</t>
+          <t>Doljani - Neretva</t>
         </is>
       </c>
       <c r="G405" t="n">
@@ -15045,7 +15045,7 @@
       </c>
       <c r="F406" t="inlineStr">
         <is>
-          <t>Metković-Doljani - Neretva</t>
+          <t>Doljani - Neretva</t>
         </is>
       </c>
       <c r="G406" t="n">
@@ -15081,7 +15081,7 @@
       </c>
       <c r="F407" t="inlineStr">
         <is>
-          <t>Metković-Doljani - Neretva</t>
+          <t>Doljani - Neretva</t>
         </is>
       </c>
       <c r="G407" t="n">
@@ -15117,7 +15117,7 @@
       </c>
       <c r="F408" t="inlineStr">
         <is>
-          <t>Metković-Doljani - Neretva</t>
+          <t>Doljani - Neretva</t>
         </is>
       </c>
       <c r="G408" t="n">
@@ -15153,7 +15153,7 @@
       </c>
       <c r="F409" t="inlineStr">
         <is>
-          <t>Metković-Doljani - Neretva</t>
+          <t>Doljani - Neretva</t>
         </is>
       </c>
       <c r="G409" t="n">
@@ -15189,7 +15189,7 @@
       </c>
       <c r="F410" t="inlineStr">
         <is>
-          <t>Metković-Doljani - Neretva</t>
+          <t>Doljani - Neretva</t>
         </is>
       </c>
       <c r="G410" t="n">
@@ -15225,7 +15225,7 @@
       </c>
       <c r="F411" t="inlineStr">
         <is>
-          <t>Metković-Doljani - Neretva</t>
+          <t>Doljani - Neretva</t>
         </is>
       </c>
       <c r="G411" t="n">
@@ -15261,7 +15261,7 @@
       </c>
       <c r="F412" t="inlineStr">
         <is>
-          <t>Metković-Doljani - Neretva</t>
+          <t>Doljani - Neretva</t>
         </is>
       </c>
       <c r="G412" t="n">
@@ -15297,7 +15297,7 @@
       </c>
       <c r="F413" t="inlineStr">
         <is>
-          <t>Metković-Doljani - Neretva</t>
+          <t>Doljani - Neretva</t>
         </is>
       </c>
       <c r="G413" t="n">
@@ -15333,7 +15333,7 @@
       </c>
       <c r="F414" t="inlineStr">
         <is>
-          <t>Metković-Doljani - Neretva</t>
+          <t>Doljani - Neretva</t>
         </is>
       </c>
       <c r="G414" t="n">
@@ -15369,7 +15369,7 @@
       </c>
       <c r="F415" t="inlineStr">
         <is>
-          <t>Metković-Doljani - Neretva</t>
+          <t>Doljani - Neretva</t>
         </is>
       </c>
       <c r="G415" t="n">
@@ -15405,7 +15405,7 @@
       </c>
       <c r="F416" t="inlineStr">
         <is>
-          <t>Metković-Doljani - Neretva</t>
+          <t>Doljani - Neretva</t>
         </is>
       </c>
       <c r="G416" t="n">
@@ -15441,7 +15441,7 @@
       </c>
       <c r="F417" t="inlineStr">
         <is>
-          <t>Metković-Doljani - Neretva</t>
+          <t>Doljani - Neretva</t>
         </is>
       </c>
       <c r="G417" t="n">
@@ -15477,7 +15477,7 @@
       </c>
       <c r="F418" t="inlineStr">
         <is>
-          <t>Metković-Doljani - Neretva</t>
+          <t>Doljani - Neretva</t>
         </is>
       </c>
       <c r="G418" t="n">
@@ -15513,7 +15513,7 @@
       </c>
       <c r="F419" t="inlineStr">
         <is>
-          <t>Metković-Doljani - Neretva</t>
+          <t>Doljani - Neretva</t>
         </is>
       </c>
       <c r="G419" t="n">
@@ -15549,7 +15549,7 @@
       </c>
       <c r="F420" t="inlineStr">
         <is>
-          <t>Metković-Doljani - Neretva</t>
+          <t>Doljani - Neretva</t>
         </is>
       </c>
       <c r="G420" t="n">
@@ -15585,7 +15585,7 @@
       </c>
       <c r="F421" t="inlineStr">
         <is>
-          <t>Metković-Doljani - Neretva</t>
+          <t>Doljani - Neretva</t>
         </is>
       </c>
       <c r="G421" t="n">
@@ -15621,7 +15621,7 @@
       </c>
       <c r="F422" t="inlineStr">
         <is>
-          <t>Metković-Unka - Neretva</t>
+          <t>Unka - Neretva</t>
         </is>
       </c>
       <c r="G422" t="n">
@@ -15657,7 +15657,7 @@
       </c>
       <c r="F423" t="inlineStr">
         <is>
-          <t>Metković-Unka - Neretva</t>
+          <t>Unka - Neretva</t>
         </is>
       </c>
       <c r="G423" t="n">
@@ -15693,7 +15693,7 @@
       </c>
       <c r="F424" t="inlineStr">
         <is>
-          <t>Metković-Unka - Neretva</t>
+          <t>Unka - Neretva</t>
         </is>
       </c>
       <c r="G424" t="n">
@@ -15729,7 +15729,7 @@
       </c>
       <c r="F425" t="inlineStr">
         <is>
-          <t>Metković-Unka - Neretva</t>
+          <t>Unka - Neretva</t>
         </is>
       </c>
       <c r="G425" t="n">
@@ -15765,7 +15765,7 @@
       </c>
       <c r="F426" t="inlineStr">
         <is>
-          <t>Metković-Unka - Neretva</t>
+          <t>Unka - Neretva</t>
         </is>
       </c>
       <c r="G426" t="n">
@@ -15801,7 +15801,7 @@
       </c>
       <c r="F427" t="inlineStr">
         <is>
-          <t>Metković-Unka - Neretva</t>
+          <t>Unka - Neretva</t>
         </is>
       </c>
       <c r="G427" t="n">
@@ -15837,7 +15837,7 @@
       </c>
       <c r="F428" t="inlineStr">
         <is>
-          <t>Metković-Unka - Neretva</t>
+          <t>Unka - Neretva</t>
         </is>
       </c>
       <c r="G428" t="n">
@@ -15873,7 +15873,7 @@
       </c>
       <c r="F429" t="inlineStr">
         <is>
-          <t>Metković-Unka - Neretva</t>
+          <t>Unka - Neretva</t>
         </is>
       </c>
       <c r="G429" t="n">
@@ -15909,7 +15909,7 @@
       </c>
       <c r="F430" t="inlineStr">
         <is>
-          <t>Metković-Unka - Neretva</t>
+          <t>Unka - Neretva</t>
         </is>
       </c>
       <c r="G430" t="n">
@@ -15945,7 +15945,7 @@
       </c>
       <c r="F431" t="inlineStr">
         <is>
-          <t>Metković-Unka - Neretva</t>
+          <t>Unka - Neretva</t>
         </is>
       </c>
       <c r="G431" t="n">
@@ -15981,7 +15981,7 @@
       </c>
       <c r="F432" t="inlineStr">
         <is>
-          <t>Metković-Unka - Neretva</t>
+          <t>Unka - Neretva</t>
         </is>
       </c>
       <c r="G432" t="n">
@@ -16017,7 +16017,7 @@
       </c>
       <c r="F433" t="inlineStr">
         <is>
-          <t>Metković-Unka - Neretva</t>
+          <t>Unka - Neretva</t>
         </is>
       </c>
       <c r="G433" t="n">
@@ -16053,7 +16053,7 @@
       </c>
       <c r="F434" t="inlineStr">
         <is>
-          <t>Metković-Unka - Neretva</t>
+          <t>Unka - Neretva</t>
         </is>
       </c>
       <c r="G434" t="n">
@@ -16089,7 +16089,7 @@
       </c>
       <c r="F435" t="inlineStr">
         <is>
-          <t>Metković-Unka - Neretva</t>
+          <t>Unka - Neretva</t>
         </is>
       </c>
       <c r="G435" t="n">
@@ -16125,7 +16125,7 @@
       </c>
       <c r="F436" t="inlineStr">
         <is>
-          <t>Metković-Unka - Neretva</t>
+          <t>Unka - Neretva</t>
         </is>
       </c>
       <c r="G436" t="n">
@@ -16161,7 +16161,7 @@
       </c>
       <c r="F437" t="inlineStr">
         <is>
-          <t>Metković-Unka - Neretva</t>
+          <t>Unka - Neretva</t>
         </is>
       </c>
       <c r="G437" t="n">
@@ -16197,7 +16197,7 @@
       </c>
       <c r="F438" t="inlineStr">
         <is>
-          <t>Metković-Unka - Neretva</t>
+          <t>Unka - Neretva</t>
         </is>
       </c>
       <c r="G438" t="n">
@@ -16233,7 +16233,7 @@
       </c>
       <c r="F439" t="inlineStr">
         <is>
-          <t>Metković-Unka - Neretva</t>
+          <t>Unka - Neretva</t>
         </is>
       </c>
       <c r="G439" t="n">
@@ -16269,7 +16269,7 @@
       </c>
       <c r="F440" t="inlineStr">
         <is>
-          <t>Metković-Unka - Neretva</t>
+          <t>Unka - Neretva</t>
         </is>
       </c>
       <c r="G440" t="n">
@@ -16305,7 +16305,7 @@
       </c>
       <c r="F441" t="inlineStr">
         <is>
-          <t>Metković-Unka - Neretva</t>
+          <t>Unka - Neretva</t>
         </is>
       </c>
       <c r="G441" t="n">
@@ -16341,7 +16341,7 @@
       </c>
       <c r="F442" t="inlineStr">
         <is>
-          <t>Metković-Unka - Neretva</t>
+          <t>Unka - Neretva</t>
         </is>
       </c>
       <c r="G442" t="n">
@@ -16377,7 +16377,7 @@
       </c>
       <c r="F443" t="inlineStr">
         <is>
-          <t>Metković-Unka - Neretva</t>
+          <t>Unka - Neretva</t>
         </is>
       </c>
       <c r="G443" t="n">
@@ -16413,7 +16413,7 @@
       </c>
       <c r="F444" t="inlineStr">
         <is>
-          <t>Metković-Unka - Neretva</t>
+          <t>Unka - Neretva</t>
         </is>
       </c>
       <c r="G444" t="n">
@@ -16449,7 +16449,7 @@
       </c>
       <c r="F445" t="inlineStr">
         <is>
-          <t>Metković-Unka - Neretva</t>
+          <t>Unka - Neretva</t>
         </is>
       </c>
       <c r="G445" t="n">
@@ -16485,7 +16485,7 @@
       </c>
       <c r="F446" t="inlineStr">
         <is>
-          <t>Metković-Unka - Neretva</t>
+          <t>Unka - Neretva</t>
         </is>
       </c>
       <c r="G446" t="n">
@@ -16521,7 +16521,7 @@
       </c>
       <c r="F447" t="inlineStr">
         <is>
-          <t>Metković-Unka - Neretva</t>
+          <t>Unka - Neretva</t>
         </is>
       </c>
       <c r="G447" t="n">
@@ -16557,7 +16557,7 @@
       </c>
       <c r="F448" t="inlineStr">
         <is>
-          <t>Metković-Unka - Neretva</t>
+          <t>Unka - Neretva</t>
         </is>
       </c>
       <c r="G448" t="n">
@@ -16593,7 +16593,7 @@
       </c>
       <c r="F449" t="inlineStr">
         <is>
-          <t>Metković-Unka - Neretva</t>
+          <t>Unka - Neretva</t>
         </is>
       </c>
       <c r="G449" t="n">
@@ -16629,7 +16629,7 @@
       </c>
       <c r="F450" t="inlineStr">
         <is>
-          <t>Metković-Unka - Neretva</t>
+          <t>Unka - Neretva</t>
         </is>
       </c>
       <c r="G450" t="n">
@@ -16665,7 +16665,7 @@
       </c>
       <c r="F451" t="inlineStr">
         <is>
-          <t>Metković-Unka - Neretva</t>
+          <t>Unka - Neretva</t>
         </is>
       </c>
       <c r="G451" t="n">
@@ -16701,7 +16701,7 @@
       </c>
       <c r="F452" t="inlineStr">
         <is>
-          <t>Metković-Unka - Neretva</t>
+          <t>Unka - Neretva</t>
         </is>
       </c>
       <c r="G452" t="n">
@@ -16737,7 +16737,7 @@
       </c>
       <c r="F453" t="inlineStr">
         <is>
-          <t>Metković-Unka - Neretva</t>
+          <t>Unka - Neretva</t>
         </is>
       </c>
       <c r="G453" t="n">
@@ -16773,7 +16773,7 @@
       </c>
       <c r="F454" t="inlineStr">
         <is>
-          <t>Metković-Unka - Neretva</t>
+          <t>Unka - Neretva</t>
         </is>
       </c>
       <c r="G454" t="n">
@@ -16809,7 +16809,7 @@
       </c>
       <c r="F455" t="inlineStr">
         <is>
-          <t>Metković-Unka - Neretva</t>
+          <t>Unka - Neretva</t>
         </is>
       </c>
       <c r="G455" t="n">
@@ -16845,7 +16845,7 @@
       </c>
       <c r="F456" t="inlineStr">
         <is>
-          <t>Metković-Unka - Neretva</t>
+          <t>Unka - Neretva</t>
         </is>
       </c>
       <c r="G456" t="n">
@@ -16881,7 +16881,7 @@
       </c>
       <c r="F457" t="inlineStr">
         <is>
-          <t>Metković-most - Neretva</t>
+          <t>most - Neretva</t>
         </is>
       </c>
       <c r="G457" t="n">
@@ -16917,7 +16917,7 @@
       </c>
       <c r="F458" t="inlineStr">
         <is>
-          <t>Metković-most - Neretva</t>
+          <t>most - Neretva</t>
         </is>
       </c>
       <c r="G458" t="n">
@@ -16953,7 +16953,7 @@
       </c>
       <c r="F459" t="inlineStr">
         <is>
-          <t>Metković-most - Neretva</t>
+          <t>most - Neretva</t>
         </is>
       </c>
       <c r="G459" t="n">
@@ -16989,7 +16989,7 @@
       </c>
       <c r="F460" t="inlineStr">
         <is>
-          <t>Metković-most - Neretva</t>
+          <t>most - Neretva</t>
         </is>
       </c>
       <c r="G460" t="n">
@@ -17025,7 +17025,7 @@
       </c>
       <c r="F461" t="inlineStr">
         <is>
-          <t>Metković-most - Neretva</t>
+          <t>most - Neretva</t>
         </is>
       </c>
       <c r="G461" t="n">
@@ -17061,7 +17061,7 @@
       </c>
       <c r="F462" t="inlineStr">
         <is>
-          <t>Metković-most - Neretva</t>
+          <t>most - Neretva</t>
         </is>
       </c>
       <c r="G462" t="n">
@@ -17097,7 +17097,7 @@
       </c>
       <c r="F463" t="inlineStr">
         <is>
-          <t>Metković-most - Neretva</t>
+          <t>most - Neretva</t>
         </is>
       </c>
       <c r="G463" t="n">
@@ -17133,7 +17133,7 @@
       </c>
       <c r="F464" t="inlineStr">
         <is>
-          <t>Metković-most - Neretva</t>
+          <t>most - Neretva</t>
         </is>
       </c>
       <c r="G464" t="n">
@@ -17169,7 +17169,7 @@
       </c>
       <c r="F465" t="inlineStr">
         <is>
-          <t>Metković-most - Neretva</t>
+          <t>most - Neretva</t>
         </is>
       </c>
       <c r="G465" t="n">
@@ -17205,7 +17205,7 @@
       </c>
       <c r="F466" t="inlineStr">
         <is>
-          <t>Metković-most - Neretva</t>
+          <t>most - Neretva</t>
         </is>
       </c>
       <c r="G466" t="n">
@@ -17241,7 +17241,7 @@
       </c>
       <c r="F467" t="inlineStr">
         <is>
-          <t>Metković-most - Neretva</t>
+          <t>most - Neretva</t>
         </is>
       </c>
       <c r="G467" t="n">
@@ -17277,7 +17277,7 @@
       </c>
       <c r="F468" t="inlineStr">
         <is>
-          <t>Metković-most - Neretva</t>
+          <t>most - Neretva</t>
         </is>
       </c>
       <c r="G468" t="n">
@@ -17313,7 +17313,7 @@
       </c>
       <c r="F469" t="inlineStr">
         <is>
-          <t>Metković-most - Neretva</t>
+          <t>most - Neretva</t>
         </is>
       </c>
       <c r="G469" t="n">
@@ -17349,7 +17349,7 @@
       </c>
       <c r="F470" t="inlineStr">
         <is>
-          <t>Metković-most - Neretva</t>
+          <t>most - Neretva</t>
         </is>
       </c>
       <c r="G470" t="n">
@@ -17385,7 +17385,7 @@
       </c>
       <c r="F471" t="inlineStr">
         <is>
-          <t>Metković-most - Neretva</t>
+          <t>most - Neretva</t>
         </is>
       </c>
       <c r="G471" t="n">
@@ -17421,7 +17421,7 @@
       </c>
       <c r="F472" t="inlineStr">
         <is>
-          <t>Metković-most - Neretva</t>
+          <t>most - Neretva</t>
         </is>
       </c>
       <c r="G472" t="n">
@@ -17457,7 +17457,7 @@
       </c>
       <c r="F473" t="inlineStr">
         <is>
-          <t>Metković-most - Neretva</t>
+          <t>most - Neretva</t>
         </is>
       </c>
       <c r="G473" t="n">
@@ -17493,7 +17493,7 @@
       </c>
       <c r="F474" t="inlineStr">
         <is>
-          <t>Metković-most - Neretva</t>
+          <t>most - Neretva</t>
         </is>
       </c>
       <c r="G474" t="n">
@@ -17529,7 +17529,7 @@
       </c>
       <c r="F475" t="inlineStr">
         <is>
-          <t>Metković-most - Neretva</t>
+          <t>most - Neretva</t>
         </is>
       </c>
       <c r="G475" t="n">
@@ -17565,7 +17565,7 @@
       </c>
       <c r="F476" t="inlineStr">
         <is>
-          <t>Metković-most - Neretva</t>
+          <t>most - Neretva</t>
         </is>
       </c>
       <c r="G476" t="n">
@@ -17601,7 +17601,7 @@
       </c>
       <c r="F477" t="inlineStr">
         <is>
-          <t>Metković-most - Neretva</t>
+          <t>most - Neretva</t>
         </is>
       </c>
       <c r="G477" t="n">
@@ -17637,7 +17637,7 @@
       </c>
       <c r="F478" t="inlineStr">
         <is>
-          <t>Metković-most - Neretva</t>
+          <t>most - Neretva</t>
         </is>
       </c>
       <c r="G478" t="n">
@@ -17673,7 +17673,7 @@
       </c>
       <c r="F479" t="inlineStr">
         <is>
-          <t>Metković-most - Neretva</t>
+          <t>most - Neretva</t>
         </is>
       </c>
       <c r="G479" t="n">
@@ -17709,7 +17709,7 @@
       </c>
       <c r="F480" t="inlineStr">
         <is>
-          <t>Metković-most - Neretva</t>
+          <t>most - Neretva</t>
         </is>
       </c>
       <c r="G480" t="n">
@@ -17745,7 +17745,7 @@
       </c>
       <c r="F481" t="inlineStr">
         <is>
-          <t>Metković-most - Neretva</t>
+          <t>most - Neretva</t>
         </is>
       </c>
       <c r="G481" t="n">
@@ -17781,7 +17781,7 @@
       </c>
       <c r="F482" t="inlineStr">
         <is>
-          <t>Metković-most - Neretva</t>
+          <t>most - Neretva</t>
         </is>
       </c>
       <c r="G482" t="n">
@@ -17817,7 +17817,7 @@
       </c>
       <c r="F483" t="inlineStr">
         <is>
-          <t>Metković-most - Neretva</t>
+          <t>most - Neretva</t>
         </is>
       </c>
       <c r="G483" t="n">
@@ -17853,7 +17853,7 @@
       </c>
       <c r="F484" t="inlineStr">
         <is>
-          <t>Metković-most - Neretva</t>
+          <t>most - Neretva</t>
         </is>
       </c>
       <c r="G484" t="n">
@@ -17889,7 +17889,7 @@
       </c>
       <c r="F485" t="inlineStr">
         <is>
-          <t>Metković-most - Neretva</t>
+          <t>most - Neretva</t>
         </is>
       </c>
       <c r="G485" t="n">
@@ -17925,7 +17925,7 @@
       </c>
       <c r="F486" t="inlineStr">
         <is>
-          <t>Metković-most - Neretva</t>
+          <t>most - Neretva</t>
         </is>
       </c>
       <c r="G486" t="n">
@@ -17961,7 +17961,7 @@
       </c>
       <c r="F487" t="inlineStr">
         <is>
-          <t>Metković-most - Neretva</t>
+          <t>most - Neretva</t>
         </is>
       </c>
       <c r="G487" t="n">
@@ -17997,7 +17997,7 @@
       </c>
       <c r="F488" t="inlineStr">
         <is>
-          <t>Metković-most - Neretva</t>
+          <t>most - Neretva</t>
         </is>
       </c>
       <c r="G488" t="n">
@@ -18033,7 +18033,7 @@
       </c>
       <c r="F489" t="inlineStr">
         <is>
-          <t>Metković-most - Neretva</t>
+          <t>most - Neretva</t>
         </is>
       </c>
       <c r="G489" t="n">
@@ -18069,7 +18069,7 @@
       </c>
       <c r="F490" t="inlineStr">
         <is>
-          <t>Metković-most - Neretva</t>
+          <t>most - Neretva</t>
         </is>
       </c>
       <c r="G490" t="n">
@@ -18105,7 +18105,7 @@
       </c>
       <c r="F491" t="inlineStr">
         <is>
-          <t>Metković-most - Neretva</t>
+          <t>most - Neretva</t>
         </is>
       </c>
       <c r="G491" t="n">
@@ -21921,7 +21921,7 @@
       </c>
       <c r="F597" t="inlineStr">
         <is>
-          <t>Petrinja (kupalište) - Kupa</t>
+          <t>Petrinja - Kupa</t>
         </is>
       </c>
       <c r="G597" t="n">
@@ -21957,7 +21957,7 @@
       </c>
       <c r="F598" t="inlineStr">
         <is>
-          <t>Petrinja (kupalište) - Kupa</t>
+          <t>Petrinja - Kupa</t>
         </is>
       </c>
       <c r="G598" t="n">
@@ -21993,7 +21993,7 @@
       </c>
       <c r="F599" t="inlineStr">
         <is>
-          <t>Petrinja (kupalište) - Kupa</t>
+          <t>Petrinja - Kupa</t>
         </is>
       </c>
       <c r="G599" t="n">
@@ -22029,7 +22029,7 @@
       </c>
       <c r="F600" t="inlineStr">
         <is>
-          <t>Petrinja (kupalište) - Kupa</t>
+          <t>Petrinja - Kupa</t>
         </is>
       </c>
       <c r="G600" t="n">
@@ -22065,7 +22065,7 @@
       </c>
       <c r="F601" t="inlineStr">
         <is>
-          <t>Petrinja (kupalište) - Kupa</t>
+          <t>Petrinja - Kupa</t>
         </is>
       </c>
       <c r="G601" t="n">
@@ -22101,7 +22101,7 @@
       </c>
       <c r="F602" t="inlineStr">
         <is>
-          <t>Petrinja (kupalište) - Kupa</t>
+          <t>Petrinja - Kupa</t>
         </is>
       </c>
       <c r="G602" t="n">
@@ -22137,7 +22137,7 @@
       </c>
       <c r="F603" t="inlineStr">
         <is>
-          <t>Petrinja (kupalište) - Kupa</t>
+          <t>Petrinja - Kupa</t>
         </is>
       </c>
       <c r="G603" t="n">
@@ -22173,7 +22173,7 @@
       </c>
       <c r="F604" t="inlineStr">
         <is>
-          <t>Petrinja (kupalište) - Kupa</t>
+          <t>Petrinja - Kupa</t>
         </is>
       </c>
       <c r="G604" t="n">
@@ -22209,7 +22209,7 @@
       </c>
       <c r="F605" t="inlineStr">
         <is>
-          <t>Petrinja (kupalište) - Kupa</t>
+          <t>Petrinja - Kupa</t>
         </is>
       </c>
       <c r="G605" t="n">
@@ -22245,7 +22245,7 @@
       </c>
       <c r="F606" t="inlineStr">
         <is>
-          <t>Petrinja (kupalište) - Kupa</t>
+          <t>Petrinja - Kupa</t>
         </is>
       </c>
       <c r="G606" t="n">
@@ -22281,7 +22281,7 @@
       </c>
       <c r="F607" t="inlineStr">
         <is>
-          <t>Petrinja (kupalište) - Kupa</t>
+          <t>Petrinja - Kupa</t>
         </is>
       </c>
       <c r="G607" t="n">
@@ -22317,7 +22317,7 @@
       </c>
       <c r="F608" t="inlineStr">
         <is>
-          <t>Petrinja (kupalište) - Kupa</t>
+          <t>Petrinja - Kupa</t>
         </is>
       </c>
       <c r="G608" t="n">
@@ -22353,7 +22353,7 @@
       </c>
       <c r="F609" t="inlineStr">
         <is>
-          <t>Petrinja (kupalište) - Kupa</t>
+          <t>Petrinja - Kupa</t>
         </is>
       </c>
       <c r="G609" t="n">
@@ -22389,7 +22389,7 @@
       </c>
       <c r="F610" t="inlineStr">
         <is>
-          <t>Petrinja (kupalište) - Kupa</t>
+          <t>Petrinja - Kupa</t>
         </is>
       </c>
       <c r="G610" t="n">
@@ -22425,7 +22425,7 @@
       </c>
       <c r="F611" t="inlineStr">
         <is>
-          <t>Petrinja (kupalište) - Kupa</t>
+          <t>Petrinja - Kupa</t>
         </is>
       </c>
       <c r="G611" t="n">
@@ -22461,7 +22461,7 @@
       </c>
       <c r="F612" t="inlineStr">
         <is>
-          <t>Petrinja (kupalište) - Kupa</t>
+          <t>Petrinja - Kupa</t>
         </is>
       </c>
       <c r="G612" t="n">
@@ -22497,7 +22497,7 @@
       </c>
       <c r="F613" t="inlineStr">
         <is>
-          <t>Petrinja (kupalište) - Kupa</t>
+          <t>Petrinja - Kupa</t>
         </is>
       </c>
       <c r="G613" t="n">
@@ -22533,7 +22533,7 @@
       </c>
       <c r="F614" t="inlineStr">
         <is>
-          <t>Petrinja (kupalište) - Kupa</t>
+          <t>Petrinja - Kupa</t>
         </is>
       </c>
       <c r="G614" t="n">
@@ -22569,7 +22569,7 @@
       </c>
       <c r="F615" t="inlineStr">
         <is>
-          <t>Petrinja (kupalište) - Kupa</t>
+          <t>Petrinja - Kupa</t>
         </is>
       </c>
       <c r="G615" t="n">
@@ -22605,7 +22605,7 @@
       </c>
       <c r="F616" t="inlineStr">
         <is>
-          <t>Petrinja (kupalište) - Kupa</t>
+          <t>Petrinja - Kupa</t>
         </is>
       </c>
       <c r="G616" t="n">
@@ -22641,7 +22641,7 @@
       </c>
       <c r="F617" t="inlineStr">
         <is>
-          <t>Petrinja (kupalište) - Kupa</t>
+          <t>Petrinja - Kupa</t>
         </is>
       </c>
       <c r="G617" t="n">
@@ -22677,7 +22677,7 @@
       </c>
       <c r="F618" t="inlineStr">
         <is>
-          <t>Petrinja (kupalište) - Kupa</t>
+          <t>Petrinja - Kupa</t>
         </is>
       </c>
       <c r="G618" t="n">
@@ -22713,7 +22713,7 @@
       </c>
       <c r="F619" t="inlineStr">
         <is>
-          <t>Petrinja (kupalište) - Kupa</t>
+          <t>Petrinja - Kupa</t>
         </is>
       </c>
       <c r="G619" t="n">
@@ -22749,7 +22749,7 @@
       </c>
       <c r="F620" t="inlineStr">
         <is>
-          <t>Petrinja (kupalište) - Kupa</t>
+          <t>Petrinja - Kupa</t>
         </is>
       </c>
       <c r="G620" t="n">
@@ -22785,7 +22785,7 @@
       </c>
       <c r="F621" t="inlineStr">
         <is>
-          <t>Petrinja (kupalište) - Kupa</t>
+          <t>Petrinja - Kupa</t>
         </is>
       </c>
       <c r="G621" t="n">
@@ -22821,7 +22821,7 @@
       </c>
       <c r="F622" t="inlineStr">
         <is>
-          <t>Petrinja (kupalište) - Kupa</t>
+          <t>Petrinja - Kupa</t>
         </is>
       </c>
       <c r="G622" t="n">
@@ -22857,7 +22857,7 @@
       </c>
       <c r="F623" t="inlineStr">
         <is>
-          <t>Petrinja (kupalište) - Kupa</t>
+          <t>Petrinja - Kupa</t>
         </is>
       </c>
       <c r="G623" t="n">
@@ -22893,7 +22893,7 @@
       </c>
       <c r="F624" t="inlineStr">
         <is>
-          <t>Petrinja (kupalište) - Kupa</t>
+          <t>Petrinja - Kupa</t>
         </is>
       </c>
       <c r="G624" t="n">
@@ -22929,7 +22929,7 @@
       </c>
       <c r="F625" t="inlineStr">
         <is>
-          <t>Petrinja (kupalište) - Kupa</t>
+          <t>Petrinja - Kupa</t>
         </is>
       </c>
       <c r="G625" t="n">
@@ -22965,7 +22965,7 @@
       </c>
       <c r="F626" t="inlineStr">
         <is>
-          <t>Petrinja (kupalište) - Kupa</t>
+          <t>Petrinja - Kupa</t>
         </is>
       </c>
       <c r="G626" t="n">
@@ -23001,7 +23001,7 @@
       </c>
       <c r="F627" t="inlineStr">
         <is>
-          <t>Petrinja (kupalište) - Kupa</t>
+          <t>Petrinja - Kupa</t>
         </is>
       </c>
       <c r="G627" t="n">
@@ -23037,7 +23037,7 @@
       </c>
       <c r="F628" t="inlineStr">
         <is>
-          <t>Petrinja (kupalište) - Kupa</t>
+          <t>Petrinja - Kupa</t>
         </is>
       </c>
       <c r="G628" t="n">
@@ -23073,7 +23073,7 @@
       </c>
       <c r="F629" t="inlineStr">
         <is>
-          <t>Petrinja (kupalište) - Kupa</t>
+          <t>Petrinja - Kupa</t>
         </is>
       </c>
       <c r="G629" t="n">
@@ -23109,7 +23109,7 @@
       </c>
       <c r="F630" t="inlineStr">
         <is>
-          <t>Petrinja (kupalište) - Kupa</t>
+          <t>Petrinja - Kupa</t>
         </is>
       </c>
       <c r="G630" t="n">
@@ -23145,7 +23145,7 @@
       </c>
       <c r="F631" t="inlineStr">
         <is>
-          <t>Petrinja (kupalište) - Kupa</t>
+          <t>Petrinja - Kupa</t>
         </is>
       </c>
       <c r="G631" t="n">
@@ -23181,7 +23181,7 @@
       </c>
       <c r="F632" t="inlineStr">
         <is>
-          <t>Sisak (Stari grad) - Kupa</t>
+          <t>Sisak - Kupa</t>
         </is>
       </c>
       <c r="G632" t="n">
@@ -23217,7 +23217,7 @@
       </c>
       <c r="F633" t="inlineStr">
         <is>
-          <t>Sisak (Stari grad) - Kupa</t>
+          <t>Sisak - Kupa</t>
         </is>
       </c>
       <c r="G633" t="n">
@@ -23253,7 +23253,7 @@
       </c>
       <c r="F634" t="inlineStr">
         <is>
-          <t>Sisak (Stari grad) - Kupa</t>
+          <t>Sisak - Kupa</t>
         </is>
       </c>
       <c r="G634" t="n">
@@ -23289,7 +23289,7 @@
       </c>
       <c r="F635" t="inlineStr">
         <is>
-          <t>Sisak (Stari grad) - Kupa</t>
+          <t>Sisak - Kupa</t>
         </is>
       </c>
       <c r="G635" t="n">
@@ -23325,7 +23325,7 @@
       </c>
       <c r="F636" t="inlineStr">
         <is>
-          <t>Sisak (Stari grad) - Kupa</t>
+          <t>Sisak - Kupa</t>
         </is>
       </c>
       <c r="G636" t="n">
@@ -23361,7 +23361,7 @@
       </c>
       <c r="F637" t="inlineStr">
         <is>
-          <t>Sisak (Stari grad) - Kupa</t>
+          <t>Sisak - Kupa</t>
         </is>
       </c>
       <c r="G637" t="n">
@@ -23397,7 +23397,7 @@
       </c>
       <c r="F638" t="inlineStr">
         <is>
-          <t>Sisak (Stari grad) - Kupa</t>
+          <t>Sisak - Kupa</t>
         </is>
       </c>
       <c r="G638" t="n">
@@ -23433,7 +23433,7 @@
       </c>
       <c r="F639" t="inlineStr">
         <is>
-          <t>Sisak (Stari grad) - Kupa</t>
+          <t>Sisak - Kupa</t>
         </is>
       </c>
       <c r="G639" t="n">
@@ -23469,7 +23469,7 @@
       </c>
       <c r="F640" t="inlineStr">
         <is>
-          <t>Sisak (Stari grad) - Kupa</t>
+          <t>Sisak - Kupa</t>
         </is>
       </c>
       <c r="G640" t="n">
@@ -23505,7 +23505,7 @@
       </c>
       <c r="F641" t="inlineStr">
         <is>
-          <t>Sisak (Stari grad) - Kupa</t>
+          <t>Sisak - Kupa</t>
         </is>
       </c>
       <c r="G641" t="n">
@@ -23541,7 +23541,7 @@
       </c>
       <c r="F642" t="inlineStr">
         <is>
-          <t>Sisak (Stari grad) - Kupa</t>
+          <t>Sisak - Kupa</t>
         </is>
       </c>
       <c r="G642" t="n">
@@ -23577,7 +23577,7 @@
       </c>
       <c r="F643" t="inlineStr">
         <is>
-          <t>Sisak (Stari grad) - Kupa</t>
+          <t>Sisak - Kupa</t>
         </is>
       </c>
       <c r="G643" t="n">
@@ -23613,7 +23613,7 @@
       </c>
       <c r="F644" t="inlineStr">
         <is>
-          <t>Sisak (Stari grad) - Kupa</t>
+          <t>Sisak - Kupa</t>
         </is>
       </c>
       <c r="G644" t="n">
@@ -23649,7 +23649,7 @@
       </c>
       <c r="F645" t="inlineStr">
         <is>
-          <t>Sisak (Stari grad) - Kupa</t>
+          <t>Sisak - Kupa</t>
         </is>
       </c>
       <c r="G645" t="n">
@@ -23685,7 +23685,7 @@
       </c>
       <c r="F646" t="inlineStr">
         <is>
-          <t>Sisak (Stari grad) - Kupa</t>
+          <t>Sisak - Kupa</t>
         </is>
       </c>
       <c r="G646" t="n">
@@ -23721,7 +23721,7 @@
       </c>
       <c r="F647" t="inlineStr">
         <is>
-          <t>Sisak (Stari grad) - Kupa</t>
+          <t>Sisak - Kupa</t>
         </is>
       </c>
       <c r="G647" t="n">
@@ -23757,7 +23757,7 @@
       </c>
       <c r="F648" t="inlineStr">
         <is>
-          <t>Sisak (Stari grad) - Kupa</t>
+          <t>Sisak - Kupa</t>
         </is>
       </c>
       <c r="G648" t="n">
@@ -23793,7 +23793,7 @@
       </c>
       <c r="F649" t="inlineStr">
         <is>
-          <t>Sisak (Stari grad) - Kupa</t>
+          <t>Sisak - Kupa</t>
         </is>
       </c>
       <c r="G649" t="n">
@@ -23829,7 +23829,7 @@
       </c>
       <c r="F650" t="inlineStr">
         <is>
-          <t>Sisak (Stari grad) - Kupa</t>
+          <t>Sisak - Kupa</t>
         </is>
       </c>
       <c r="G650" t="n">
@@ -23865,7 +23865,7 @@
       </c>
       <c r="F651" t="inlineStr">
         <is>
-          <t>Sisak (Stari grad) - Kupa</t>
+          <t>Sisak - Kupa</t>
         </is>
       </c>
       <c r="G651" t="n">
@@ -23901,7 +23901,7 @@
       </c>
       <c r="F652" t="inlineStr">
         <is>
-          <t>Sisak (Stari grad) - Kupa</t>
+          <t>Sisak - Kupa</t>
         </is>
       </c>
       <c r="G652" t="n">
@@ -23937,7 +23937,7 @@
       </c>
       <c r="F653" t="inlineStr">
         <is>
-          <t>Sisak (Stari grad) - Kupa</t>
+          <t>Sisak - Kupa</t>
         </is>
       </c>
       <c r="G653" t="n">
@@ -23973,7 +23973,7 @@
       </c>
       <c r="F654" t="inlineStr">
         <is>
-          <t>Sisak (Stari grad) - Kupa</t>
+          <t>Sisak - Kupa</t>
         </is>
       </c>
       <c r="G654" t="n">
@@ -24009,7 +24009,7 @@
       </c>
       <c r="F655" t="inlineStr">
         <is>
-          <t>Sisak (Stari grad) - Kupa</t>
+          <t>Sisak - Kupa</t>
         </is>
       </c>
       <c r="G655" t="n">
@@ -24045,7 +24045,7 @@
       </c>
       <c r="F656" t="inlineStr">
         <is>
-          <t>Sisak (Stari grad) - Kupa</t>
+          <t>Sisak - Kupa</t>
         </is>
       </c>
       <c r="G656" t="n">
@@ -24081,7 +24081,7 @@
       </c>
       <c r="F657" t="inlineStr">
         <is>
-          <t>Sisak (Stari grad) - Kupa</t>
+          <t>Sisak - Kupa</t>
         </is>
       </c>
       <c r="G657" t="n">
@@ -24117,7 +24117,7 @@
       </c>
       <c r="F658" t="inlineStr">
         <is>
-          <t>Sisak (Stari grad) - Kupa</t>
+          <t>Sisak - Kupa</t>
         </is>
       </c>
       <c r="G658" t="n">
@@ -24153,7 +24153,7 @@
       </c>
       <c r="F659" t="inlineStr">
         <is>
-          <t>Sisak (Stari grad) - Kupa</t>
+          <t>Sisak - Kupa</t>
         </is>
       </c>
       <c r="G659" t="n">
@@ -24189,7 +24189,7 @@
       </c>
       <c r="F660" t="inlineStr">
         <is>
-          <t>Sisak (Stari grad) - Kupa</t>
+          <t>Sisak - Kupa</t>
         </is>
       </c>
       <c r="G660" t="n">
@@ -24225,7 +24225,7 @@
       </c>
       <c r="F661" t="inlineStr">
         <is>
-          <t>Sisak (Stari grad) - Kupa</t>
+          <t>Sisak - Kupa</t>
         </is>
       </c>
       <c r="G661" t="n">
@@ -24261,7 +24261,7 @@
       </c>
       <c r="F662" t="inlineStr">
         <is>
-          <t>Sisak (Stari grad) - Kupa</t>
+          <t>Sisak - Kupa</t>
         </is>
       </c>
       <c r="G662" t="n">
@@ -24297,7 +24297,7 @@
       </c>
       <c r="F663" t="inlineStr">
         <is>
-          <t>Sisak (Stari grad) - Kupa</t>
+          <t>Sisak - Kupa</t>
         </is>
       </c>
       <c r="G663" t="n">
@@ -24333,7 +24333,7 @@
       </c>
       <c r="F664" t="inlineStr">
         <is>
-          <t>Sisak (Stari grad) - Kupa</t>
+          <t>Sisak - Kupa</t>
         </is>
       </c>
       <c r="G664" t="n">
@@ -24369,7 +24369,7 @@
       </c>
       <c r="F665" t="inlineStr">
         <is>
-          <t>Sisak (Stari grad) - Kupa</t>
+          <t>Sisak - Kupa</t>
         </is>
       </c>
       <c r="G665" t="n">
@@ -24405,7 +24405,7 @@
       </c>
       <c r="F666" t="inlineStr">
         <is>
-          <t>Sisak (Stari grad) - Kupa</t>
+          <t>Sisak - Kupa</t>
         </is>
       </c>
       <c r="G666" t="n">
@@ -24441,7 +24441,7 @@
       </c>
       <c r="F667" t="inlineStr">
         <is>
-          <t>Sisak (Stari grad) - Sava</t>
+          <t>Sisak - Sava</t>
         </is>
       </c>
       <c r="G667" t="n">
@@ -24477,7 +24477,7 @@
       </c>
       <c r="F668" t="inlineStr">
         <is>
-          <t>Sisak (Stari grad) - Sava</t>
+          <t>Sisak - Sava</t>
         </is>
       </c>
       <c r="G668" t="n">
@@ -24513,7 +24513,7 @@
       </c>
       <c r="F669" t="inlineStr">
         <is>
-          <t>Sisak (Stari grad) - Sava</t>
+          <t>Sisak - Sava</t>
         </is>
       </c>
       <c r="G669" t="n">
@@ -24549,7 +24549,7 @@
       </c>
       <c r="F670" t="inlineStr">
         <is>
-          <t>Sisak (Stari grad) - Sava</t>
+          <t>Sisak - Sava</t>
         </is>
       </c>
       <c r="G670" t="n">
@@ -24585,7 +24585,7 @@
       </c>
       <c r="F671" t="inlineStr">
         <is>
-          <t>Sisak (Stari grad) - Sava</t>
+          <t>Sisak - Sava</t>
         </is>
       </c>
       <c r="G671" t="n">
@@ -24621,7 +24621,7 @@
       </c>
       <c r="F672" t="inlineStr">
         <is>
-          <t>Sisak (Stari grad) - Sava</t>
+          <t>Sisak - Sava</t>
         </is>
       </c>
       <c r="G672" t="n">
@@ -24657,7 +24657,7 @@
       </c>
       <c r="F673" t="inlineStr">
         <is>
-          <t>Sisak (Stari grad) - Sava</t>
+          <t>Sisak - Sava</t>
         </is>
       </c>
       <c r="G673" t="n">
@@ -24693,7 +24693,7 @@
       </c>
       <c r="F674" t="inlineStr">
         <is>
-          <t>Sisak (Stari grad) - Sava</t>
+          <t>Sisak - Sava</t>
         </is>
       </c>
       <c r="G674" t="n">
@@ -24729,7 +24729,7 @@
       </c>
       <c r="F675" t="inlineStr">
         <is>
-          <t>Sisak (Stari grad) - Sava</t>
+          <t>Sisak - Sava</t>
         </is>
       </c>
       <c r="G675" t="n">
@@ -24765,7 +24765,7 @@
       </c>
       <c r="F676" t="inlineStr">
         <is>
-          <t>Sisak (Stari grad) - Sava</t>
+          <t>Sisak - Sava</t>
         </is>
       </c>
       <c r="G676" t="n">
@@ -24801,7 +24801,7 @@
       </c>
       <c r="F677" t="inlineStr">
         <is>
-          <t>Sisak (Stari grad) - Sava</t>
+          <t>Sisak - Sava</t>
         </is>
       </c>
       <c r="G677" t="n">
@@ -24837,7 +24837,7 @@
       </c>
       <c r="F678" t="inlineStr">
         <is>
-          <t>Sisak (Stari grad) - Sava</t>
+          <t>Sisak - Sava</t>
         </is>
       </c>
       <c r="G678" t="n">
@@ -24873,7 +24873,7 @@
       </c>
       <c r="F679" t="inlineStr">
         <is>
-          <t>Sisak (Stari grad) - Sava</t>
+          <t>Sisak - Sava</t>
         </is>
       </c>
       <c r="G679" t="n">
@@ -24909,7 +24909,7 @@
       </c>
       <c r="F680" t="inlineStr">
         <is>
-          <t>Sisak (Stari grad) - Sava</t>
+          <t>Sisak - Sava</t>
         </is>
       </c>
       <c r="G680" t="n">
@@ -24945,7 +24945,7 @@
       </c>
       <c r="F681" t="inlineStr">
         <is>
-          <t>Sisak (Stari grad) - Sava</t>
+          <t>Sisak - Sava</t>
         </is>
       </c>
       <c r="G681" t="n">
@@ -24981,7 +24981,7 @@
       </c>
       <c r="F682" t="inlineStr">
         <is>
-          <t>Sisak (Stari grad) - Sava</t>
+          <t>Sisak - Sava</t>
         </is>
       </c>
       <c r="G682" t="n">
@@ -25017,7 +25017,7 @@
       </c>
       <c r="F683" t="inlineStr">
         <is>
-          <t>Sisak (Stari grad) - Sava</t>
+          <t>Sisak - Sava</t>
         </is>
       </c>
       <c r="G683" t="n">
@@ -25053,7 +25053,7 @@
       </c>
       <c r="F684" t="inlineStr">
         <is>
-          <t>Sisak (Stari grad) - Sava</t>
+          <t>Sisak - Sava</t>
         </is>
       </c>
       <c r="G684" t="n">
@@ -25089,7 +25089,7 @@
       </c>
       <c r="F685" t="inlineStr">
         <is>
-          <t>Sisak (Stari grad) - Sava</t>
+          <t>Sisak - Sava</t>
         </is>
       </c>
       <c r="G685" t="n">
@@ -25125,7 +25125,7 @@
       </c>
       <c r="F686" t="inlineStr">
         <is>
-          <t>Sisak (Stari grad) - Sava</t>
+          <t>Sisak - Sava</t>
         </is>
       </c>
       <c r="G686" t="n">
@@ -25161,7 +25161,7 @@
       </c>
       <c r="F687" t="inlineStr">
         <is>
-          <t>Sisak (Stari grad) - Sava</t>
+          <t>Sisak - Sava</t>
         </is>
       </c>
       <c r="G687" t="n">
@@ -25197,7 +25197,7 @@
       </c>
       <c r="F688" t="inlineStr">
         <is>
-          <t>Sisak (Stari grad) - Sava</t>
+          <t>Sisak - Sava</t>
         </is>
       </c>
       <c r="G688" t="n">
@@ -25233,7 +25233,7 @@
       </c>
       <c r="F689" t="inlineStr">
         <is>
-          <t>Sisak (Stari grad) - Sava</t>
+          <t>Sisak - Sava</t>
         </is>
       </c>
       <c r="G689" t="n">
@@ -25269,7 +25269,7 @@
       </c>
       <c r="F690" t="inlineStr">
         <is>
-          <t>Sisak (Stari grad) - Sava</t>
+          <t>Sisak - Sava</t>
         </is>
       </c>
       <c r="G690" t="n">
@@ -25305,7 +25305,7 @@
       </c>
       <c r="F691" t="inlineStr">
         <is>
-          <t>Sisak (Stari grad) - Sava</t>
+          <t>Sisak - Sava</t>
         </is>
       </c>
       <c r="G691" t="n">
@@ -25341,7 +25341,7 @@
       </c>
       <c r="F692" t="inlineStr">
         <is>
-          <t>Sisak (Stari grad) - Sava</t>
+          <t>Sisak - Sava</t>
         </is>
       </c>
       <c r="G692" t="n">
@@ -25377,7 +25377,7 @@
       </c>
       <c r="F693" t="inlineStr">
         <is>
-          <t>Sisak (Stari grad) - Sava</t>
+          <t>Sisak - Sava</t>
         </is>
       </c>
       <c r="G693" t="n">
@@ -25413,7 +25413,7 @@
       </c>
       <c r="F694" t="inlineStr">
         <is>
-          <t>Sisak (Stari grad) - Sava</t>
+          <t>Sisak - Sava</t>
         </is>
       </c>
       <c r="G694" t="n">
@@ -25449,7 +25449,7 @@
       </c>
       <c r="F695" t="inlineStr">
         <is>
-          <t>Sisak (Stari grad) - Sava</t>
+          <t>Sisak - Sava</t>
         </is>
       </c>
       <c r="G695" t="n">
@@ -25485,7 +25485,7 @@
       </c>
       <c r="F696" t="inlineStr">
         <is>
-          <t>Sisak (Stari grad) - Sava</t>
+          <t>Sisak - Sava</t>
         </is>
       </c>
       <c r="G696" t="n">
@@ -25521,7 +25521,7 @@
       </c>
       <c r="F697" t="inlineStr">
         <is>
-          <t>Sisak (Stari grad) - Sava</t>
+          <t>Sisak - Sava</t>
         </is>
       </c>
       <c r="G697" t="n">
@@ -25557,7 +25557,7 @@
       </c>
       <c r="F698" t="inlineStr">
         <is>
-          <t>Sisak (Stari grad) - Sava</t>
+          <t>Sisak - Sava</t>
         </is>
       </c>
       <c r="G698" t="n">
@@ -25593,7 +25593,7 @@
       </c>
       <c r="F699" t="inlineStr">
         <is>
-          <t>Sisak (Stari grad) - Sava</t>
+          <t>Sisak - Sava</t>
         </is>
       </c>
       <c r="G699" t="n">
@@ -25629,7 +25629,7 @@
       </c>
       <c r="F700" t="inlineStr">
         <is>
-          <t>Sisak (Stari grad) - Sava</t>
+          <t>Sisak - Sava</t>
         </is>
       </c>
       <c r="G700" t="n">
@@ -25665,7 +25665,7 @@
       </c>
       <c r="F701" t="inlineStr">
         <is>
-          <t>Sisak (Stari grad) - Sava</t>
+          <t>Sisak - Sava</t>
         </is>
       </c>
       <c r="G701" t="n">
@@ -25701,7 +25701,7 @@
       </c>
       <c r="F702" t="inlineStr">
         <is>
-          <t>Zagreb (Savski Kamenji - toplana) - Sava</t>
+          <t>Zagreb - Sava</t>
         </is>
       </c>
       <c r="G702" t="n">
@@ -25737,7 +25737,7 @@
       </c>
       <c r="F703" t="inlineStr">
         <is>
-          <t>Zagreb (Savski Kamenji - toplana) - Sava</t>
+          <t>Zagreb - Sava</t>
         </is>
       </c>
       <c r="G703" t="n">
@@ -25773,7 +25773,7 @@
       </c>
       <c r="F704" t="inlineStr">
         <is>
-          <t>Zagreb (Savski Kamenji - toplana) - Sava</t>
+          <t>Zagreb - Sava</t>
         </is>
       </c>
       <c r="G704" t="n">
@@ -25809,7 +25809,7 @@
       </c>
       <c r="F705" t="inlineStr">
         <is>
-          <t>Zagreb (Savski Kamenji - toplana) - Sava</t>
+          <t>Zagreb - Sava</t>
         </is>
       </c>
       <c r="G705" t="n">
@@ -25845,7 +25845,7 @@
       </c>
       <c r="F706" t="inlineStr">
         <is>
-          <t>Zagreb (Savski Kamenji - toplana) - Sava</t>
+          <t>Zagreb - Sava</t>
         </is>
       </c>
       <c r="G706" t="n">
@@ -25881,7 +25881,7 @@
       </c>
       <c r="F707" t="inlineStr">
         <is>
-          <t>Zagreb (Savski Kamenji - toplana) - Sava</t>
+          <t>Zagreb - Sava</t>
         </is>
       </c>
       <c r="G707" t="n">
@@ -25917,7 +25917,7 @@
       </c>
       <c r="F708" t="inlineStr">
         <is>
-          <t>Zagreb (Savski Kamenji - toplana) - Sava</t>
+          <t>Zagreb - Sava</t>
         </is>
       </c>
       <c r="G708" t="n">
@@ -25953,7 +25953,7 @@
       </c>
       <c r="F709" t="inlineStr">
         <is>
-          <t>Zagreb (Savski Kamenji - toplana) - Sava</t>
+          <t>Zagreb - Sava</t>
         </is>
       </c>
       <c r="G709" t="n">
@@ -25989,7 +25989,7 @@
       </c>
       <c r="F710" t="inlineStr">
         <is>
-          <t>Zagreb (Savski Kamenji - toplana) - Sava</t>
+          <t>Zagreb - Sava</t>
         </is>
       </c>
       <c r="G710" t="n">
@@ -26025,7 +26025,7 @@
       </c>
       <c r="F711" t="inlineStr">
         <is>
-          <t>Zagreb (Savski Kamenji - toplana) - Sava</t>
+          <t>Zagreb - Sava</t>
         </is>
       </c>
       <c r="G711" t="n">
@@ -26061,7 +26061,7 @@
       </c>
       <c r="F712" t="inlineStr">
         <is>
-          <t>Zagreb (Savski Kamenji - toplana) - Sava</t>
+          <t>Zagreb - Sava</t>
         </is>
       </c>
       <c r="G712" t="n">
@@ -26097,7 +26097,7 @@
       </c>
       <c r="F713" t="inlineStr">
         <is>
-          <t>Zagreb (Savski Kamenji - toplana) - Sava</t>
+          <t>Zagreb - Sava</t>
         </is>
       </c>
       <c r="G713" t="n">
@@ -26133,7 +26133,7 @@
       </c>
       <c r="F714" t="inlineStr">
         <is>
-          <t>Zagreb (Savski Kamenji - toplana) - Sava</t>
+          <t>Zagreb - Sava</t>
         </is>
       </c>
       <c r="G714" t="n">
@@ -26169,7 +26169,7 @@
       </c>
       <c r="F715" t="inlineStr">
         <is>
-          <t>Zagreb (Savski Kamenji - toplana) - Sava</t>
+          <t>Zagreb - Sava</t>
         </is>
       </c>
       <c r="G715" t="n">
@@ -26205,7 +26205,7 @@
       </c>
       <c r="F716" t="inlineStr">
         <is>
-          <t>Zagreb (Savski Kamenji - toplana) - Sava</t>
+          <t>Zagreb - Sava</t>
         </is>
       </c>
       <c r="G716" t="n">
@@ -26241,7 +26241,7 @@
       </c>
       <c r="F717" t="inlineStr">
         <is>
-          <t>Zagreb (Savski Kamenji - toplana) - Sava</t>
+          <t>Zagreb - Sava</t>
         </is>
       </c>
       <c r="G717" t="n">
@@ -26277,7 +26277,7 @@
       </c>
       <c r="F718" t="inlineStr">
         <is>
-          <t>Zagreb (Savski Kamenji - toplana) - Sava</t>
+          <t>Zagreb - Sava</t>
         </is>
       </c>
       <c r="G718" t="n">
@@ -26313,7 +26313,7 @@
       </c>
       <c r="F719" t="inlineStr">
         <is>
-          <t>Zagreb (Savski Kamenji - toplana) - Sava</t>
+          <t>Zagreb - Sava</t>
         </is>
       </c>
       <c r="G719" t="n">
@@ -26349,7 +26349,7 @@
       </c>
       <c r="F720" t="inlineStr">
         <is>
-          <t>Zagreb (Savski Kamenji - toplana) - Sava</t>
+          <t>Zagreb - Sava</t>
         </is>
       </c>
       <c r="G720" t="n">
@@ -26385,7 +26385,7 @@
       </c>
       <c r="F721" t="inlineStr">
         <is>
-          <t>Zagreb (Savski Kamenji - toplana) - Sava</t>
+          <t>Zagreb - Sava</t>
         </is>
       </c>
       <c r="G721" t="n">
@@ -26421,7 +26421,7 @@
       </c>
       <c r="F722" t="inlineStr">
         <is>
-          <t>Zagreb (Savski Kamenji - toplana) - Sava</t>
+          <t>Zagreb - Sava</t>
         </is>
       </c>
       <c r="G722" t="n">
@@ -26457,7 +26457,7 @@
       </c>
       <c r="F723" t="inlineStr">
         <is>
-          <t>Zagreb (Savski Kamenji - toplana) - Sava</t>
+          <t>Zagreb - Sava</t>
         </is>
       </c>
       <c r="G723" t="n">
@@ -26493,7 +26493,7 @@
       </c>
       <c r="F724" t="inlineStr">
         <is>
-          <t>Zagreb (Savski Kamenji - toplana) - Sava</t>
+          <t>Zagreb - Sava</t>
         </is>
       </c>
       <c r="G724" t="n">
@@ -26529,7 +26529,7 @@
       </c>
       <c r="F725" t="inlineStr">
         <is>
-          <t>Zagreb (Savski Kamenji - toplana) - Sava</t>
+          <t>Zagreb - Sava</t>
         </is>
       </c>
       <c r="G725" t="n">
@@ -26565,7 +26565,7 @@
       </c>
       <c r="F726" t="inlineStr">
         <is>
-          <t>Zagreb (Savski Kamenji - toplana) - Sava</t>
+          <t>Zagreb - Sava</t>
         </is>
       </c>
       <c r="G726" t="n">
@@ -26601,7 +26601,7 @@
       </c>
       <c r="F727" t="inlineStr">
         <is>
-          <t>Zagreb (Savski Kamenji - toplana) - Sava</t>
+          <t>Zagreb - Sava</t>
         </is>
       </c>
       <c r="G727" t="n">
@@ -26637,7 +26637,7 @@
       </c>
       <c r="F728" t="inlineStr">
         <is>
-          <t>Zagreb (Savski Kamenji - toplana) - Sava</t>
+          <t>Zagreb - Sava</t>
         </is>
       </c>
       <c r="G728" t="n">
@@ -26673,7 +26673,7 @@
       </c>
       <c r="F729" t="inlineStr">
         <is>
-          <t>Zagreb (Savski Kamenji - toplana) - Sava</t>
+          <t>Zagreb - Sava</t>
         </is>
       </c>
       <c r="G729" t="n">
@@ -26709,7 +26709,7 @@
       </c>
       <c r="F730" t="inlineStr">
         <is>
-          <t>Zagreb (Savski Kamenji - toplana) - Sava</t>
+          <t>Zagreb - Sava</t>
         </is>
       </c>
       <c r="G730" t="n">
@@ -26745,7 +26745,7 @@
       </c>
       <c r="F731" t="inlineStr">
         <is>
-          <t>Zagreb (Savski Kamenji - toplana) - Sava</t>
+          <t>Zagreb - Sava</t>
         </is>
       </c>
       <c r="G731" t="n">
@@ -26781,7 +26781,7 @@
       </c>
       <c r="F732" t="inlineStr">
         <is>
-          <t>Zagreb (Savski Kamenji - toplana) - Sava</t>
+          <t>Zagreb - Sava</t>
         </is>
       </c>
       <c r="G732" t="n">
@@ -26817,7 +26817,7 @@
       </c>
       <c r="F733" t="inlineStr">
         <is>
-          <t>Zagreb (Savski Kamenji - toplana) - Sava</t>
+          <t>Zagreb - Sava</t>
         </is>
       </c>
       <c r="G733" t="n">
@@ -26853,7 +26853,7 @@
       </c>
       <c r="F734" t="inlineStr">
         <is>
-          <t>Zagreb (Savski Kamenji - toplana) - Sava</t>
+          <t>Zagreb - Sava</t>
         </is>
       </c>
       <c r="G734" t="n">
@@ -26889,7 +26889,7 @@
       </c>
       <c r="F735" t="inlineStr">
         <is>
-          <t>Zagreb (Savski Kamenji - toplana) - Sava</t>
+          <t>Zagreb - Sava</t>
         </is>
       </c>
       <c r="G735" t="n">
@@ -26925,7 +26925,7 @@
       </c>
       <c r="F736" t="inlineStr">
         <is>
-          <t>Zagreb (Savski Kamenji - toplana) - Sava</t>
+          <t>Zagreb - Sava</t>
         </is>
       </c>
       <c r="G736" t="n">
@@ -26961,7 +26961,7 @@
       </c>
       <c r="F737" t="inlineStr">
         <is>
-          <t xml:space="preserve">Prošćansko jezero - Plitvička jezera </t>
+          <t>Prošćansko - Plitvice</t>
         </is>
       </c>
       <c r="G737" t="n">
@@ -26997,7 +26997,7 @@
       </c>
       <c r="F738" t="inlineStr">
         <is>
-          <t xml:space="preserve">Prošćansko jezero - Plitvička jezera </t>
+          <t>Prošćansko - Plitvice</t>
         </is>
       </c>
       <c r="G738" t="n">
@@ -27033,7 +27033,7 @@
       </c>
       <c r="F739" t="inlineStr">
         <is>
-          <t xml:space="preserve">Prošćansko jezero - Plitvička jezera </t>
+          <t>Prošćansko - Plitvice</t>
         </is>
       </c>
       <c r="G739" t="n">
@@ -27069,7 +27069,7 @@
       </c>
       <c r="F740" t="inlineStr">
         <is>
-          <t xml:space="preserve">Prošćansko jezero - Plitvička jezera </t>
+          <t>Prošćansko - Plitvice</t>
         </is>
       </c>
       <c r="G740" t="n">
@@ -27105,7 +27105,7 @@
       </c>
       <c r="F741" t="inlineStr">
         <is>
-          <t xml:space="preserve">Prošćansko jezero - Plitvička jezera </t>
+          <t>Prošćansko - Plitvice</t>
         </is>
       </c>
       <c r="G741" t="n">
@@ -27141,7 +27141,7 @@
       </c>
       <c r="F742" t="inlineStr">
         <is>
-          <t xml:space="preserve">Prošćansko jezero - Plitvička jezera </t>
+          <t>Prošćansko - Plitvice</t>
         </is>
       </c>
       <c r="G742" t="n">
@@ -27177,7 +27177,7 @@
       </c>
       <c r="F743" t="inlineStr">
         <is>
-          <t xml:space="preserve">Prošćansko jezero - Plitvička jezera </t>
+          <t>Prošćansko - Plitvice</t>
         </is>
       </c>
       <c r="G743" t="n">
@@ -27213,7 +27213,7 @@
       </c>
       <c r="F744" t="inlineStr">
         <is>
-          <t xml:space="preserve">Prošćansko jezero - Plitvička jezera </t>
+          <t>Prošćansko - Plitvice</t>
         </is>
       </c>
       <c r="G744" t="n">
@@ -27249,7 +27249,7 @@
       </c>
       <c r="F745" t="inlineStr">
         <is>
-          <t xml:space="preserve">Prošćansko jezero - Plitvička jezera </t>
+          <t>Prošćansko - Plitvice</t>
         </is>
       </c>
       <c r="G745" t="n">
@@ -27285,7 +27285,7 @@
       </c>
       <c r="F746" t="inlineStr">
         <is>
-          <t xml:space="preserve">Prošćansko jezero - Plitvička jezera </t>
+          <t>Prošćansko - Plitvice</t>
         </is>
       </c>
       <c r="G746" t="n">
@@ -27321,7 +27321,7 @@
       </c>
       <c r="F747" t="inlineStr">
         <is>
-          <t xml:space="preserve">Prošćansko jezero - Plitvička jezera </t>
+          <t>Prošćansko - Plitvice</t>
         </is>
       </c>
       <c r="G747" t="n">
@@ -27357,7 +27357,7 @@
       </c>
       <c r="F748" t="inlineStr">
         <is>
-          <t xml:space="preserve">Prošćansko jezero - Plitvička jezera </t>
+          <t>Prošćansko - Plitvice</t>
         </is>
       </c>
       <c r="G748" t="n">
@@ -27393,7 +27393,7 @@
       </c>
       <c r="F749" t="inlineStr">
         <is>
-          <t xml:space="preserve">Prošćansko jezero - Plitvička jezera </t>
+          <t>Prošćansko - Plitvice</t>
         </is>
       </c>
       <c r="G749" t="n">
@@ -27429,7 +27429,7 @@
       </c>
       <c r="F750" t="inlineStr">
         <is>
-          <t xml:space="preserve">Prošćansko jezero - Plitvička jezera </t>
+          <t>Prošćansko - Plitvice</t>
         </is>
       </c>
       <c r="G750" t="n">
@@ -27465,7 +27465,7 @@
       </c>
       <c r="F751" t="inlineStr">
         <is>
-          <t xml:space="preserve">Prošćansko jezero - Plitvička jezera </t>
+          <t>Prošćansko - Plitvice</t>
         </is>
       </c>
       <c r="G751" t="n">
@@ -27501,7 +27501,7 @@
       </c>
       <c r="F752" t="inlineStr">
         <is>
-          <t xml:space="preserve">Prošćansko jezero - Plitvička jezera </t>
+          <t>Prošćansko - Plitvice</t>
         </is>
       </c>
       <c r="G752" t="n">
@@ -27537,7 +27537,7 @@
       </c>
       <c r="F753" t="inlineStr">
         <is>
-          <t xml:space="preserve">Prošćansko jezero - Plitvička jezera </t>
+          <t>Prošćansko - Plitvice</t>
         </is>
       </c>
       <c r="G753" t="n">
@@ -27573,7 +27573,7 @@
       </c>
       <c r="F754" t="inlineStr">
         <is>
-          <t xml:space="preserve">Prošćansko jezero - Plitvička jezera </t>
+          <t>Prošćansko - Plitvice</t>
         </is>
       </c>
       <c r="G754" t="n">
@@ -27609,7 +27609,7 @@
       </c>
       <c r="F755" t="inlineStr">
         <is>
-          <t xml:space="preserve">Prošćansko jezero - Plitvička jezera </t>
+          <t>Prošćansko - Plitvice</t>
         </is>
       </c>
       <c r="G755" t="n">
@@ -27645,7 +27645,7 @@
       </c>
       <c r="F756" t="inlineStr">
         <is>
-          <t xml:space="preserve">Prošćansko jezero - Plitvička jezera </t>
+          <t>Prošćansko - Plitvice</t>
         </is>
       </c>
       <c r="G756" t="n">
@@ -27681,7 +27681,7 @@
       </c>
       <c r="F757" t="inlineStr">
         <is>
-          <t xml:space="preserve">Prošćansko jezero - Plitvička jezera </t>
+          <t>Prošćansko - Plitvice</t>
         </is>
       </c>
       <c r="G757" t="n">
@@ -27717,7 +27717,7 @@
       </c>
       <c r="F758" t="inlineStr">
         <is>
-          <t xml:space="preserve">Prošćansko jezero - Plitvička jezera </t>
+          <t>Prošćansko - Plitvice</t>
         </is>
       </c>
       <c r="G758" t="n">
@@ -27753,7 +27753,7 @@
       </c>
       <c r="F759" t="inlineStr">
         <is>
-          <t xml:space="preserve">Prošćansko jezero - Plitvička jezera </t>
+          <t>Prošćansko - Plitvice</t>
         </is>
       </c>
       <c r="G759" t="n">
@@ -27789,7 +27789,7 @@
       </c>
       <c r="F760" t="inlineStr">
         <is>
-          <t xml:space="preserve">Prošćansko jezero - Plitvička jezera </t>
+          <t>Prošćansko - Plitvice</t>
         </is>
       </c>
       <c r="G760" t="n">
@@ -27825,7 +27825,7 @@
       </c>
       <c r="F761" t="inlineStr">
         <is>
-          <t xml:space="preserve">Prošćansko jezero - Plitvička jezera </t>
+          <t>Prošćansko - Plitvice</t>
         </is>
       </c>
       <c r="G761" t="n">
@@ -27861,7 +27861,7 @@
       </c>
       <c r="F762" t="inlineStr">
         <is>
-          <t xml:space="preserve">Prošćansko jezero - Plitvička jezera </t>
+          <t>Prošćansko - Plitvice</t>
         </is>
       </c>
       <c r="G762" t="n">
@@ -27897,7 +27897,7 @@
       </c>
       <c r="F763" t="inlineStr">
         <is>
-          <t xml:space="preserve">Prošćansko jezero - Plitvička jezera </t>
+          <t>Prošćansko - Plitvice</t>
         </is>
       </c>
       <c r="G763" t="n">
@@ -27933,7 +27933,7 @@
       </c>
       <c r="F764" t="inlineStr">
         <is>
-          <t xml:space="preserve">Prošćansko jezero - Plitvička jezera </t>
+          <t>Prošćansko - Plitvice</t>
         </is>
       </c>
       <c r="G764" t="n">
@@ -27969,7 +27969,7 @@
       </c>
       <c r="F765" t="inlineStr">
         <is>
-          <t xml:space="preserve">Prošćansko jezero - Plitvička jezera </t>
+          <t>Prošćansko - Plitvice</t>
         </is>
       </c>
       <c r="G765" t="n">
@@ -28005,7 +28005,7 @@
       </c>
       <c r="F766" t="inlineStr">
         <is>
-          <t xml:space="preserve">Prošćansko jezero - Plitvička jezera </t>
+          <t>Prošćansko - Plitvice</t>
         </is>
       </c>
       <c r="G766" t="n">
@@ -28041,7 +28041,7 @@
       </c>
       <c r="F767" t="inlineStr">
         <is>
-          <t xml:space="preserve">Prošćansko jezero - Plitvička jezera </t>
+          <t>Prošćansko - Plitvice</t>
         </is>
       </c>
       <c r="G767" t="n">
@@ -28077,7 +28077,7 @@
       </c>
       <c r="F768" t="inlineStr">
         <is>
-          <t xml:space="preserve">Prošćansko jezero - Plitvička jezera </t>
+          <t>Prošćansko - Plitvice</t>
         </is>
       </c>
       <c r="G768" t="n">
@@ -28113,7 +28113,7 @@
       </c>
       <c r="F769" t="inlineStr">
         <is>
-          <t xml:space="preserve">Prošćansko jezero - Plitvička jezera </t>
+          <t>Prošćansko - Plitvice</t>
         </is>
       </c>
       <c r="G769" t="n">
@@ -28149,7 +28149,7 @@
       </c>
       <c r="F770" t="inlineStr">
         <is>
-          <t xml:space="preserve">Prošćansko jezero - Plitvička jezera </t>
+          <t>Prošćansko - Plitvice</t>
         </is>
       </c>
       <c r="G770" t="n">
@@ -28185,7 +28185,7 @@
       </c>
       <c r="F771" t="inlineStr">
         <is>
-          <t xml:space="preserve">Prošćansko jezero - Plitvička jezera </t>
+          <t>Prošćansko - Plitvice</t>
         </is>
       </c>
       <c r="G771" t="n">
@@ -28221,7 +28221,7 @@
       </c>
       <c r="F772" t="inlineStr">
         <is>
-          <t>Belavići-kamp Slapić - Mrežnica</t>
+          <t>Slapić - Mrežnica</t>
         </is>
       </c>
       <c r="G772" t="n">
@@ -28257,7 +28257,7 @@
       </c>
       <c r="F773" t="inlineStr">
         <is>
-          <t>Belavići-kamp Slapić - Mrežnica</t>
+          <t>Slapić - Mrežnica</t>
         </is>
       </c>
       <c r="G773" t="n">
@@ -28293,7 +28293,7 @@
       </c>
       <c r="F774" t="inlineStr">
         <is>
-          <t>Belavići-kamp Slapić - Mrežnica</t>
+          <t>Slapić - Mrežnica</t>
         </is>
       </c>
       <c r="G774" t="n">
@@ -28329,7 +28329,7 @@
       </c>
       <c r="F775" t="inlineStr">
         <is>
-          <t>Belavići-kamp Slapić - Mrežnica</t>
+          <t>Slapić - Mrežnica</t>
         </is>
       </c>
       <c r="G775" t="n">
@@ -28365,7 +28365,7 @@
       </c>
       <c r="F776" t="inlineStr">
         <is>
-          <t>Belavići-kamp Slapić - Mrežnica</t>
+          <t>Slapić - Mrežnica</t>
         </is>
       </c>
       <c r="G776" t="n">
@@ -28401,7 +28401,7 @@
       </c>
       <c r="F777" t="inlineStr">
         <is>
-          <t>Belavići-kamp Slapić - Mrežnica</t>
+          <t>Slapić - Mrežnica</t>
         </is>
       </c>
       <c r="G777" t="n">
@@ -28437,7 +28437,7 @@
       </c>
       <c r="F778" t="inlineStr">
         <is>
-          <t>Belavići-kamp Slapić - Mrežnica</t>
+          <t>Slapić - Mrežnica</t>
         </is>
       </c>
       <c r="G778" t="n">
@@ -28473,7 +28473,7 @@
       </c>
       <c r="F779" t="inlineStr">
         <is>
-          <t>Belavići-kamp Slapić - Mrežnica</t>
+          <t>Slapić - Mrežnica</t>
         </is>
       </c>
       <c r="G779" t="n">
@@ -28509,7 +28509,7 @@
       </c>
       <c r="F780" t="inlineStr">
         <is>
-          <t>Belavići-kamp Slapić - Mrežnica</t>
+          <t>Slapić - Mrežnica</t>
         </is>
       </c>
       <c r="G780" t="n">
@@ -28545,7 +28545,7 @@
       </c>
       <c r="F781" t="inlineStr">
         <is>
-          <t>Belavići-kamp Slapić - Mrežnica</t>
+          <t>Slapić - Mrežnica</t>
         </is>
       </c>
       <c r="G781" t="n">
@@ -28581,7 +28581,7 @@
       </c>
       <c r="F782" t="inlineStr">
         <is>
-          <t>Belavići-kamp Slapić - Mrežnica</t>
+          <t>Slapić - Mrežnica</t>
         </is>
       </c>
       <c r="G782" t="n">
@@ -28617,7 +28617,7 @@
       </c>
       <c r="F783" t="inlineStr">
         <is>
-          <t>Belavići-kamp Slapić - Mrežnica</t>
+          <t>Slapić - Mrežnica</t>
         </is>
       </c>
       <c r="G783" t="n">
@@ -28653,7 +28653,7 @@
       </c>
       <c r="F784" t="inlineStr">
         <is>
-          <t>Belavići-kamp Slapić - Mrežnica</t>
+          <t>Slapić - Mrežnica</t>
         </is>
       </c>
       <c r="G784" t="n">
@@ -28689,7 +28689,7 @@
       </c>
       <c r="F785" t="inlineStr">
         <is>
-          <t>Belavići-kamp Slapić - Mrežnica</t>
+          <t>Slapić - Mrežnica</t>
         </is>
       </c>
       <c r="G785" t="n">
@@ -28725,7 +28725,7 @@
       </c>
       <c r="F786" t="inlineStr">
         <is>
-          <t>Belavići-kamp Slapić - Mrežnica</t>
+          <t>Slapić - Mrežnica</t>
         </is>
       </c>
       <c r="G786" t="n">
@@ -28761,7 +28761,7 @@
       </c>
       <c r="F787" t="inlineStr">
         <is>
-          <t>Belavići-kamp Slapić - Mrežnica</t>
+          <t>Slapić - Mrežnica</t>
         </is>
       </c>
       <c r="G787" t="n">
@@ -28797,7 +28797,7 @@
       </c>
       <c r="F788" t="inlineStr">
         <is>
-          <t>Belavići-kamp Slapić - Mrežnica</t>
+          <t>Slapić - Mrežnica</t>
         </is>
       </c>
       <c r="G788" t="n">
@@ -28833,7 +28833,7 @@
       </c>
       <c r="F789" t="inlineStr">
         <is>
-          <t>Belavići-kamp Slapić - Mrežnica</t>
+          <t>Slapić - Mrežnica</t>
         </is>
       </c>
       <c r="G789" t="n">
@@ -28869,7 +28869,7 @@
       </c>
       <c r="F790" t="inlineStr">
         <is>
-          <t>Belavići-kamp Slapić - Mrežnica</t>
+          <t>Slapić - Mrežnica</t>
         </is>
       </c>
       <c r="G790" t="n">
@@ -28905,7 +28905,7 @@
       </c>
       <c r="F791" t="inlineStr">
         <is>
-          <t>Belavići-kamp Slapić - Mrežnica</t>
+          <t>Slapić - Mrežnica</t>
         </is>
       </c>
       <c r="G791" t="n">
@@ -28941,7 +28941,7 @@
       </c>
       <c r="F792" t="inlineStr">
         <is>
-          <t>Belavići-kamp Slapić - Mrežnica</t>
+          <t>Slapić - Mrežnica</t>
         </is>
       </c>
       <c r="G792" t="n">
@@ -28977,7 +28977,7 @@
       </c>
       <c r="F793" t="inlineStr">
         <is>
-          <t>Belavići-kamp Slapić - Mrežnica</t>
+          <t>Slapić - Mrežnica</t>
         </is>
       </c>
       <c r="G793" t="n">
@@ -29013,7 +29013,7 @@
       </c>
       <c r="F794" t="inlineStr">
         <is>
-          <t>Belavići-kamp Slapić - Mrežnica</t>
+          <t>Slapić - Mrežnica</t>
         </is>
       </c>
       <c r="G794" t="n">
@@ -29049,7 +29049,7 @@
       </c>
       <c r="F795" t="inlineStr">
         <is>
-          <t>Belavići-kamp Slapić - Mrežnica</t>
+          <t>Slapić - Mrežnica</t>
         </is>
       </c>
       <c r="G795" t="n">
@@ -29085,7 +29085,7 @@
       </c>
       <c r="F796" t="inlineStr">
         <is>
-          <t>Belavići-kamp Slapić - Mrežnica</t>
+          <t>Slapić - Mrežnica</t>
         </is>
       </c>
       <c r="G796" t="n">
@@ -29121,7 +29121,7 @@
       </c>
       <c r="F797" t="inlineStr">
         <is>
-          <t>Belavići-kamp Slapić - Mrežnica</t>
+          <t>Slapić - Mrežnica</t>
         </is>
       </c>
       <c r="G797" t="n">
@@ -29157,7 +29157,7 @@
       </c>
       <c r="F798" t="inlineStr">
         <is>
-          <t>Belavići-kamp Slapić - Mrežnica</t>
+          <t>Slapić - Mrežnica</t>
         </is>
       </c>
       <c r="G798" t="n">
@@ -29193,7 +29193,7 @@
       </c>
       <c r="F799" t="inlineStr">
         <is>
-          <t>Belavići-kamp Slapić - Mrežnica</t>
+          <t>Slapić - Mrežnica</t>
         </is>
       </c>
       <c r="G799" t="n">
@@ -29229,7 +29229,7 @@
       </c>
       <c r="F800" t="inlineStr">
         <is>
-          <t>Belavići-kamp Slapić - Mrežnica</t>
+          <t>Slapić - Mrežnica</t>
         </is>
       </c>
       <c r="G800" t="n">
@@ -29265,7 +29265,7 @@
       </c>
       <c r="F801" t="inlineStr">
         <is>
-          <t>Belavići-kamp Slapić - Mrežnica</t>
+          <t>Slapić - Mrežnica</t>
         </is>
       </c>
       <c r="G801" t="n">
@@ -29301,7 +29301,7 @@
       </c>
       <c r="F802" t="inlineStr">
         <is>
-          <t>Belavići-kamp Slapić - Mrežnica</t>
+          <t>Slapić - Mrežnica</t>
         </is>
       </c>
       <c r="G802" t="n">
@@ -29337,7 +29337,7 @@
       </c>
       <c r="F803" t="inlineStr">
         <is>
-          <t>Belavići-kamp Slapić - Mrežnica</t>
+          <t>Slapić - Mrežnica</t>
         </is>
       </c>
       <c r="G803" t="n">
@@ -29373,7 +29373,7 @@
       </c>
       <c r="F804" t="inlineStr">
         <is>
-          <t>Belavići-kamp Slapić - Mrežnica</t>
+          <t>Slapić - Mrežnica</t>
         </is>
       </c>
       <c r="G804" t="n">
@@ -29409,7 +29409,7 @@
       </c>
       <c r="F805" t="inlineStr">
         <is>
-          <t>Belavići-kamp Slapić - Mrežnica</t>
+          <t>Slapić - Mrežnica</t>
         </is>
       </c>
       <c r="G805" t="n">
@@ -29445,7 +29445,7 @@
       </c>
       <c r="F806" t="inlineStr">
         <is>
-          <t>Belavići-kamp Slapić - Mrežnica</t>
+          <t>Slapić - Mrežnica</t>
         </is>
       </c>
       <c r="G806" t="n">
@@ -29481,7 +29481,7 @@
       </c>
       <c r="F807" t="inlineStr">
         <is>
-          <t>Duga Resa-gradsko kupalište - Mrežnica</t>
+          <t>Duga Resa - Mrežnica</t>
         </is>
       </c>
       <c r="G807" t="n">
@@ -29517,7 +29517,7 @@
       </c>
       <c r="F808" t="inlineStr">
         <is>
-          <t>Duga Resa-gradsko kupalište - Mrežnica</t>
+          <t>Duga Resa - Mrežnica</t>
         </is>
       </c>
       <c r="G808" t="n">
@@ -29553,7 +29553,7 @@
       </c>
       <c r="F809" t="inlineStr">
         <is>
-          <t>Duga Resa-gradsko kupalište - Mrežnica</t>
+          <t>Duga Resa - Mrežnica</t>
         </is>
       </c>
       <c r="G809" t="n">
@@ -29589,7 +29589,7 @@
       </c>
       <c r="F810" t="inlineStr">
         <is>
-          <t>Duga Resa-gradsko kupalište - Mrežnica</t>
+          <t>Duga Resa - Mrežnica</t>
         </is>
       </c>
       <c r="G810" t="n">
@@ -29625,7 +29625,7 @@
       </c>
       <c r="F811" t="inlineStr">
         <is>
-          <t>Duga Resa-gradsko kupalište - Mrežnica</t>
+          <t>Duga Resa - Mrežnica</t>
         </is>
       </c>
       <c r="G811" t="n">
@@ -29661,7 +29661,7 @@
       </c>
       <c r="F812" t="inlineStr">
         <is>
-          <t>Duga Resa-gradsko kupalište - Mrežnica</t>
+          <t>Duga Resa - Mrežnica</t>
         </is>
       </c>
       <c r="G812" t="n">
@@ -29697,7 +29697,7 @@
       </c>
       <c r="F813" t="inlineStr">
         <is>
-          <t>Duga Resa-gradsko kupalište - Mrežnica</t>
+          <t>Duga Resa - Mrežnica</t>
         </is>
       </c>
       <c r="G813" t="n">
@@ -29733,7 +29733,7 @@
       </c>
       <c r="F814" t="inlineStr">
         <is>
-          <t>Duga Resa-gradsko kupalište - Mrežnica</t>
+          <t>Duga Resa - Mrežnica</t>
         </is>
       </c>
       <c r="G814" t="n">
@@ -29769,7 +29769,7 @@
       </c>
       <c r="F815" t="inlineStr">
         <is>
-          <t>Duga Resa-gradsko kupalište - Mrežnica</t>
+          <t>Duga Resa - Mrežnica</t>
         </is>
       </c>
       <c r="G815" t="n">
@@ -29805,7 +29805,7 @@
       </c>
       <c r="F816" t="inlineStr">
         <is>
-          <t>Duga Resa-gradsko kupalište - Mrežnica</t>
+          <t>Duga Resa - Mrežnica</t>
         </is>
       </c>
       <c r="G816" t="n">
@@ -29841,7 +29841,7 @@
       </c>
       <c r="F817" t="inlineStr">
         <is>
-          <t>Duga Resa-gradsko kupalište - Mrežnica</t>
+          <t>Duga Resa - Mrežnica</t>
         </is>
       </c>
       <c r="G817" t="n">
@@ -29877,7 +29877,7 @@
       </c>
       <c r="F818" t="inlineStr">
         <is>
-          <t>Duga Resa-gradsko kupalište - Mrežnica</t>
+          <t>Duga Resa - Mrežnica</t>
         </is>
       </c>
       <c r="G818" t="n">
@@ -29913,7 +29913,7 @@
       </c>
       <c r="F819" t="inlineStr">
         <is>
-          <t>Duga Resa-gradsko kupalište - Mrežnica</t>
+          <t>Duga Resa - Mrežnica</t>
         </is>
       </c>
       <c r="G819" t="n">
@@ -29949,7 +29949,7 @@
       </c>
       <c r="F820" t="inlineStr">
         <is>
-          <t>Duga Resa-gradsko kupalište - Mrežnica</t>
+          <t>Duga Resa - Mrežnica</t>
         </is>
       </c>
       <c r="G820" t="n">
@@ -29985,7 +29985,7 @@
       </c>
       <c r="F821" t="inlineStr">
         <is>
-          <t>Duga Resa-gradsko kupalište - Mrežnica</t>
+          <t>Duga Resa - Mrežnica</t>
         </is>
       </c>
       <c r="G821" t="n">
@@ -30021,7 +30021,7 @@
       </c>
       <c r="F822" t="inlineStr">
         <is>
-          <t>Duga Resa-gradsko kupalište - Mrežnica</t>
+          <t>Duga Resa - Mrežnica</t>
         </is>
       </c>
       <c r="G822" t="n">
@@ -30057,7 +30057,7 @@
       </c>
       <c r="F823" t="inlineStr">
         <is>
-          <t>Duga Resa-gradsko kupalište - Mrežnica</t>
+          <t>Duga Resa - Mrežnica</t>
         </is>
       </c>
       <c r="G823" t="n">
@@ -30093,7 +30093,7 @@
       </c>
       <c r="F824" t="inlineStr">
         <is>
-          <t>Duga Resa-gradsko kupalište - Mrežnica</t>
+          <t>Duga Resa - Mrežnica</t>
         </is>
       </c>
       <c r="G824" t="n">
@@ -30129,7 +30129,7 @@
       </c>
       <c r="F825" t="inlineStr">
         <is>
-          <t>Duga Resa-gradsko kupalište - Mrežnica</t>
+          <t>Duga Resa - Mrežnica</t>
         </is>
       </c>
       <c r="G825" t="n">
@@ -30165,7 +30165,7 @@
       </c>
       <c r="F826" t="inlineStr">
         <is>
-          <t>Duga Resa-gradsko kupalište - Mrežnica</t>
+          <t>Duga Resa - Mrežnica</t>
         </is>
       </c>
       <c r="G826" t="n">
@@ -30201,7 +30201,7 @@
       </c>
       <c r="F827" t="inlineStr">
         <is>
-          <t>Duga Resa-gradsko kupalište - Mrežnica</t>
+          <t>Duga Resa - Mrežnica</t>
         </is>
       </c>
       <c r="G827" t="n">
@@ -30237,7 +30237,7 @@
       </c>
       <c r="F828" t="inlineStr">
         <is>
-          <t>Duga Resa-gradsko kupalište - Mrežnica</t>
+          <t>Duga Resa - Mrežnica</t>
         </is>
       </c>
       <c r="G828" t="n">
@@ -30273,7 +30273,7 @@
       </c>
       <c r="F829" t="inlineStr">
         <is>
-          <t>Duga Resa-gradsko kupalište - Mrežnica</t>
+          <t>Duga Resa - Mrežnica</t>
         </is>
       </c>
       <c r="G829" t="n">
@@ -30309,7 +30309,7 @@
       </c>
       <c r="F830" t="inlineStr">
         <is>
-          <t>Duga Resa-gradsko kupalište - Mrežnica</t>
+          <t>Duga Resa - Mrežnica</t>
         </is>
       </c>
       <c r="G830" t="n">
@@ -30345,7 +30345,7 @@
       </c>
       <c r="F831" t="inlineStr">
         <is>
-          <t>Duga Resa-gradsko kupalište - Mrežnica</t>
+          <t>Duga Resa - Mrežnica</t>
         </is>
       </c>
       <c r="G831" t="n">
@@ -30381,7 +30381,7 @@
       </c>
       <c r="F832" t="inlineStr">
         <is>
-          <t>Duga Resa-gradsko kupalište - Mrežnica</t>
+          <t>Duga Resa - Mrežnica</t>
         </is>
       </c>
       <c r="G832" t="n">
@@ -30417,7 +30417,7 @@
       </c>
       <c r="F833" t="inlineStr">
         <is>
-          <t>Duga Resa-gradsko kupalište - Mrežnica</t>
+          <t>Duga Resa - Mrežnica</t>
         </is>
       </c>
       <c r="G833" t="n">
@@ -30453,7 +30453,7 @@
       </c>
       <c r="F834" t="inlineStr">
         <is>
-          <t>Duga Resa-gradsko kupalište - Mrežnica</t>
+          <t>Duga Resa - Mrežnica</t>
         </is>
       </c>
       <c r="G834" t="n">
@@ -30489,7 +30489,7 @@
       </c>
       <c r="F835" t="inlineStr">
         <is>
-          <t>Duga Resa-gradsko kupalište - Mrežnica</t>
+          <t>Duga Resa - Mrežnica</t>
         </is>
       </c>
       <c r="G835" t="n">
@@ -30525,7 +30525,7 @@
       </c>
       <c r="F836" t="inlineStr">
         <is>
-          <t>Duga Resa-gradsko kupalište - Mrežnica</t>
+          <t>Duga Resa - Mrežnica</t>
         </is>
       </c>
       <c r="G836" t="n">
@@ -30561,7 +30561,7 @@
       </c>
       <c r="F837" t="inlineStr">
         <is>
-          <t>Duga Resa-gradsko kupalište - Mrežnica</t>
+          <t>Duga Resa - Mrežnica</t>
         </is>
       </c>
       <c r="G837" t="n">
@@ -30597,7 +30597,7 @@
       </c>
       <c r="F838" t="inlineStr">
         <is>
-          <t>Duga Resa-gradsko kupalište - Mrežnica</t>
+          <t>Duga Resa - Mrežnica</t>
         </is>
       </c>
       <c r="G838" t="n">
@@ -30633,7 +30633,7 @@
       </c>
       <c r="F839" t="inlineStr">
         <is>
-          <t>Duga Resa-gradsko kupalište - Mrežnica</t>
+          <t>Duga Resa - Mrežnica</t>
         </is>
       </c>
       <c r="G839" t="n">
@@ -30669,7 +30669,7 @@
       </c>
       <c r="F840" t="inlineStr">
         <is>
-          <t>Duga Resa-gradsko kupalište - Mrežnica</t>
+          <t>Duga Resa - Mrežnica</t>
         </is>
       </c>
       <c r="G840" t="n">
@@ -30705,7 +30705,7 @@
       </c>
       <c r="F841" t="inlineStr">
         <is>
-          <t>Duga Resa-gradsko kupalište - Mrežnica</t>
+          <t>Duga Resa - Mrežnica</t>
         </is>
       </c>
       <c r="G841" t="n">
@@ -30741,7 +30741,7 @@
       </c>
       <c r="F842" t="inlineStr">
         <is>
-          <t>Severin na Kupi-kupalište Klanac - Kupa</t>
+          <t>Severin - Kupa</t>
         </is>
       </c>
       <c r="G842" t="n">
@@ -30777,7 +30777,7 @@
       </c>
       <c r="F843" t="inlineStr">
         <is>
-          <t>Severin na Kupi-kupalište Klanac - Kupa</t>
+          <t>Severin - Kupa</t>
         </is>
       </c>
       <c r="G843" t="n">
@@ -30813,7 +30813,7 @@
       </c>
       <c r="F844" t="inlineStr">
         <is>
-          <t>Severin na Kupi-kupalište Klanac - Kupa</t>
+          <t>Severin - Kupa</t>
         </is>
       </c>
       <c r="G844" t="n">
@@ -30849,7 +30849,7 @@
       </c>
       <c r="F845" t="inlineStr">
         <is>
-          <t>Severin na Kupi-kupalište Klanac - Kupa</t>
+          <t>Severin - Kupa</t>
         </is>
       </c>
       <c r="G845" t="n">
@@ -30885,7 +30885,7 @@
       </c>
       <c r="F846" t="inlineStr">
         <is>
-          <t>Severin na Kupi-kupalište Klanac - Kupa</t>
+          <t>Severin - Kupa</t>
         </is>
       </c>
       <c r="G846" t="n">
@@ -30921,7 +30921,7 @@
       </c>
       <c r="F847" t="inlineStr">
         <is>
-          <t>Severin na Kupi-kupalište Klanac - Kupa</t>
+          <t>Severin - Kupa</t>
         </is>
       </c>
       <c r="G847" t="n">
@@ -30957,7 +30957,7 @@
       </c>
       <c r="F848" t="inlineStr">
         <is>
-          <t>Severin na Kupi-kupalište Klanac - Kupa</t>
+          <t>Severin - Kupa</t>
         </is>
       </c>
       <c r="G848" t="n">
@@ -30993,7 +30993,7 @@
       </c>
       <c r="F849" t="inlineStr">
         <is>
-          <t>Severin na Kupi-kupalište Klanac - Kupa</t>
+          <t>Severin - Kupa</t>
         </is>
       </c>
       <c r="G849" t="n">
@@ -31029,7 +31029,7 @@
       </c>
       <c r="F850" t="inlineStr">
         <is>
-          <t>Severin na Kupi-kupalište Klanac - Kupa</t>
+          <t>Severin - Kupa</t>
         </is>
       </c>
       <c r="G850" t="n">
@@ -31065,7 +31065,7 @@
       </c>
       <c r="F851" t="inlineStr">
         <is>
-          <t>Severin na Kupi-kupalište Klanac - Kupa</t>
+          <t>Severin - Kupa</t>
         </is>
       </c>
       <c r="G851" t="n">
@@ -31101,7 +31101,7 @@
       </c>
       <c r="F852" t="inlineStr">
         <is>
-          <t>Severin na Kupi-kupalište Klanac - Kupa</t>
+          <t>Severin - Kupa</t>
         </is>
       </c>
       <c r="G852" t="n">
@@ -31137,7 +31137,7 @@
       </c>
       <c r="F853" t="inlineStr">
         <is>
-          <t>Severin na Kupi-kupalište Klanac - Kupa</t>
+          <t>Severin - Kupa</t>
         </is>
       </c>
       <c r="G853" t="n">
@@ -31173,7 +31173,7 @@
       </c>
       <c r="F854" t="inlineStr">
         <is>
-          <t>Severin na Kupi-kupalište Klanac - Kupa</t>
+          <t>Severin - Kupa</t>
         </is>
       </c>
       <c r="G854" t="n">
@@ -31209,7 +31209,7 @@
       </c>
       <c r="F855" t="inlineStr">
         <is>
-          <t>Severin na Kupi-kupalište Klanac - Kupa</t>
+          <t>Severin - Kupa</t>
         </is>
       </c>
       <c r="G855" t="n">
@@ -31245,7 +31245,7 @@
       </c>
       <c r="F856" t="inlineStr">
         <is>
-          <t>Severin na Kupi-kupalište Klanac - Kupa</t>
+          <t>Severin - Kupa</t>
         </is>
       </c>
       <c r="G856" t="n">
@@ -31281,7 +31281,7 @@
       </c>
       <c r="F857" t="inlineStr">
         <is>
-          <t>Severin na Kupi-kupalište Klanac - Kupa</t>
+          <t>Severin - Kupa</t>
         </is>
       </c>
       <c r="G857" t="n">
@@ -31317,7 +31317,7 @@
       </c>
       <c r="F858" t="inlineStr">
         <is>
-          <t>Severin na Kupi-kupalište Klanac - Kupa</t>
+          <t>Severin - Kupa</t>
         </is>
       </c>
       <c r="G858" t="n">
@@ -31353,7 +31353,7 @@
       </c>
       <c r="F859" t="inlineStr">
         <is>
-          <t>Severin na Kupi-kupalište Klanac - Kupa</t>
+          <t>Severin - Kupa</t>
         </is>
       </c>
       <c r="G859" t="n">
@@ -31389,7 +31389,7 @@
       </c>
       <c r="F860" t="inlineStr">
         <is>
-          <t>Severin na Kupi-kupalište Klanac - Kupa</t>
+          <t>Severin - Kupa</t>
         </is>
       </c>
       <c r="G860" t="n">
@@ -31425,7 +31425,7 @@
       </c>
       <c r="F861" t="inlineStr">
         <is>
-          <t>Severin na Kupi-kupalište Klanac - Kupa</t>
+          <t>Severin - Kupa</t>
         </is>
       </c>
       <c r="G861" t="n">
@@ -31461,7 +31461,7 @@
       </c>
       <c r="F862" t="inlineStr">
         <is>
-          <t>Severin na Kupi-kupalište Klanac - Kupa</t>
+          <t>Severin - Kupa</t>
         </is>
       </c>
       <c r="G862" t="n">
@@ -31497,7 +31497,7 @@
       </c>
       <c r="F863" t="inlineStr">
         <is>
-          <t>Severin na Kupi-kupalište Klanac - Kupa</t>
+          <t>Severin - Kupa</t>
         </is>
       </c>
       <c r="G863" t="n">
@@ -31533,7 +31533,7 @@
       </c>
       <c r="F864" t="inlineStr">
         <is>
-          <t>Severin na Kupi-kupalište Klanac - Kupa</t>
+          <t>Severin - Kupa</t>
         </is>
       </c>
       <c r="G864" t="n">
@@ -31569,7 +31569,7 @@
       </c>
       <c r="F865" t="inlineStr">
         <is>
-          <t>Severin na Kupi-kupalište Klanac - Kupa</t>
+          <t>Severin - Kupa</t>
         </is>
       </c>
       <c r="G865" t="n">
@@ -31605,7 +31605,7 @@
       </c>
       <c r="F866" t="inlineStr">
         <is>
-          <t>Severin na Kupi-kupalište Klanac - Kupa</t>
+          <t>Severin - Kupa</t>
         </is>
       </c>
       <c r="G866" t="n">
@@ -31641,7 +31641,7 @@
       </c>
       <c r="F867" t="inlineStr">
         <is>
-          <t>Severin na Kupi-kupalište Klanac - Kupa</t>
+          <t>Severin - Kupa</t>
         </is>
       </c>
       <c r="G867" t="n">
@@ -31677,7 +31677,7 @@
       </c>
       <c r="F868" t="inlineStr">
         <is>
-          <t>Severin na Kupi-kupalište Klanac - Kupa</t>
+          <t>Severin - Kupa</t>
         </is>
       </c>
       <c r="G868" t="n">
@@ -31713,7 +31713,7 @@
       </c>
       <c r="F869" t="inlineStr">
         <is>
-          <t>Severin na Kupi-kupalište Klanac - Kupa</t>
+          <t>Severin - Kupa</t>
         </is>
       </c>
       <c r="G869" t="n">
@@ -31749,7 +31749,7 @@
       </c>
       <c r="F870" t="inlineStr">
         <is>
-          <t>Severin na Kupi-kupalište Klanac - Kupa</t>
+          <t>Severin - Kupa</t>
         </is>
       </c>
       <c r="G870" t="n">
@@ -31785,7 +31785,7 @@
       </c>
       <c r="F871" t="inlineStr">
         <is>
-          <t>Severin na Kupi-kupalište Klanac - Kupa</t>
+          <t>Severin - Kupa</t>
         </is>
       </c>
       <c r="G871" t="n">
@@ -31821,7 +31821,7 @@
       </c>
       <c r="F872" t="inlineStr">
         <is>
-          <t>Severin na Kupi-kupalište Klanac - Kupa</t>
+          <t>Severin - Kupa</t>
         </is>
       </c>
       <c r="G872" t="n">
@@ -31857,7 +31857,7 @@
       </c>
       <c r="F873" t="inlineStr">
         <is>
-          <t>Severin na Kupi-kupalište Klanac - Kupa</t>
+          <t>Severin - Kupa</t>
         </is>
       </c>
       <c r="G873" t="n">
@@ -31893,7 +31893,7 @@
       </c>
       <c r="F874" t="inlineStr">
         <is>
-          <t>Severin na Kupi-kupalište Klanac - Kupa</t>
+          <t>Severin - Kupa</t>
         </is>
       </c>
       <c r="G874" t="n">
@@ -31929,7 +31929,7 @@
       </c>
       <c r="F875" t="inlineStr">
         <is>
-          <t>Severin na Kupi-kupalište Klanac - Kupa</t>
+          <t>Severin - Kupa</t>
         </is>
       </c>
       <c r="G875" t="n">
@@ -31965,7 +31965,7 @@
       </c>
       <c r="F876" t="inlineStr">
         <is>
-          <t>Severin na Kupi-kupalište Klanac - Kupa</t>
+          <t>Severin - Kupa</t>
         </is>
       </c>
       <c r="G876" t="n">
@@ -32001,7 +32001,7 @@
       </c>
       <c r="F877" t="inlineStr">
         <is>
-          <t>Ozalj-gradsko kupalište - Kupa</t>
+          <t>Ozalj - Kupa</t>
         </is>
       </c>
       <c r="G877" t="n">
@@ -32037,7 +32037,7 @@
       </c>
       <c r="F878" t="inlineStr">
         <is>
-          <t>Ozalj-gradsko kupalište - Kupa</t>
+          <t>Ozalj - Kupa</t>
         </is>
       </c>
       <c r="G878" t="n">
@@ -32073,7 +32073,7 @@
       </c>
       <c r="F879" t="inlineStr">
         <is>
-          <t>Ozalj-gradsko kupalište - Kupa</t>
+          <t>Ozalj - Kupa</t>
         </is>
       </c>
       <c r="G879" t="n">
@@ -32109,7 +32109,7 @@
       </c>
       <c r="F880" t="inlineStr">
         <is>
-          <t>Ozalj-gradsko kupalište - Kupa</t>
+          <t>Ozalj - Kupa</t>
         </is>
       </c>
       <c r="G880" t="n">
@@ -32145,7 +32145,7 @@
       </c>
       <c r="F881" t="inlineStr">
         <is>
-          <t>Ozalj-gradsko kupalište - Kupa</t>
+          <t>Ozalj - Kupa</t>
         </is>
       </c>
       <c r="G881" t="n">
@@ -32181,7 +32181,7 @@
       </c>
       <c r="F882" t="inlineStr">
         <is>
-          <t>Ozalj-gradsko kupalište - Kupa</t>
+          <t>Ozalj - Kupa</t>
         </is>
       </c>
       <c r="G882" t="n">
@@ -32217,7 +32217,7 @@
       </c>
       <c r="F883" t="inlineStr">
         <is>
-          <t>Ozalj-gradsko kupalište - Kupa</t>
+          <t>Ozalj - Kupa</t>
         </is>
       </c>
       <c r="G883" t="n">
@@ -32253,7 +32253,7 @@
       </c>
       <c r="F884" t="inlineStr">
         <is>
-          <t>Ozalj-gradsko kupalište - Kupa</t>
+          <t>Ozalj - Kupa</t>
         </is>
       </c>
       <c r="G884" t="n">
@@ -32289,7 +32289,7 @@
       </c>
       <c r="F885" t="inlineStr">
         <is>
-          <t>Ozalj-gradsko kupalište - Kupa</t>
+          <t>Ozalj - Kupa</t>
         </is>
       </c>
       <c r="G885" t="n">
@@ -32325,7 +32325,7 @@
       </c>
       <c r="F886" t="inlineStr">
         <is>
-          <t>Ozalj-gradsko kupalište - Kupa</t>
+          <t>Ozalj - Kupa</t>
         </is>
       </c>
       <c r="G886" t="n">
@@ -32361,7 +32361,7 @@
       </c>
       <c r="F887" t="inlineStr">
         <is>
-          <t>Ozalj-gradsko kupalište - Kupa</t>
+          <t>Ozalj - Kupa</t>
         </is>
       </c>
       <c r="G887" t="n">
@@ -32397,7 +32397,7 @@
       </c>
       <c r="F888" t="inlineStr">
         <is>
-          <t>Ozalj-gradsko kupalište - Kupa</t>
+          <t>Ozalj - Kupa</t>
         </is>
       </c>
       <c r="G888" t="n">
@@ -32433,7 +32433,7 @@
       </c>
       <c r="F889" t="inlineStr">
         <is>
-          <t>Ozalj-gradsko kupalište - Kupa</t>
+          <t>Ozalj - Kupa</t>
         </is>
       </c>
       <c r="G889" t="n">
@@ -32469,7 +32469,7 @@
       </c>
       <c r="F890" t="inlineStr">
         <is>
-          <t>Ozalj-gradsko kupalište - Kupa</t>
+          <t>Ozalj - Kupa</t>
         </is>
       </c>
       <c r="G890" t="n">
@@ -32505,7 +32505,7 @@
       </c>
       <c r="F891" t="inlineStr">
         <is>
-          <t>Ozalj-gradsko kupalište - Kupa</t>
+          <t>Ozalj - Kupa</t>
         </is>
       </c>
       <c r="G891" t="n">
@@ -32541,7 +32541,7 @@
       </c>
       <c r="F892" t="inlineStr">
         <is>
-          <t>Ozalj-gradsko kupalište - Kupa</t>
+          <t>Ozalj - Kupa</t>
         </is>
       </c>
       <c r="G892" t="n">
@@ -32577,7 +32577,7 @@
       </c>
       <c r="F893" t="inlineStr">
         <is>
-          <t>Ozalj-gradsko kupalište - Kupa</t>
+          <t>Ozalj - Kupa</t>
         </is>
       </c>
       <c r="G893" t="n">
@@ -32613,7 +32613,7 @@
       </c>
       <c r="F894" t="inlineStr">
         <is>
-          <t>Ozalj-gradsko kupalište - Kupa</t>
+          <t>Ozalj - Kupa</t>
         </is>
       </c>
       <c r="G894" t="n">
@@ -32649,7 +32649,7 @@
       </c>
       <c r="F895" t="inlineStr">
         <is>
-          <t>Ozalj-gradsko kupalište - Kupa</t>
+          <t>Ozalj - Kupa</t>
         </is>
       </c>
       <c r="G895" t="n">
@@ -32685,7 +32685,7 @@
       </c>
       <c r="F896" t="inlineStr">
         <is>
-          <t>Ozalj-gradsko kupalište - Kupa</t>
+          <t>Ozalj - Kupa</t>
         </is>
       </c>
       <c r="G896" t="n">
@@ -32721,7 +32721,7 @@
       </c>
       <c r="F897" t="inlineStr">
         <is>
-          <t>Ozalj-gradsko kupalište - Kupa</t>
+          <t>Ozalj - Kupa</t>
         </is>
       </c>
       <c r="G897" t="n">
@@ -32757,7 +32757,7 @@
       </c>
       <c r="F898" t="inlineStr">
         <is>
-          <t>Ozalj-gradsko kupalište - Kupa</t>
+          <t>Ozalj - Kupa</t>
         </is>
       </c>
       <c r="G898" t="n">
@@ -32793,7 +32793,7 @@
       </c>
       <c r="F899" t="inlineStr">
         <is>
-          <t>Ozalj-gradsko kupalište - Kupa</t>
+          <t>Ozalj - Kupa</t>
         </is>
       </c>
       <c r="G899" t="n">
@@ -32829,7 +32829,7 @@
       </c>
       <c r="F900" t="inlineStr">
         <is>
-          <t>Ozalj-gradsko kupalište - Kupa</t>
+          <t>Ozalj - Kupa</t>
         </is>
       </c>
       <c r="G900" t="n">
@@ -32865,7 +32865,7 @@
       </c>
       <c r="F901" t="inlineStr">
         <is>
-          <t>Ozalj-gradsko kupalište - Kupa</t>
+          <t>Ozalj - Kupa</t>
         </is>
       </c>
       <c r="G901" t="n">
@@ -32901,7 +32901,7 @@
       </c>
       <c r="F902" t="inlineStr">
         <is>
-          <t>Ozalj-gradsko kupalište - Kupa</t>
+          <t>Ozalj - Kupa</t>
         </is>
       </c>
       <c r="G902" t="n">
@@ -32937,7 +32937,7 @@
       </c>
       <c r="F903" t="inlineStr">
         <is>
-          <t>Ozalj-gradsko kupalište - Kupa</t>
+          <t>Ozalj - Kupa</t>
         </is>
       </c>
       <c r="G903" t="n">
@@ -32973,7 +32973,7 @@
       </c>
       <c r="F904" t="inlineStr">
         <is>
-          <t>Ozalj-gradsko kupalište - Kupa</t>
+          <t>Ozalj - Kupa</t>
         </is>
       </c>
       <c r="G904" t="n">
@@ -33009,7 +33009,7 @@
       </c>
       <c r="F905" t="inlineStr">
         <is>
-          <t>Ozalj-gradsko kupalište - Kupa</t>
+          <t>Ozalj - Kupa</t>
         </is>
       </c>
       <c r="G905" t="n">
@@ -33045,7 +33045,7 @@
       </c>
       <c r="F906" t="inlineStr">
         <is>
-          <t>Ozalj-gradsko kupalište - Kupa</t>
+          <t>Ozalj - Kupa</t>
         </is>
       </c>
       <c r="G906" t="n">
@@ -33081,7 +33081,7 @@
       </c>
       <c r="F907" t="inlineStr">
         <is>
-          <t>Ozalj-gradsko kupalište - Kupa</t>
+          <t>Ozalj - Kupa</t>
         </is>
       </c>
       <c r="G907" t="n">
@@ -33117,7 +33117,7 @@
       </c>
       <c r="F908" t="inlineStr">
         <is>
-          <t>Ozalj-gradsko kupalište - Kupa</t>
+          <t>Ozalj - Kupa</t>
         </is>
       </c>
       <c r="G908" t="n">
@@ -33153,7 +33153,7 @@
       </c>
       <c r="F909" t="inlineStr">
         <is>
-          <t>Ozalj-gradsko kupalište - Kupa</t>
+          <t>Ozalj - Kupa</t>
         </is>
       </c>
       <c r="G909" t="n">
@@ -33189,7 +33189,7 @@
       </c>
       <c r="F910" t="inlineStr">
         <is>
-          <t>Ozalj-gradsko kupalište - Kupa</t>
+          <t>Ozalj - Kupa</t>
         </is>
       </c>
       <c r="G910" t="n">
@@ -33225,7 +33225,7 @@
       </c>
       <c r="F911" t="inlineStr">
         <is>
-          <t>Ozalj-gradsko kupalište - Kupa</t>
+          <t>Ozalj - Kupa</t>
         </is>
       </c>
       <c r="G911" t="n">
@@ -33261,7 +33261,7 @@
       </c>
       <c r="F912" t="inlineStr">
         <is>
-          <t>Slunj-kupalište Rastoke - Korana</t>
+          <t>Slunj - Korana</t>
         </is>
       </c>
       <c r="G912" t="n">
@@ -33297,7 +33297,7 @@
       </c>
       <c r="F913" t="inlineStr">
         <is>
-          <t>Slunj-kupalište Rastoke - Korana</t>
+          <t>Slunj - Korana</t>
         </is>
       </c>
       <c r="G913" t="n">
@@ -33333,7 +33333,7 @@
       </c>
       <c r="F914" t="inlineStr">
         <is>
-          <t>Slunj-kupalište Rastoke - Korana</t>
+          <t>Slunj - Korana</t>
         </is>
       </c>
       <c r="G914" t="n">
@@ -33369,7 +33369,7 @@
       </c>
       <c r="F915" t="inlineStr">
         <is>
-          <t>Slunj-kupalište Rastoke - Korana</t>
+          <t>Slunj - Korana</t>
         </is>
       </c>
       <c r="G915" t="n">
@@ -33405,7 +33405,7 @@
       </c>
       <c r="F916" t="inlineStr">
         <is>
-          <t>Slunj-kupalište Rastoke - Korana</t>
+          <t>Slunj - Korana</t>
         </is>
       </c>
       <c r="G916" t="n">
@@ -33441,7 +33441,7 @@
       </c>
       <c r="F917" t="inlineStr">
         <is>
-          <t>Slunj-kupalište Rastoke - Korana</t>
+          <t>Slunj - Korana</t>
         </is>
       </c>
       <c r="G917" t="n">
@@ -33477,7 +33477,7 @@
       </c>
       <c r="F918" t="inlineStr">
         <is>
-          <t>Slunj-kupalište Rastoke - Korana</t>
+          <t>Slunj - Korana</t>
         </is>
       </c>
       <c r="G918" t="n">
@@ -33513,7 +33513,7 @@
       </c>
       <c r="F919" t="inlineStr">
         <is>
-          <t>Slunj-kupalište Rastoke - Korana</t>
+          <t>Slunj - Korana</t>
         </is>
       </c>
       <c r="G919" t="n">
@@ -33549,7 +33549,7 @@
       </c>
       <c r="F920" t="inlineStr">
         <is>
-          <t>Slunj-kupalište Rastoke - Korana</t>
+          <t>Slunj - Korana</t>
         </is>
       </c>
       <c r="G920" t="n">
@@ -33585,7 +33585,7 @@
       </c>
       <c r="F921" t="inlineStr">
         <is>
-          <t>Slunj-kupalište Rastoke - Korana</t>
+          <t>Slunj - Korana</t>
         </is>
       </c>
       <c r="G921" t="n">
@@ -33621,7 +33621,7 @@
       </c>
       <c r="F922" t="inlineStr">
         <is>
-          <t>Slunj-kupalište Rastoke - Korana</t>
+          <t>Slunj - Korana</t>
         </is>
       </c>
       <c r="G922" t="n">
@@ -33657,7 +33657,7 @@
       </c>
       <c r="F923" t="inlineStr">
         <is>
-          <t>Slunj-kupalište Rastoke - Korana</t>
+          <t>Slunj - Korana</t>
         </is>
       </c>
       <c r="G923" t="n">
@@ -33693,7 +33693,7 @@
       </c>
       <c r="F924" t="inlineStr">
         <is>
-          <t>Slunj-kupalište Rastoke - Korana</t>
+          <t>Slunj - Korana</t>
         </is>
       </c>
       <c r="G924" t="n">
@@ -33729,7 +33729,7 @@
       </c>
       <c r="F925" t="inlineStr">
         <is>
-          <t>Slunj-kupalište Rastoke - Korana</t>
+          <t>Slunj - Korana</t>
         </is>
       </c>
       <c r="G925" t="n">
@@ -33765,7 +33765,7 @@
       </c>
       <c r="F926" t="inlineStr">
         <is>
-          <t>Slunj-kupalište Rastoke - Korana</t>
+          <t>Slunj - Korana</t>
         </is>
       </c>
       <c r="G926" t="n">
@@ -33801,7 +33801,7 @@
       </c>
       <c r="F927" t="inlineStr">
         <is>
-          <t>Slunj-kupalište Rastoke - Korana</t>
+          <t>Slunj - Korana</t>
         </is>
       </c>
       <c r="G927" t="n">
@@ -33837,7 +33837,7 @@
       </c>
       <c r="F928" t="inlineStr">
         <is>
-          <t>Slunj-kupalište Rastoke - Korana</t>
+          <t>Slunj - Korana</t>
         </is>
       </c>
       <c r="G928" t="n">
@@ -33873,7 +33873,7 @@
       </c>
       <c r="F929" t="inlineStr">
         <is>
-          <t>Slunj-kupalište Rastoke - Korana</t>
+          <t>Slunj - Korana</t>
         </is>
       </c>
       <c r="G929" t="n">
@@ -33909,7 +33909,7 @@
       </c>
       <c r="F930" t="inlineStr">
         <is>
-          <t>Slunj-kupalište Rastoke - Korana</t>
+          <t>Slunj - Korana</t>
         </is>
       </c>
       <c r="G930" t="n">
@@ -33945,7 +33945,7 @@
       </c>
       <c r="F931" t="inlineStr">
         <is>
-          <t>Slunj-kupalište Rastoke - Korana</t>
+          <t>Slunj - Korana</t>
         </is>
       </c>
       <c r="G931" t="n">
@@ -33981,7 +33981,7 @@
       </c>
       <c r="F932" t="inlineStr">
         <is>
-          <t>Slunj-kupalište Rastoke - Korana</t>
+          <t>Slunj - Korana</t>
         </is>
       </c>
       <c r="G932" t="n">
@@ -34017,7 +34017,7 @@
       </c>
       <c r="F933" t="inlineStr">
         <is>
-          <t>Slunj-kupalište Rastoke - Korana</t>
+          <t>Slunj - Korana</t>
         </is>
       </c>
       <c r="G933" t="n">
@@ -34053,7 +34053,7 @@
       </c>
       <c r="F934" t="inlineStr">
         <is>
-          <t>Slunj-kupalište Rastoke - Korana</t>
+          <t>Slunj - Korana</t>
         </is>
       </c>
       <c r="G934" t="n">
@@ -34089,7 +34089,7 @@
       </c>
       <c r="F935" t="inlineStr">
         <is>
-          <t>Slunj-kupalište Rastoke - Korana</t>
+          <t>Slunj - Korana</t>
         </is>
       </c>
       <c r="G935" t="n">
@@ -34125,7 +34125,7 @@
       </c>
       <c r="F936" t="inlineStr">
         <is>
-          <t>Slunj-kupalište Rastoke - Korana</t>
+          <t>Slunj - Korana</t>
         </is>
       </c>
       <c r="G936" t="n">
@@ -34161,7 +34161,7 @@
       </c>
       <c r="F937" t="inlineStr">
         <is>
-          <t>Slunj-kupalište Rastoke - Korana</t>
+          <t>Slunj - Korana</t>
         </is>
       </c>
       <c r="G937" t="n">
@@ -34197,7 +34197,7 @@
       </c>
       <c r="F938" t="inlineStr">
         <is>
-          <t>Slunj-kupalište Rastoke - Korana</t>
+          <t>Slunj - Korana</t>
         </is>
       </c>
       <c r="G938" t="n">
@@ -34233,7 +34233,7 @@
       </c>
       <c r="F939" t="inlineStr">
         <is>
-          <t>Slunj-kupalište Rastoke - Korana</t>
+          <t>Slunj - Korana</t>
         </is>
       </c>
       <c r="G939" t="n">
@@ -34269,7 +34269,7 @@
       </c>
       <c r="F940" t="inlineStr">
         <is>
-          <t>Slunj-kupalište Rastoke - Korana</t>
+          <t>Slunj - Korana</t>
         </is>
       </c>
       <c r="G940" t="n">
@@ -34305,7 +34305,7 @@
       </c>
       <c r="F941" t="inlineStr">
         <is>
-          <t>Slunj-kupalište Rastoke - Korana</t>
+          <t>Slunj - Korana</t>
         </is>
       </c>
       <c r="G941" t="n">
@@ -34341,7 +34341,7 @@
       </c>
       <c r="F942" t="inlineStr">
         <is>
-          <t>Slunj-kupalište Rastoke - Korana</t>
+          <t>Slunj - Korana</t>
         </is>
       </c>
       <c r="G942" t="n">
@@ -34377,7 +34377,7 @@
       </c>
       <c r="F943" t="inlineStr">
         <is>
-          <t>Slunj-kupalište Rastoke - Korana</t>
+          <t>Slunj - Korana</t>
         </is>
       </c>
       <c r="G943" t="n">
@@ -34413,7 +34413,7 @@
       </c>
       <c r="F944" t="inlineStr">
         <is>
-          <t>Slunj-kupalište Rastoke - Korana</t>
+          <t>Slunj - Korana</t>
         </is>
       </c>
       <c r="G944" t="n">
@@ -34449,7 +34449,7 @@
       </c>
       <c r="F945" t="inlineStr">
         <is>
-          <t>Slunj-kupalište Rastoke - Korana</t>
+          <t>Slunj - Korana</t>
         </is>
       </c>
       <c r="G945" t="n">
@@ -34485,7 +34485,7 @@
       </c>
       <c r="F946" t="inlineStr">
         <is>
-          <t>Slunj-kupalište Rastoke - Korana</t>
+          <t>Slunj - Korana</t>
         </is>
       </c>
       <c r="G946" t="n">
@@ -34521,7 +34521,7 @@
       </c>
       <c r="F947" t="inlineStr">
         <is>
-          <t>Karlovac-Foginovo kupalište - Korana</t>
+          <t>Karlovac - Korana</t>
         </is>
       </c>
       <c r="G947" t="n">
@@ -34557,7 +34557,7 @@
       </c>
       <c r="F948" t="inlineStr">
         <is>
-          <t>Karlovac-Foginovo kupalište - Korana</t>
+          <t>Karlovac - Korana</t>
         </is>
       </c>
       <c r="G948" t="n">
@@ -34593,7 +34593,7 @@
       </c>
       <c r="F949" t="inlineStr">
         <is>
-          <t>Karlovac-Foginovo kupalište - Korana</t>
+          <t>Karlovac - Korana</t>
         </is>
       </c>
       <c r="G949" t="n">
@@ -34629,7 +34629,7 @@
       </c>
       <c r="F950" t="inlineStr">
         <is>
-          <t>Karlovac-Foginovo kupalište - Korana</t>
+          <t>Karlovac - Korana</t>
         </is>
       </c>
       <c r="G950" t="n">
@@ -34665,7 +34665,7 @@
       </c>
       <c r="F951" t="inlineStr">
         <is>
-          <t>Karlovac-Foginovo kupalište - Korana</t>
+          <t>Karlovac - Korana</t>
         </is>
       </c>
       <c r="G951" t="n">
@@ -34701,7 +34701,7 @@
       </c>
       <c r="F952" t="inlineStr">
         <is>
-          <t>Karlovac-Foginovo kupalište - Korana</t>
+          <t>Karlovac - Korana</t>
         </is>
       </c>
       <c r="G952" t="n">
@@ -34737,7 +34737,7 @@
       </c>
       <c r="F953" t="inlineStr">
         <is>
-          <t>Karlovac-Foginovo kupalište - Korana</t>
+          <t>Karlovac - Korana</t>
         </is>
       </c>
       <c r="G953" t="n">
@@ -34773,7 +34773,7 @@
       </c>
       <c r="F954" t="inlineStr">
         <is>
-          <t>Karlovac-Foginovo kupalište - Korana</t>
+          <t>Karlovac - Korana</t>
         </is>
       </c>
       <c r="G954" t="n">
@@ -34809,7 +34809,7 @@
       </c>
       <c r="F955" t="inlineStr">
         <is>
-          <t>Karlovac-Foginovo kupalište - Korana</t>
+          <t>Karlovac - Korana</t>
         </is>
       </c>
       <c r="G955" t="n">
@@ -34845,7 +34845,7 @@
       </c>
       <c r="F956" t="inlineStr">
         <is>
-          <t>Karlovac-Foginovo kupalište - Korana</t>
+          <t>Karlovac - Korana</t>
         </is>
       </c>
       <c r="G956" t="n">
@@ -34881,7 +34881,7 @@
       </c>
       <c r="F957" t="inlineStr">
         <is>
-          <t>Karlovac-Foginovo kupalište - Korana</t>
+          <t>Karlovac - Korana</t>
         </is>
       </c>
       <c r="G957" t="n">
@@ -34917,7 +34917,7 @@
       </c>
       <c r="F958" t="inlineStr">
         <is>
-          <t>Karlovac-Foginovo kupalište - Korana</t>
+          <t>Karlovac - Korana</t>
         </is>
       </c>
       <c r="G958" t="n">
@@ -34953,7 +34953,7 @@
       </c>
       <c r="F959" t="inlineStr">
         <is>
-          <t>Karlovac-Foginovo kupalište - Korana</t>
+          <t>Karlovac - Korana</t>
         </is>
       </c>
       <c r="G959" t="n">
@@ -34989,7 +34989,7 @@
       </c>
       <c r="F960" t="inlineStr">
         <is>
-          <t>Karlovac-Foginovo kupalište - Korana</t>
+          <t>Karlovac - Korana</t>
         </is>
       </c>
       <c r="G960" t="n">
@@ -35025,7 +35025,7 @@
       </c>
       <c r="F961" t="inlineStr">
         <is>
-          <t>Karlovac-Foginovo kupalište - Korana</t>
+          <t>Karlovac - Korana</t>
         </is>
       </c>
       <c r="G961" t="n">
@@ -35061,7 +35061,7 @@
       </c>
       <c r="F962" t="inlineStr">
         <is>
-          <t>Karlovac-Foginovo kupalište - Korana</t>
+          <t>Karlovac - Korana</t>
         </is>
       </c>
       <c r="G962" t="n">
@@ -35097,7 +35097,7 @@
       </c>
       <c r="F963" t="inlineStr">
         <is>
-          <t>Karlovac-Foginovo kupalište - Korana</t>
+          <t>Karlovac - Korana</t>
         </is>
       </c>
       <c r="G963" t="n">
@@ -35133,7 +35133,7 @@
       </c>
       <c r="F964" t="inlineStr">
         <is>
-          <t>Karlovac-Foginovo kupalište - Korana</t>
+          <t>Karlovac - Korana</t>
         </is>
       </c>
       <c r="G964" t="n">
@@ -35169,7 +35169,7 @@
       </c>
       <c r="F965" t="inlineStr">
         <is>
-          <t>Karlovac-Foginovo kupalište - Korana</t>
+          <t>Karlovac - Korana</t>
         </is>
       </c>
       <c r="G965" t="n">
@@ -35205,7 +35205,7 @@
       </c>
       <c r="F966" t="inlineStr">
         <is>
-          <t>Karlovac-Foginovo kupalište - Korana</t>
+          <t>Karlovac - Korana</t>
         </is>
       </c>
       <c r="G966" t="n">
@@ -35241,7 +35241,7 @@
       </c>
       <c r="F967" t="inlineStr">
         <is>
-          <t>Karlovac-Foginovo kupalište - Korana</t>
+          <t>Karlovac - Korana</t>
         </is>
       </c>
       <c r="G967" t="n">
@@ -35277,7 +35277,7 @@
       </c>
       <c r="F968" t="inlineStr">
         <is>
-          <t>Karlovac-Foginovo kupalište - Korana</t>
+          <t>Karlovac - Korana</t>
         </is>
       </c>
       <c r="G968" t="n">
@@ -35313,7 +35313,7 @@
       </c>
       <c r="F969" t="inlineStr">
         <is>
-          <t>Karlovac-Foginovo kupalište - Korana</t>
+          <t>Karlovac - Korana</t>
         </is>
       </c>
       <c r="G969" t="n">
@@ -35349,7 +35349,7 @@
       </c>
       <c r="F970" t="inlineStr">
         <is>
-          <t>Karlovac-Foginovo kupalište - Korana</t>
+          <t>Karlovac - Korana</t>
         </is>
       </c>
       <c r="G970" t="n">
@@ -35385,7 +35385,7 @@
       </c>
       <c r="F971" t="inlineStr">
         <is>
-          <t>Karlovac-Foginovo kupalište - Korana</t>
+          <t>Karlovac - Korana</t>
         </is>
       </c>
       <c r="G971" t="n">
@@ -35421,7 +35421,7 @@
       </c>
       <c r="F972" t="inlineStr">
         <is>
-          <t>Karlovac-Foginovo kupalište - Korana</t>
+          <t>Karlovac - Korana</t>
         </is>
       </c>
       <c r="G972" t="n">
@@ -35457,7 +35457,7 @@
       </c>
       <c r="F973" t="inlineStr">
         <is>
-          <t>Karlovac-Foginovo kupalište - Korana</t>
+          <t>Karlovac - Korana</t>
         </is>
       </c>
       <c r="G973" t="n">
@@ -35493,7 +35493,7 @@
       </c>
       <c r="F974" t="inlineStr">
         <is>
-          <t>Karlovac-Foginovo kupalište - Korana</t>
+          <t>Karlovac - Korana</t>
         </is>
       </c>
       <c r="G974" t="n">
@@ -35529,7 +35529,7 @@
       </c>
       <c r="F975" t="inlineStr">
         <is>
-          <t>Karlovac-Foginovo kupalište - Korana</t>
+          <t>Karlovac - Korana</t>
         </is>
       </c>
       <c r="G975" t="n">
@@ -35565,7 +35565,7 @@
       </c>
       <c r="F976" t="inlineStr">
         <is>
-          <t>Karlovac-Foginovo kupalište - Korana</t>
+          <t>Karlovac - Korana</t>
         </is>
       </c>
       <c r="G976" t="n">
@@ -35601,7 +35601,7 @@
       </c>
       <c r="F977" t="inlineStr">
         <is>
-          <t>Karlovac-Foginovo kupalište - Korana</t>
+          <t>Karlovac - Korana</t>
         </is>
       </c>
       <c r="G977" t="n">
@@ -35637,7 +35637,7 @@
       </c>
       <c r="F978" t="inlineStr">
         <is>
-          <t>Karlovac-Foginovo kupalište - Korana</t>
+          <t>Karlovac - Korana</t>
         </is>
       </c>
       <c r="G978" t="n">
@@ -35673,7 +35673,7 @@
       </c>
       <c r="F979" t="inlineStr">
         <is>
-          <t>Karlovac-Foginovo kupalište - Korana</t>
+          <t>Karlovac - Korana</t>
         </is>
       </c>
       <c r="G979" t="n">
@@ -35709,7 +35709,7 @@
       </c>
       <c r="F980" t="inlineStr">
         <is>
-          <t>Karlovac-Foginovo kupalište - Korana</t>
+          <t>Karlovac - Korana</t>
         </is>
       </c>
       <c r="G980" t="n">
@@ -35745,7 +35745,7 @@
       </c>
       <c r="F981" t="inlineStr">
         <is>
-          <t>Karlovac-Foginovo kupalište - Korana</t>
+          <t>Karlovac - Korana</t>
         </is>
       </c>
       <c r="G981" t="n">
@@ -35803,117 +35803,117 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Belavići-kamp Slapić - Mrežnica</t>
+          <t>Brod na Kupi - Kupica</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Duga Resa-gradsko kupalište - Mrežnica</t>
+          <t>Doljani - Neretva</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Iševnica- Gorski kotar - Kupica</t>
+          <t>Duga Resa - Mrežnica</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jurovo - Jurovski Brod (utok Lahinje - lijevi pritok) - Kupa </t>
+          <t xml:space="preserve">HE - Kupa </t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Karlovac-Foginovo kupalište - Korana</t>
+          <t xml:space="preserve">Jurovo - Kupa </t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Kuželj-Gorski kotar - Kupa</t>
+          <t>Karlovac - Korana</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Metković-Doljani - Neretva</t>
+          <t>Karlovac - Kupa</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Metković-Unka - Neretva</t>
+          <t>Kuželj - Kupa</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Metković-most - Neretva</t>
+          <t>Mijači - Orljava</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Mijači - Orljava</t>
+          <t>Ozalj - Kupa</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ozalj - Kupa </t>
+          <t>Petrinja - Kupa</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Ozalj-gradsko kupalište - Kupa</t>
+          <t>Prošćansko - Plitvice</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Petrinja (kupalište) - Kupa</t>
+          <t>Severin - Kupa</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Prošćansko jezero - Plitvička jezera </t>
+          <t>Sisak - Kupa</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Severin na Kupi-kupalište Klanac - Kupa</t>
+          <t>Sisak - Sava</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>Sisak (Stari grad) - Kupa</t>
+          <t>Slapić - Mrežnica</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>Sisak (Stari grad) - Sava</t>
+          <t>Slunj - Korana</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>Slunj-kupalište Rastoke - Korana</t>
+          <t>Striježevica - Brzaja</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>Striježevica - Brzaja</t>
+          <t>Stubičke Toplice - Vidak</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>Stubičke Toplice - Vidak</t>
+          <t>Unka - Neretva</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>Zagreb (Savski Kamenji - toplana) - Sava</t>
+          <t>ZG županija - Kupčina</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>Zagrebačka županija - Kupčina</t>
+          <t>Zagreb - Sava</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>centar Karlovca - Kupa</t>
+          <t>most - Neretva</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
@@ -35943,73 +35943,73 @@
         <v>678</v>
       </c>
       <c r="E2" t="n">
+        <v>645</v>
+      </c>
+      <c r="F2" t="n">
+        <v>868</v>
+      </c>
+      <c r="G2" t="n">
+        <v>878</v>
+      </c>
+      <c r="H2" t="n">
+        <v>797</v>
+      </c>
+      <c r="I2" t="n">
+        <v>735</v>
+      </c>
+      <c r="J2" t="n">
+        <v>821</v>
+      </c>
+      <c r="K2" t="n">
+        <v>887</v>
+      </c>
+      <c r="L2" t="n">
+        <v>655</v>
+      </c>
+      <c r="M2" t="n">
+        <v>599</v>
+      </c>
+      <c r="N2" t="n">
+        <v>709</v>
+      </c>
+      <c r="O2" t="n">
+        <v>927</v>
+      </c>
+      <c r="P2" t="n">
+        <v>870</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>733</v>
+      </c>
+      <c r="R2" t="n">
+        <v>876</v>
+      </c>
+      <c r="S2" t="n">
+        <v>801</v>
+      </c>
+      <c r="T2" t="n">
         <v>694</v>
       </c>
-      <c r="F2" t="n">
-        <v>878</v>
-      </c>
-      <c r="G2" t="n">
-        <v>645</v>
-      </c>
-      <c r="H2" t="n">
-        <v>735</v>
-      </c>
-      <c r="I2" t="n">
-        <v>821</v>
-      </c>
-      <c r="J2" t="n">
-        <v>655</v>
-      </c>
-      <c r="K2" t="n">
-        <v>868</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="U2" t="n">
+        <v>716</v>
+      </c>
+      <c r="V2" t="n">
+        <v>666</v>
+      </c>
+      <c r="W2" t="n">
+        <v>740</v>
+      </c>
+      <c r="X2" t="n">
         <v>750</v>
       </c>
-      <c r="M2" t="n">
+      <c r="Y2" t="n">
+        <v>725</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>954</v>
+      </c>
+      <c r="AA2" t="n">
         <v>949</v>
-      </c>
-      <c r="N2" t="n">
-        <v>599</v>
-      </c>
-      <c r="O2" t="n">
-        <v>797</v>
-      </c>
-      <c r="P2" t="n">
-        <v>709</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>927</v>
-      </c>
-      <c r="R2" t="n">
-        <v>870</v>
-      </c>
-      <c r="S2" t="n">
-        <v>733</v>
-      </c>
-      <c r="T2" t="n">
-        <v>876</v>
-      </c>
-      <c r="U2" t="n">
-        <v>801</v>
-      </c>
-      <c r="V2" t="n">
-        <v>716</v>
-      </c>
-      <c r="W2" t="n">
-        <v>666</v>
-      </c>
-      <c r="X2" t="n">
-        <v>740</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>954</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>725</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>887</v>
       </c>
       <c r="AB2" t="n">
         <v>570</v>
@@ -36034,73 +36034,73 @@
         <v>688</v>
       </c>
       <c r="E3" t="n">
+        <v>672</v>
+      </c>
+      <c r="F3" t="n">
+        <v>902</v>
+      </c>
+      <c r="G3" t="n">
+        <v>917</v>
+      </c>
+      <c r="H3" t="n">
+        <v>851</v>
+      </c>
+      <c r="I3" t="n">
+        <v>794</v>
+      </c>
+      <c r="J3" t="n">
+        <v>846</v>
+      </c>
+      <c r="K3" t="n">
+        <v>936</v>
+      </c>
+      <c r="L3" t="n">
+        <v>714</v>
+      </c>
+      <c r="M3" t="n">
+        <v>637.5</v>
+      </c>
+      <c r="N3" t="n">
+        <v>763</v>
+      </c>
+      <c r="O3" t="n">
+        <v>939</v>
+      </c>
+      <c r="P3" t="n">
+        <v>901</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>808</v>
+      </c>
+      <c r="R3" t="n">
+        <v>919</v>
+      </c>
+      <c r="S3" t="n">
+        <v>814</v>
+      </c>
+      <c r="T3" t="n">
         <v>734</v>
       </c>
-      <c r="F3" t="n">
-        <v>917</v>
-      </c>
-      <c r="G3" t="n">
-        <v>672</v>
-      </c>
-      <c r="H3" t="n">
-        <v>794</v>
-      </c>
-      <c r="I3" t="n">
-        <v>846</v>
-      </c>
-      <c r="J3" t="n">
-        <v>714</v>
-      </c>
-      <c r="K3" t="n">
-        <v>902</v>
-      </c>
-      <c r="L3" t="n">
+      <c r="U3" t="n">
+        <v>756</v>
+      </c>
+      <c r="V3" t="n">
+        <v>637.5</v>
+      </c>
+      <c r="W3" t="n">
+        <v>793</v>
+      </c>
+      <c r="X3" t="n">
         <v>781</v>
       </c>
-      <c r="M3" t="n">
+      <c r="Y3" t="n">
+        <v>772</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>968</v>
+      </c>
+      <c r="AA3" t="n">
         <v>967</v>
-      </c>
-      <c r="N3" t="n">
-        <v>637.5</v>
-      </c>
-      <c r="O3" t="n">
-        <v>851</v>
-      </c>
-      <c r="P3" t="n">
-        <v>763</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>939</v>
-      </c>
-      <c r="R3" t="n">
-        <v>901</v>
-      </c>
-      <c r="S3" t="n">
-        <v>808</v>
-      </c>
-      <c r="T3" t="n">
-        <v>919</v>
-      </c>
-      <c r="U3" t="n">
-        <v>814</v>
-      </c>
-      <c r="V3" t="n">
-        <v>756</v>
-      </c>
-      <c r="W3" t="n">
-        <v>637.5</v>
-      </c>
-      <c r="X3" t="n">
-        <v>793</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>968</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>772</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>936</v>
       </c>
       <c r="AB3" t="n">
         <v>617</v>
@@ -36125,73 +36125,73 @@
         <v>903</v>
       </c>
       <c r="E4" t="n">
+        <v>937</v>
+      </c>
+      <c r="F4" t="n">
+        <v>964</v>
+      </c>
+      <c r="G4" t="n">
+        <v>972</v>
+      </c>
+      <c r="H4" t="n">
+        <v>966</v>
+      </c>
+      <c r="I4" t="n">
+        <v>946</v>
+      </c>
+      <c r="J4" t="n">
+        <v>894</v>
+      </c>
+      <c r="K4" t="n">
+        <v>974</v>
+      </c>
+      <c r="L4" t="n">
+        <v>867</v>
+      </c>
+      <c r="M4" t="n">
+        <v>744</v>
+      </c>
+      <c r="N4" t="n">
+        <v>938</v>
+      </c>
+      <c r="O4" t="n">
+        <v>953</v>
+      </c>
+      <c r="P4" t="n">
+        <v>948</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>940</v>
+      </c>
+      <c r="R4" t="n">
+        <v>980</v>
+      </c>
+      <c r="S4" t="n">
+        <v>962</v>
+      </c>
+      <c r="T4" t="n">
         <v>935</v>
       </c>
-      <c r="F4" t="n">
-        <v>972</v>
-      </c>
-      <c r="G4" t="n">
-        <v>937</v>
-      </c>
-      <c r="H4" t="n">
-        <v>946</v>
-      </c>
-      <c r="I4" t="n">
-        <v>894</v>
-      </c>
-      <c r="J4" t="n">
-        <v>867</v>
-      </c>
-      <c r="K4" t="n">
-        <v>964</v>
-      </c>
-      <c r="L4" t="n">
+      <c r="U4" t="n">
+        <v>896</v>
+      </c>
+      <c r="V4" t="n">
+        <v>684</v>
+      </c>
+      <c r="W4" t="n">
+        <v>910</v>
+      </c>
+      <c r="X4" t="n">
         <v>831</v>
       </c>
-      <c r="M4" t="n">
+      <c r="Y4" t="n">
+        <v>809</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>977</v>
+      </c>
+      <c r="AA4" t="n">
         <v>979</v>
-      </c>
-      <c r="N4" t="n">
-        <v>744</v>
-      </c>
-      <c r="O4" t="n">
-        <v>966</v>
-      </c>
-      <c r="P4" t="n">
-        <v>938</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>953</v>
-      </c>
-      <c r="R4" t="n">
-        <v>948</v>
-      </c>
-      <c r="S4" t="n">
-        <v>940</v>
-      </c>
-      <c r="T4" t="n">
-        <v>980</v>
-      </c>
-      <c r="U4" t="n">
-        <v>962</v>
-      </c>
-      <c r="V4" t="n">
-        <v>896</v>
-      </c>
-      <c r="W4" t="n">
-        <v>684</v>
-      </c>
-      <c r="X4" t="n">
-        <v>910</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>977</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>809</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>974</v>
       </c>
       <c r="AB4" t="n">
         <v>710</v>
@@ -36216,73 +36216,73 @@
         <v>780</v>
       </c>
       <c r="E5" t="n">
+        <v>844</v>
+      </c>
+      <c r="F5" t="n">
+        <v>904</v>
+      </c>
+      <c r="G5" t="n">
+        <v>916</v>
+      </c>
+      <c r="H5" t="n">
+        <v>890</v>
+      </c>
+      <c r="I5" t="n">
+        <v>842</v>
+      </c>
+      <c r="J5" t="n">
+        <v>832</v>
+      </c>
+      <c r="K5" t="n">
+        <v>884</v>
+      </c>
+      <c r="L5" t="n">
+        <v>767</v>
+      </c>
+      <c r="M5" t="n">
+        <v>689</v>
+      </c>
+      <c r="N5" t="n">
+        <v>798</v>
+      </c>
+      <c r="O5" t="n">
+        <v>909</v>
+      </c>
+      <c r="P5" t="n">
+        <v>933</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>837</v>
+      </c>
+      <c r="R5" t="n">
+        <v>908</v>
+      </c>
+      <c r="S5" t="n">
+        <v>841</v>
+      </c>
+      <c r="T5" t="n">
         <v>783</v>
       </c>
-      <c r="F5" t="n">
-        <v>916</v>
-      </c>
-      <c r="G5" t="n">
-        <v>844</v>
-      </c>
-      <c r="H5" t="n">
-        <v>842</v>
-      </c>
-      <c r="I5" t="n">
-        <v>832</v>
-      </c>
-      <c r="J5" t="n">
-        <v>767</v>
-      </c>
-      <c r="K5" t="n">
-        <v>904</v>
-      </c>
-      <c r="L5" t="n">
+      <c r="U5" t="n">
+        <v>813</v>
+      </c>
+      <c r="V5" t="n">
+        <v>660</v>
+      </c>
+      <c r="W5" t="n">
+        <v>848</v>
+      </c>
+      <c r="X5" t="n">
         <v>789</v>
       </c>
-      <c r="M5" t="n">
+      <c r="Y5" t="n">
+        <v>771</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>957</v>
+      </c>
+      <c r="AA5" t="n">
         <v>955</v>
-      </c>
-      <c r="N5" t="n">
-        <v>689</v>
-      </c>
-      <c r="O5" t="n">
-        <v>890</v>
-      </c>
-      <c r="P5" t="n">
-        <v>798</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>909</v>
-      </c>
-      <c r="R5" t="n">
-        <v>933</v>
-      </c>
-      <c r="S5" t="n">
-        <v>837</v>
-      </c>
-      <c r="T5" t="n">
-        <v>908</v>
-      </c>
-      <c r="U5" t="n">
-        <v>841</v>
-      </c>
-      <c r="V5" t="n">
-        <v>813</v>
-      </c>
-      <c r="W5" t="n">
-        <v>660</v>
-      </c>
-      <c r="X5" t="n">
-        <v>848</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>957</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>771</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>884</v>
       </c>
       <c r="AB5" t="n">
         <v>634</v>
@@ -36307,73 +36307,73 @@
         <v>741.5</v>
       </c>
       <c r="E6" t="n">
+        <v>670</v>
+      </c>
+      <c r="F6" t="n">
+        <v>879</v>
+      </c>
+      <c r="G6" t="n">
+        <v>886</v>
+      </c>
+      <c r="H6" t="n">
+        <v>755</v>
+      </c>
+      <c r="I6" t="n">
+        <v>741.5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>807</v>
+      </c>
+      <c r="K6" t="n">
+        <v>895</v>
+      </c>
+      <c r="L6" t="n">
+        <v>727</v>
+      </c>
+      <c r="M6" t="n">
+        <v>597</v>
+      </c>
+      <c r="N6" t="n">
+        <v>747</v>
+      </c>
+      <c r="O6" t="n">
+        <v>892</v>
+      </c>
+      <c r="P6" t="n">
+        <v>888</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>785</v>
+      </c>
+      <c r="R6" t="n">
+        <v>885</v>
+      </c>
+      <c r="S6" t="n">
+        <v>834</v>
+      </c>
+      <c r="T6" t="n">
         <v>726</v>
       </c>
-      <c r="F6" t="n">
-        <v>886</v>
-      </c>
-      <c r="G6" t="n">
-        <v>670</v>
-      </c>
-      <c r="H6" t="n">
-        <v>741.5</v>
-      </c>
-      <c r="I6" t="n">
-        <v>807</v>
-      </c>
-      <c r="J6" t="n">
-        <v>727</v>
-      </c>
-      <c r="K6" t="n">
-        <v>879</v>
-      </c>
-      <c r="L6" t="n">
+      <c r="U6" t="n">
+        <v>720</v>
+      </c>
+      <c r="V6" t="n">
+        <v>632</v>
+      </c>
+      <c r="W6" t="n">
+        <v>823</v>
+      </c>
+      <c r="X6" t="n">
         <v>759</v>
       </c>
-      <c r="M6" t="n">
+      <c r="Y6" t="n">
+        <v>730</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>941</v>
+      </c>
+      <c r="AA6" t="n">
         <v>950</v>
-      </c>
-      <c r="N6" t="n">
-        <v>597</v>
-      </c>
-      <c r="O6" t="n">
-        <v>755</v>
-      </c>
-      <c r="P6" t="n">
-        <v>747</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>892</v>
-      </c>
-      <c r="R6" t="n">
-        <v>888</v>
-      </c>
-      <c r="S6" t="n">
-        <v>785</v>
-      </c>
-      <c r="T6" t="n">
-        <v>885</v>
-      </c>
-      <c r="U6" t="n">
-        <v>834</v>
-      </c>
-      <c r="V6" t="n">
-        <v>720</v>
-      </c>
-      <c r="W6" t="n">
-        <v>632</v>
-      </c>
-      <c r="X6" t="n">
-        <v>823</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>941</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>730</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>895</v>
       </c>
       <c r="AB6" t="n">
         <v>673</v>
@@ -36398,73 +36398,73 @@
         <v>687</v>
       </c>
       <c r="E7" t="n">
+        <v>699</v>
+      </c>
+      <c r="F7" t="n">
+        <v>839</v>
+      </c>
+      <c r="G7" t="n">
+        <v>850</v>
+      </c>
+      <c r="H7" t="n">
+        <v>796</v>
+      </c>
+      <c r="I7" t="n">
+        <v>711</v>
+      </c>
+      <c r="J7" t="n">
+        <v>784</v>
+      </c>
+      <c r="K7" t="n">
+        <v>881</v>
+      </c>
+      <c r="L7" t="n">
+        <v>663</v>
+      </c>
+      <c r="M7" t="n">
+        <v>616</v>
+      </c>
+      <c r="N7" t="n">
+        <v>708</v>
+      </c>
+      <c r="O7" t="n">
+        <v>877</v>
+      </c>
+      <c r="P7" t="n">
+        <v>845</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>745</v>
+      </c>
+      <c r="R7" t="n">
+        <v>853</v>
+      </c>
+      <c r="S7" t="n">
+        <v>777</v>
+      </c>
+      <c r="T7" t="n">
         <v>697</v>
       </c>
-      <c r="F7" t="n">
-        <v>850</v>
-      </c>
-      <c r="G7" t="n">
-        <v>699</v>
-      </c>
-      <c r="H7" t="n">
-        <v>711</v>
-      </c>
-      <c r="I7" t="n">
-        <v>784</v>
-      </c>
-      <c r="J7" t="n">
-        <v>663</v>
-      </c>
-      <c r="K7" t="n">
-        <v>839</v>
-      </c>
-      <c r="L7" t="n">
+      <c r="U7" t="n">
+        <v>675</v>
+      </c>
+      <c r="V7" t="n">
+        <v>557</v>
+      </c>
+      <c r="W7" t="n">
+        <v>787</v>
+      </c>
+      <c r="X7" t="n">
         <v>719</v>
       </c>
-      <c r="M7" t="n">
+      <c r="Y7" t="n">
+        <v>703</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>942</v>
+      </c>
+      <c r="AA7" t="n">
         <v>931</v>
-      </c>
-      <c r="N7" t="n">
-        <v>616</v>
-      </c>
-      <c r="O7" t="n">
-        <v>796</v>
-      </c>
-      <c r="P7" t="n">
-        <v>708</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>877</v>
-      </c>
-      <c r="R7" t="n">
-        <v>845</v>
-      </c>
-      <c r="S7" t="n">
-        <v>745</v>
-      </c>
-      <c r="T7" t="n">
-        <v>853</v>
-      </c>
-      <c r="U7" t="n">
-        <v>777</v>
-      </c>
-      <c r="V7" t="n">
-        <v>675</v>
-      </c>
-      <c r="W7" t="n">
-        <v>557</v>
-      </c>
-      <c r="X7" t="n">
-        <v>787</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>942</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>703</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>881</v>
       </c>
       <c r="AB7" t="n">
         <v>531</v>
@@ -36489,58 +36489,58 @@
         <v>132</v>
       </c>
       <c r="E8" t="n">
-        <v>478</v>
+        <v>132</v>
       </c>
       <c r="F8" t="n">
+        <v>132</v>
+      </c>
+      <c r="G8" t="n">
         <v>473</v>
       </c>
-      <c r="G8" t="n">
-        <v>132</v>
-      </c>
       <c r="H8" t="n">
+        <v>587</v>
+      </c>
+      <c r="I8" t="n">
         <v>516.5</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>559</v>
       </c>
-      <c r="J8" t="n">
-        <v>132</v>
-      </c>
       <c r="K8" t="n">
-        <v>132</v>
+        <v>607.5</v>
       </c>
       <c r="L8" t="n">
         <v>132</v>
       </c>
       <c r="M8" t="n">
-        <v>636</v>
+        <v>132</v>
       </c>
       <c r="N8" t="n">
+        <v>478</v>
+      </c>
+      <c r="O8" t="n">
         <v>132</v>
       </c>
-      <c r="O8" t="n">
-        <v>587</v>
-      </c>
       <c r="P8" t="n">
+        <v>132</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>516.5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>574</v>
+      </c>
+      <c r="S8" t="n">
+        <v>607.5</v>
+      </c>
+      <c r="T8" t="n">
         <v>478</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="U8" t="n">
+        <v>478</v>
+      </c>
+      <c r="V8" t="n">
         <v>132</v>
-      </c>
-      <c r="R8" t="n">
-        <v>132</v>
-      </c>
-      <c r="S8" t="n">
-        <v>516.5</v>
-      </c>
-      <c r="T8" t="n">
-        <v>574</v>
-      </c>
-      <c r="U8" t="n">
-        <v>607.5</v>
-      </c>
-      <c r="V8" t="n">
-        <v>478</v>
       </c>
       <c r="W8" t="n">
         <v>132</v>
@@ -36549,13 +36549,13 @@
         <v>132</v>
       </c>
       <c r="Y8" t="n">
+        <v>132</v>
+      </c>
+      <c r="Z8" t="n">
         <v>623</v>
       </c>
-      <c r="Z8" t="n">
-        <v>132</v>
-      </c>
       <c r="AA8" t="n">
-        <v>607.5</v>
+        <v>636</v>
       </c>
       <c r="AB8" t="n">
         <v>132</v>
@@ -36580,73 +36580,73 @@
         <v>652</v>
       </c>
       <c r="E9" t="n">
+        <v>603</v>
+      </c>
+      <c r="F9" t="n">
+        <v>545.5</v>
+      </c>
+      <c r="G9" t="n">
+        <v>534</v>
+      </c>
+      <c r="H9" t="n">
+        <v>717</v>
+      </c>
+      <c r="I9" t="n">
+        <v>630</v>
+      </c>
+      <c r="J9" t="n">
+        <v>545.5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>568.5</v>
+      </c>
+      <c r="L9" t="n">
+        <v>510</v>
+      </c>
+      <c r="M9" t="n">
         <v>268.5</v>
       </c>
-      <c r="F9" t="n">
-        <v>534</v>
-      </c>
-      <c r="G9" t="n">
-        <v>603</v>
-      </c>
-      <c r="H9" t="n">
-        <v>630</v>
-      </c>
-      <c r="I9" t="n">
-        <v>545.5</v>
-      </c>
-      <c r="J9" t="n">
-        <v>510</v>
-      </c>
-      <c r="K9" t="n">
-        <v>545.5</v>
-      </c>
-      <c r="L9" t="n">
-        <v>520</v>
-      </c>
-      <c r="M9" t="n">
-        <v>693</v>
-      </c>
       <c r="N9" t="n">
+        <v>591</v>
+      </c>
+      <c r="O9" t="n">
         <v>268.5</v>
       </c>
-      <c r="O9" t="n">
-        <v>717</v>
-      </c>
       <c r="P9" t="n">
-        <v>591</v>
+        <v>268.5</v>
       </c>
       <c r="Q9" t="n">
+        <v>568.5</v>
+      </c>
+      <c r="R9" t="n">
+        <v>633</v>
+      </c>
+      <c r="S9" t="n">
+        <v>562.5</v>
+      </c>
+      <c r="T9" t="n">
         <v>268.5</v>
-      </c>
-      <c r="R9" t="n">
-        <v>268.5</v>
-      </c>
-      <c r="S9" t="n">
-        <v>568.5</v>
-      </c>
-      <c r="T9" t="n">
-        <v>633</v>
       </c>
       <c r="U9" t="n">
         <v>562.5</v>
       </c>
       <c r="V9" t="n">
-        <v>562.5</v>
+        <v>268.5</v>
       </c>
       <c r="W9" t="n">
+        <v>471</v>
+      </c>
+      <c r="X9" t="n">
+        <v>520</v>
+      </c>
+      <c r="Y9" t="n">
         <v>268.5</v>
       </c>
-      <c r="X9" t="n">
-        <v>471</v>
-      </c>
-      <c r="Y9" t="n">
+      <c r="Z9" t="n">
         <v>614.5</v>
       </c>
-      <c r="Z9" t="n">
-        <v>268.5</v>
-      </c>
       <c r="AA9" t="n">
-        <v>568.5</v>
+        <v>693</v>
       </c>
       <c r="AB9" t="n">
         <v>268.5</v>
@@ -36680,10 +36680,10 @@
         <v>235</v>
       </c>
       <c r="H10" t="n">
+        <v>648</v>
+      </c>
+      <c r="I10" t="n">
         <v>679</v>
-      </c>
-      <c r="I10" t="n">
-        <v>235</v>
       </c>
       <c r="J10" t="n">
         <v>235</v>
@@ -36695,49 +36695,49 @@
         <v>235</v>
       </c>
       <c r="M10" t="n">
-        <v>651</v>
+        <v>235</v>
       </c>
       <c r="N10" t="n">
         <v>235</v>
       </c>
       <c r="O10" t="n">
-        <v>648</v>
+        <v>235</v>
       </c>
       <c r="P10" t="n">
-        <v>235</v>
+        <v>685</v>
       </c>
       <c r="Q10" t="n">
         <v>235</v>
       </c>
       <c r="R10" t="n">
-        <v>685</v>
+        <v>754</v>
       </c>
       <c r="S10" t="n">
+        <v>585</v>
+      </c>
+      <c r="T10" t="n">
         <v>235</v>
       </c>
-      <c r="T10" t="n">
-        <v>754</v>
-      </c>
       <c r="U10" t="n">
-        <v>585</v>
+        <v>235</v>
       </c>
       <c r="V10" t="n">
+        <v>469</v>
+      </c>
+      <c r="W10" t="n">
         <v>235</v>
-      </c>
-      <c r="W10" t="n">
-        <v>469</v>
       </c>
       <c r="X10" t="n">
         <v>235</v>
       </c>
       <c r="Y10" t="n">
+        <v>235</v>
+      </c>
+      <c r="Z10" t="n">
         <v>751</v>
       </c>
-      <c r="Z10" t="n">
-        <v>235</v>
-      </c>
       <c r="AA10" t="n">
-        <v>235</v>
+        <v>651</v>
       </c>
       <c r="AB10" t="n">
         <v>235</v>
@@ -36762,73 +36762,73 @@
         <v>702</v>
       </c>
       <c r="E11" t="n">
+        <v>739</v>
+      </c>
+      <c r="F11" t="n">
+        <v>721</v>
+      </c>
+      <c r="G11" t="n">
+        <v>749</v>
+      </c>
+      <c r="H11" t="n">
+        <v>723</v>
+      </c>
+      <c r="I11" t="n">
+        <v>691</v>
+      </c>
+      <c r="J11" t="n">
+        <v>696</v>
+      </c>
+      <c r="K11" t="n">
+        <v>737.5</v>
+      </c>
+      <c r="L11" t="n">
+        <v>650</v>
+      </c>
+      <c r="M11" t="n">
+        <v>544</v>
+      </c>
+      <c r="N11" t="n">
+        <v>644</v>
+      </c>
+      <c r="O11" t="n">
+        <v>799</v>
+      </c>
+      <c r="P11" t="n">
+        <v>786</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>681</v>
+      </c>
+      <c r="R11" t="n">
+        <v>713</v>
+      </c>
+      <c r="S11" t="n">
+        <v>737.5</v>
+      </c>
+      <c r="T11" t="n">
         <v>646.5</v>
       </c>
-      <c r="F11" t="n">
-        <v>749</v>
-      </c>
-      <c r="G11" t="n">
-        <v>739</v>
-      </c>
-      <c r="H11" t="n">
-        <v>691</v>
-      </c>
-      <c r="I11" t="n">
-        <v>696</v>
-      </c>
-      <c r="J11" t="n">
-        <v>650</v>
-      </c>
-      <c r="K11" t="n">
-        <v>721</v>
-      </c>
-      <c r="L11" t="n">
+      <c r="U11" t="n">
+        <v>627</v>
+      </c>
+      <c r="V11" t="n">
+        <v>522</v>
+      </c>
+      <c r="W11" t="n">
+        <v>701</v>
+      </c>
+      <c r="X11" t="n">
         <v>646.5</v>
       </c>
-      <c r="M11" t="n">
+      <c r="Y11" t="n">
+        <v>621</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>835</v>
+      </c>
+      <c r="AA11" t="n">
         <v>862</v>
-      </c>
-      <c r="N11" t="n">
-        <v>544</v>
-      </c>
-      <c r="O11" t="n">
-        <v>723</v>
-      </c>
-      <c r="P11" t="n">
-        <v>644</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>799</v>
-      </c>
-      <c r="R11" t="n">
-        <v>786</v>
-      </c>
-      <c r="S11" t="n">
-        <v>681</v>
-      </c>
-      <c r="T11" t="n">
-        <v>713</v>
-      </c>
-      <c r="U11" t="n">
-        <v>737.5</v>
-      </c>
-      <c r="V11" t="n">
-        <v>627</v>
-      </c>
-      <c r="W11" t="n">
-        <v>522</v>
-      </c>
-      <c r="X11" t="n">
-        <v>701</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>835</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>621</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>737.5</v>
       </c>
       <c r="AB11" t="n">
         <v>484</v>
@@ -36853,73 +36853,73 @@
         <v>804</v>
       </c>
       <c r="E12" t="n">
+        <v>836</v>
+      </c>
+      <c r="F12" t="n">
+        <v>922</v>
+      </c>
+      <c r="G12" t="n">
+        <v>959</v>
+      </c>
+      <c r="H12" t="n">
+        <v>914</v>
+      </c>
+      <c r="I12" t="n">
+        <v>855</v>
+      </c>
+      <c r="J12" t="n">
+        <v>906</v>
+      </c>
+      <c r="K12" t="n">
+        <v>951</v>
+      </c>
+      <c r="L12" t="n">
+        <v>812</v>
+      </c>
+      <c r="M12" t="n">
+        <v>743</v>
+      </c>
+      <c r="N12" t="n">
+        <v>827</v>
+      </c>
+      <c r="O12" t="n">
+        <v>963</v>
+      </c>
+      <c r="P12" t="n">
+        <v>932</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>860</v>
+      </c>
+      <c r="R12" t="n">
+        <v>960</v>
+      </c>
+      <c r="S12" t="n">
+        <v>897</v>
+      </c>
+      <c r="T12" t="n">
         <v>792</v>
       </c>
-      <c r="F12" t="n">
-        <v>959</v>
-      </c>
-      <c r="G12" t="n">
-        <v>836</v>
-      </c>
-      <c r="H12" t="n">
-        <v>855</v>
-      </c>
-      <c r="I12" t="n">
-        <v>906</v>
-      </c>
-      <c r="J12" t="n">
-        <v>812</v>
-      </c>
-      <c r="K12" t="n">
-        <v>922</v>
-      </c>
-      <c r="L12" t="n">
+      <c r="U12" t="n">
+        <v>810</v>
+      </c>
+      <c r="V12" t="n">
+        <v>761</v>
+      </c>
+      <c r="W12" t="n">
+        <v>911</v>
+      </c>
+      <c r="X12" t="n">
         <v>802</v>
       </c>
-      <c r="M12" t="n">
+      <c r="Y12" t="n">
+        <v>800</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>975</v>
+      </c>
+      <c r="AA12" t="n">
         <v>976</v>
-      </c>
-      <c r="N12" t="n">
-        <v>743</v>
-      </c>
-      <c r="O12" t="n">
-        <v>914</v>
-      </c>
-      <c r="P12" t="n">
-        <v>827</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>963</v>
-      </c>
-      <c r="R12" t="n">
-        <v>932</v>
-      </c>
-      <c r="S12" t="n">
-        <v>860</v>
-      </c>
-      <c r="T12" t="n">
-        <v>960</v>
-      </c>
-      <c r="U12" t="n">
-        <v>897</v>
-      </c>
-      <c r="V12" t="n">
-        <v>810</v>
-      </c>
-      <c r="W12" t="n">
-        <v>761</v>
-      </c>
-      <c r="X12" t="n">
-        <v>911</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>975</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>800</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>951</v>
       </c>
       <c r="AB12" t="n">
         <v>715</v>
@@ -36947,22 +36947,22 @@
         <v>114</v>
       </c>
       <c r="F13" t="n">
-        <v>114</v>
+        <v>551</v>
       </c>
       <c r="G13" t="n">
         <v>114</v>
       </c>
       <c r="H13" t="n">
-        <v>451</v>
+        <v>114</v>
       </c>
       <c r="I13" t="n">
         <v>451</v>
       </c>
       <c r="J13" t="n">
+        <v>451</v>
+      </c>
+      <c r="K13" t="n">
         <v>114</v>
-      </c>
-      <c r="K13" t="n">
-        <v>551</v>
       </c>
       <c r="L13" t="n">
         <v>114</v>
@@ -36980,16 +36980,16 @@
         <v>114</v>
       </c>
       <c r="Q13" t="n">
+        <v>586</v>
+      </c>
+      <c r="R13" t="n">
+        <v>451</v>
+      </c>
+      <c r="S13" t="n">
         <v>114</v>
       </c>
-      <c r="R13" t="n">
+      <c r="T13" t="n">
         <v>114</v>
-      </c>
-      <c r="S13" t="n">
-        <v>586</v>
-      </c>
-      <c r="T13" t="n">
-        <v>451</v>
       </c>
       <c r="U13" t="n">
         <v>114</v>
@@ -37004,10 +37004,10 @@
         <v>114</v>
       </c>
       <c r="Y13" t="n">
+        <v>114</v>
+      </c>
+      <c r="Z13" t="n">
         <v>508</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>114</v>
       </c>
       <c r="AA13" t="n">
         <v>114</v>
@@ -37035,73 +37035,73 @@
         <v>758</v>
       </c>
       <c r="E14" t="n">
+        <v>825</v>
+      </c>
+      <c r="F14" t="n">
+        <v>921</v>
+      </c>
+      <c r="G14" t="n">
+        <v>928</v>
+      </c>
+      <c r="H14" t="n">
+        <v>898</v>
+      </c>
+      <c r="I14" t="n">
+        <v>840</v>
+      </c>
+      <c r="J14" t="n">
+        <v>852</v>
+      </c>
+      <c r="K14" t="n">
+        <v>915</v>
+      </c>
+      <c r="L14" t="n">
+        <v>768</v>
+      </c>
+      <c r="M14" t="n">
+        <v>692</v>
+      </c>
+      <c r="N14" t="n">
+        <v>817</v>
+      </c>
+      <c r="O14" t="n">
+        <v>930</v>
+      </c>
+      <c r="P14" t="n">
+        <v>947</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>838</v>
+      </c>
+      <c r="R14" t="n">
+        <v>929</v>
+      </c>
+      <c r="S14" t="n">
+        <v>869</v>
+      </c>
+      <c r="T14" t="n">
         <v>795</v>
       </c>
-      <c r="F14" t="n">
-        <v>928</v>
-      </c>
-      <c r="G14" t="n">
-        <v>825</v>
-      </c>
-      <c r="H14" t="n">
-        <v>840</v>
-      </c>
-      <c r="I14" t="n">
-        <v>852</v>
-      </c>
-      <c r="J14" t="n">
-        <v>768</v>
-      </c>
-      <c r="K14" t="n">
-        <v>921</v>
-      </c>
-      <c r="L14" t="n">
+      <c r="U14" t="n">
+        <v>803</v>
+      </c>
+      <c r="V14" t="n">
+        <v>640</v>
+      </c>
+      <c r="W14" t="n">
+        <v>861</v>
+      </c>
+      <c r="X14" t="n">
         <v>782</v>
       </c>
-      <c r="M14" t="n">
+      <c r="Y14" t="n">
+        <v>776</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>970</v>
+      </c>
+      <c r="AA14" t="n">
         <v>973</v>
-      </c>
-      <c r="N14" t="n">
-        <v>692</v>
-      </c>
-      <c r="O14" t="n">
-        <v>898</v>
-      </c>
-      <c r="P14" t="n">
-        <v>817</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>930</v>
-      </c>
-      <c r="R14" t="n">
-        <v>947</v>
-      </c>
-      <c r="S14" t="n">
-        <v>838</v>
-      </c>
-      <c r="T14" t="n">
-        <v>929</v>
-      </c>
-      <c r="U14" t="n">
-        <v>869</v>
-      </c>
-      <c r="V14" t="n">
-        <v>803</v>
-      </c>
-      <c r="W14" t="n">
-        <v>640</v>
-      </c>
-      <c r="X14" t="n">
-        <v>861</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>970</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>776</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>915</v>
       </c>
       <c r="AB14" t="n">
         <v>659</v>
@@ -37126,73 +37126,73 @@
         <v>700</v>
       </c>
       <c r="E15" t="n">
+        <v>889</v>
+      </c>
+      <c r="F15" t="n">
+        <v>882</v>
+      </c>
+      <c r="G15" t="n">
+        <v>891</v>
+      </c>
+      <c r="H15" t="n">
+        <v>961</v>
+      </c>
+      <c r="I15" t="n">
+        <v>856.5</v>
+      </c>
+      <c r="J15" t="n">
+        <v>865.5</v>
+      </c>
+      <c r="K15" t="n">
+        <v>924</v>
+      </c>
+      <c r="L15" t="n">
+        <v>765</v>
+      </c>
+      <c r="M15" t="n">
+        <v>611</v>
+      </c>
+      <c r="N15" t="n">
+        <v>752</v>
+      </c>
+      <c r="O15" t="n">
+        <v>920</v>
+      </c>
+      <c r="P15" t="n">
+        <v>872</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>858</v>
+      </c>
+      <c r="R15" t="n">
+        <v>880</v>
+      </c>
+      <c r="S15" t="n">
+        <v>806</v>
+      </c>
+      <c r="T15" t="n">
         <v>748</v>
       </c>
-      <c r="F15" t="n">
-        <v>891</v>
-      </c>
-      <c r="G15" t="n">
-        <v>889</v>
-      </c>
-      <c r="H15" t="n">
-        <v>856.5</v>
-      </c>
-      <c r="I15" t="n">
-        <v>865.5</v>
-      </c>
-      <c r="J15" t="n">
-        <v>765</v>
-      </c>
-      <c r="K15" t="n">
-        <v>882</v>
-      </c>
-      <c r="L15" t="n">
+      <c r="U15" t="n">
+        <v>757</v>
+      </c>
+      <c r="V15" t="n">
+        <v>674</v>
+      </c>
+      <c r="W15" t="n">
+        <v>833</v>
+      </c>
+      <c r="X15" t="n">
         <v>775</v>
       </c>
-      <c r="M15" t="n">
+      <c r="Y15" t="n">
+        <v>753</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>965</v>
+      </c>
+      <c r="AA15" t="n">
         <v>956</v>
-      </c>
-      <c r="N15" t="n">
-        <v>611</v>
-      </c>
-      <c r="O15" t="n">
-        <v>961</v>
-      </c>
-      <c r="P15" t="n">
-        <v>752</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>920</v>
-      </c>
-      <c r="R15" t="n">
-        <v>872</v>
-      </c>
-      <c r="S15" t="n">
-        <v>858</v>
-      </c>
-      <c r="T15" t="n">
-        <v>880</v>
-      </c>
-      <c r="U15" t="n">
-        <v>806</v>
-      </c>
-      <c r="V15" t="n">
-        <v>757</v>
-      </c>
-      <c r="W15" t="n">
-        <v>674</v>
-      </c>
-      <c r="X15" t="n">
-        <v>833</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>965</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>753</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>924</v>
       </c>
       <c r="AB15" t="n">
         <v>445</v>
@@ -37220,52 +37220,52 @@
         <v>320</v>
       </c>
       <c r="F16" t="n">
-        <v>320</v>
+        <v>456</v>
       </c>
       <c r="G16" t="n">
         <v>320</v>
       </c>
       <c r="H16" t="n">
+        <v>828</v>
+      </c>
+      <c r="I16" t="n">
         <v>690</v>
-      </c>
-      <c r="I16" t="n">
-        <v>320</v>
       </c>
       <c r="J16" t="n">
         <v>320</v>
       </c>
       <c r="K16" t="n">
-        <v>456</v>
+        <v>609</v>
       </c>
       <c r="L16" t="n">
         <v>320</v>
       </c>
       <c r="M16" t="n">
-        <v>626</v>
+        <v>320</v>
       </c>
       <c r="N16" t="n">
+        <v>662</v>
+      </c>
+      <c r="O16" t="n">
         <v>320</v>
       </c>
-      <c r="O16" t="n">
-        <v>828</v>
-      </c>
       <c r="P16" t="n">
-        <v>662</v>
+        <v>320</v>
       </c>
       <c r="Q16" t="n">
+        <v>480</v>
+      </c>
+      <c r="R16" t="n">
+        <v>676</v>
+      </c>
+      <c r="S16" t="n">
+        <v>548</v>
+      </c>
+      <c r="T16" t="n">
         <v>320</v>
       </c>
-      <c r="R16" t="n">
+      <c r="U16" t="n">
         <v>320</v>
-      </c>
-      <c r="S16" t="n">
-        <v>480</v>
-      </c>
-      <c r="T16" t="n">
-        <v>676</v>
-      </c>
-      <c r="U16" t="n">
-        <v>548</v>
       </c>
       <c r="V16" t="n">
         <v>320</v>
@@ -37277,13 +37277,13 @@
         <v>320</v>
       </c>
       <c r="Y16" t="n">
+        <v>320</v>
+      </c>
+      <c r="Z16" t="n">
         <v>558</v>
       </c>
-      <c r="Z16" t="n">
-        <v>320</v>
-      </c>
       <c r="AA16" t="n">
-        <v>609</v>
+        <v>626</v>
       </c>
       <c r="AB16" t="n">
         <v>320</v>
@@ -37317,43 +37317,43 @@
         <v>254.5</v>
       </c>
       <c r="H17" t="n">
+        <v>769</v>
+      </c>
+      <c r="I17" t="n">
         <v>635</v>
-      </c>
-      <c r="I17" t="n">
-        <v>254.5</v>
       </c>
       <c r="J17" t="n">
         <v>254.5</v>
       </c>
       <c r="K17" t="n">
-        <v>254.5</v>
+        <v>519</v>
       </c>
       <c r="L17" t="n">
         <v>254.5</v>
       </c>
       <c r="M17" t="n">
-        <v>483</v>
+        <v>254.5</v>
       </c>
       <c r="N17" t="n">
+        <v>641</v>
+      </c>
+      <c r="O17" t="n">
         <v>254.5</v>
       </c>
-      <c r="O17" t="n">
-        <v>769</v>
-      </c>
       <c r="P17" t="n">
-        <v>641</v>
+        <v>254.5</v>
       </c>
       <c r="Q17" t="n">
+        <v>470</v>
+      </c>
+      <c r="R17" t="n">
+        <v>629</v>
+      </c>
+      <c r="S17" t="n">
         <v>254.5</v>
       </c>
-      <c r="R17" t="n">
+      <c r="T17" t="n">
         <v>254.5</v>
-      </c>
-      <c r="S17" t="n">
-        <v>470</v>
-      </c>
-      <c r="T17" t="n">
-        <v>629</v>
       </c>
       <c r="U17" t="n">
         <v>254.5</v>
@@ -37368,13 +37368,13 @@
         <v>254.5</v>
       </c>
       <c r="Y17" t="n">
+        <v>254.5</v>
+      </c>
+      <c r="Z17" t="n">
         <v>567</v>
       </c>
-      <c r="Z17" t="n">
-        <v>254.5</v>
-      </c>
       <c r="AA17" t="n">
-        <v>519</v>
+        <v>483</v>
       </c>
       <c r="AB17" t="n">
         <v>254.5</v>
@@ -37408,7 +37408,7 @@
         <v>396</v>
       </c>
       <c r="H18" t="n">
-        <v>396</v>
+        <v>577</v>
       </c>
       <c r="I18" t="n">
         <v>396</v>
@@ -37417,7 +37417,7 @@
         <v>396</v>
       </c>
       <c r="K18" t="n">
-        <v>396</v>
+        <v>489</v>
       </c>
       <c r="L18" t="n">
         <v>396</v>
@@ -37429,7 +37429,7 @@
         <v>396</v>
       </c>
       <c r="O18" t="n">
-        <v>577</v>
+        <v>396</v>
       </c>
       <c r="P18" t="n">
         <v>396</v>
@@ -37438,13 +37438,13 @@
         <v>396</v>
       </c>
       <c r="R18" t="n">
-        <v>396</v>
+        <v>590</v>
       </c>
       <c r="S18" t="n">
         <v>396</v>
       </c>
       <c r="T18" t="n">
-        <v>590</v>
+        <v>396</v>
       </c>
       <c r="U18" t="n">
         <v>396</v>
@@ -37459,13 +37459,13 @@
         <v>396</v>
       </c>
       <c r="Y18" t="n">
+        <v>396</v>
+      </c>
+      <c r="Z18" t="n">
         <v>498</v>
       </c>
-      <c r="Z18" t="n">
+      <c r="AA18" t="n">
         <v>396</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>489</v>
       </c>
       <c r="AB18" t="n">
         <v>396</v>
@@ -37499,10 +37499,10 @@
         <v>301.5</v>
       </c>
       <c r="H19" t="n">
+        <v>829</v>
+      </c>
+      <c r="I19" t="n">
         <v>667.5</v>
-      </c>
-      <c r="I19" t="n">
-        <v>301.5</v>
       </c>
       <c r="J19" t="n">
         <v>301.5</v>
@@ -37514,28 +37514,28 @@
         <v>301.5</v>
       </c>
       <c r="M19" t="n">
-        <v>565</v>
+        <v>301.5</v>
       </c>
       <c r="N19" t="n">
+        <v>667.5</v>
+      </c>
+      <c r="O19" t="n">
         <v>301.5</v>
       </c>
-      <c r="O19" t="n">
-        <v>829</v>
-      </c>
       <c r="P19" t="n">
-        <v>667.5</v>
+        <v>301.5</v>
       </c>
       <c r="Q19" t="n">
+        <v>455</v>
+      </c>
+      <c r="R19" t="n">
+        <v>664</v>
+      </c>
+      <c r="S19" t="n">
         <v>301.5</v>
       </c>
-      <c r="R19" t="n">
+      <c r="T19" t="n">
         <v>301.5</v>
-      </c>
-      <c r="S19" t="n">
-        <v>455</v>
-      </c>
-      <c r="T19" t="n">
-        <v>664</v>
       </c>
       <c r="U19" t="n">
         <v>301.5</v>
@@ -37550,13 +37550,13 @@
         <v>301.5</v>
       </c>
       <c r="Y19" t="n">
+        <v>301.5</v>
+      </c>
+      <c r="Z19" t="n">
         <v>521</v>
       </c>
-      <c r="Z19" t="n">
-        <v>301.5</v>
-      </c>
       <c r="AA19" t="n">
-        <v>301.5</v>
+        <v>565</v>
       </c>
       <c r="AB19" t="n">
         <v>301.5</v>
@@ -37584,52 +37584,52 @@
         <v>376</v>
       </c>
       <c r="F20" t="n">
-        <v>376</v>
+        <v>552</v>
       </c>
       <c r="G20" t="n">
         <v>376</v>
       </c>
       <c r="H20" t="n">
+        <v>764</v>
+      </c>
+      <c r="I20" t="n">
         <v>618</v>
-      </c>
-      <c r="I20" t="n">
-        <v>376</v>
       </c>
       <c r="J20" t="n">
         <v>376</v>
       </c>
       <c r="K20" t="n">
-        <v>552</v>
+        <v>598</v>
       </c>
       <c r="L20" t="n">
         <v>376</v>
       </c>
       <c r="M20" t="n">
-        <v>657</v>
+        <v>376</v>
       </c>
       <c r="N20" t="n">
         <v>376</v>
       </c>
       <c r="O20" t="n">
-        <v>764</v>
+        <v>376</v>
       </c>
       <c r="P20" t="n">
         <v>376</v>
       </c>
       <c r="Q20" t="n">
+        <v>459</v>
+      </c>
+      <c r="R20" t="n">
+        <v>643</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="n">
         <v>376</v>
       </c>
-      <c r="R20" t="n">
+      <c r="U20" t="n">
         <v>376</v>
-      </c>
-      <c r="S20" t="n">
-        <v>459</v>
-      </c>
-      <c r="T20" t="n">
-        <v>643</v>
-      </c>
-      <c r="U20" t="n">
-        <v>5</v>
       </c>
       <c r="V20" t="n">
         <v>376</v>
@@ -37641,13 +37641,13 @@
         <v>376</v>
       </c>
       <c r="Y20" t="n">
+        <v>376</v>
+      </c>
+      <c r="Z20" t="n">
         <v>653</v>
       </c>
-      <c r="Z20" t="n">
-        <v>376</v>
-      </c>
       <c r="AA20" t="n">
-        <v>598</v>
+        <v>657</v>
       </c>
       <c r="AB20" t="n">
         <v>376</v>
@@ -37675,52 +37675,52 @@
         <v>282</v>
       </c>
       <c r="F21" t="n">
-        <v>282</v>
+        <v>642</v>
       </c>
       <c r="G21" t="n">
         <v>282</v>
       </c>
       <c r="H21" t="n">
+        <v>843</v>
+      </c>
+      <c r="I21" t="n">
         <v>712</v>
       </c>
-      <c r="I21" t="n">
+      <c r="J21" t="n">
         <v>472</v>
       </c>
-      <c r="J21" t="n">
+      <c r="K21" t="n">
         <v>282</v>
-      </c>
-      <c r="K21" t="n">
-        <v>642</v>
       </c>
       <c r="L21" t="n">
         <v>282</v>
       </c>
       <c r="M21" t="n">
-        <v>665</v>
+        <v>282</v>
       </c>
       <c r="N21" t="n">
+        <v>704</v>
+      </c>
+      <c r="O21" t="n">
         <v>282</v>
       </c>
-      <c r="O21" t="n">
-        <v>843</v>
-      </c>
       <c r="P21" t="n">
-        <v>704</v>
+        <v>282</v>
       </c>
       <c r="Q21" t="n">
         <v>282</v>
       </c>
       <c r="R21" t="n">
+        <v>728</v>
+      </c>
+      <c r="S21" t="n">
+        <v>592</v>
+      </c>
+      <c r="T21" t="n">
         <v>282</v>
       </c>
-      <c r="S21" t="n">
+      <c r="U21" t="n">
         <v>282</v>
-      </c>
-      <c r="T21" t="n">
-        <v>728</v>
-      </c>
-      <c r="U21" t="n">
-        <v>592</v>
       </c>
       <c r="V21" t="n">
         <v>282</v>
@@ -37732,13 +37732,13 @@
         <v>282</v>
       </c>
       <c r="Y21" t="n">
+        <v>282</v>
+      </c>
+      <c r="Z21" t="n">
         <v>631</v>
       </c>
-      <c r="Z21" t="n">
-        <v>282</v>
-      </c>
       <c r="AA21" t="n">
-        <v>282</v>
+        <v>665</v>
       </c>
       <c r="AB21" t="n">
         <v>282</v>
@@ -37766,52 +37766,52 @@
         <v>415</v>
       </c>
       <c r="F22" t="n">
-        <v>415</v>
+        <v>540</v>
       </c>
       <c r="G22" t="n">
         <v>415</v>
       </c>
       <c r="H22" t="n">
+        <v>847</v>
+      </c>
+      <c r="I22" t="n">
         <v>683</v>
       </c>
-      <c r="I22" t="n">
+      <c r="J22" t="n">
         <v>460</v>
       </c>
-      <c r="J22" t="n">
+      <c r="K22" t="n">
         <v>415</v>
-      </c>
-      <c r="K22" t="n">
-        <v>540</v>
       </c>
       <c r="L22" t="n">
         <v>415</v>
       </c>
       <c r="M22" t="n">
-        <v>658</v>
+        <v>415</v>
       </c>
       <c r="N22" t="n">
+        <v>661</v>
+      </c>
+      <c r="O22" t="n">
         <v>415</v>
       </c>
-      <c r="O22" t="n">
-        <v>847</v>
-      </c>
       <c r="P22" t="n">
-        <v>661</v>
+        <v>415</v>
       </c>
       <c r="Q22" t="n">
+        <v>475</v>
+      </c>
+      <c r="R22" t="n">
+        <v>729</v>
+      </c>
+      <c r="S22" t="n">
+        <v>540</v>
+      </c>
+      <c r="T22" t="n">
         <v>415</v>
       </c>
-      <c r="R22" t="n">
+      <c r="U22" t="n">
         <v>415</v>
-      </c>
-      <c r="S22" t="n">
-        <v>475</v>
-      </c>
-      <c r="T22" t="n">
-        <v>729</v>
-      </c>
-      <c r="U22" t="n">
-        <v>540</v>
       </c>
       <c r="V22" t="n">
         <v>415</v>
@@ -37823,13 +37823,13 @@
         <v>415</v>
       </c>
       <c r="Y22" t="n">
+        <v>415</v>
+      </c>
+      <c r="Z22" t="n">
         <v>649</v>
       </c>
-      <c r="Z22" t="n">
-        <v>415</v>
-      </c>
       <c r="AA22" t="n">
-        <v>415</v>
+        <v>658</v>
       </c>
       <c r="AB22" t="n">
         <v>415</v>
@@ -37857,13 +37857,13 @@
         <v>213.5</v>
       </c>
       <c r="F23" t="n">
-        <v>213.5</v>
+        <v>542</v>
       </c>
       <c r="G23" t="n">
         <v>213.5</v>
       </c>
       <c r="H23" t="n">
-        <v>213.5</v>
+        <v>588</v>
       </c>
       <c r="I23" t="n">
         <v>213.5</v>
@@ -37872,7 +37872,7 @@
         <v>213.5</v>
       </c>
       <c r="K23" t="n">
-        <v>542</v>
+        <v>213.5</v>
       </c>
       <c r="L23" t="n">
         <v>213.5</v>
@@ -37881,25 +37881,25 @@
         <v>213.5</v>
       </c>
       <c r="N23" t="n">
+        <v>453</v>
+      </c>
+      <c r="O23" t="n">
         <v>213.5</v>
       </c>
-      <c r="O23" t="n">
-        <v>588</v>
-      </c>
       <c r="P23" t="n">
-        <v>453</v>
+        <v>213.5</v>
       </c>
       <c r="Q23" t="n">
         <v>213.5</v>
       </c>
       <c r="R23" t="n">
-        <v>213.5</v>
+        <v>467</v>
       </c>
       <c r="S23" t="n">
         <v>213.5</v>
       </c>
       <c r="T23" t="n">
-        <v>467</v>
+        <v>213.5</v>
       </c>
       <c r="U23" t="n">
         <v>213.5</v>
@@ -38045,7 +38045,7 @@
         <v>189</v>
       </c>
       <c r="H25" t="n">
-        <v>189</v>
+        <v>695</v>
       </c>
       <c r="I25" t="n">
         <v>189</v>
@@ -38066,7 +38066,7 @@
         <v>189</v>
       </c>
       <c r="O25" t="n">
-        <v>695</v>
+        <v>189</v>
       </c>
       <c r="P25" t="n">
         <v>189</v>
@@ -38075,13 +38075,13 @@
         <v>189</v>
       </c>
       <c r="R25" t="n">
-        <v>189</v>
+        <v>509</v>
       </c>
       <c r="S25" t="n">
         <v>189</v>
       </c>
       <c r="T25" t="n">
-        <v>509</v>
+        <v>189</v>
       </c>
       <c r="U25" t="n">
         <v>189</v>
@@ -38096,10 +38096,10 @@
         <v>189</v>
       </c>
       <c r="Y25" t="n">
+        <v>189</v>
+      </c>
+      <c r="Z25" t="n">
         <v>492</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>189</v>
       </c>
       <c r="AA25" t="n">
         <v>189</v>
@@ -38136,10 +38136,10 @@
         <v>63.5</v>
       </c>
       <c r="H26" t="n">
+        <v>543</v>
+      </c>
+      <c r="I26" t="n">
         <v>447</v>
-      </c>
-      <c r="I26" t="n">
-        <v>63.5</v>
       </c>
       <c r="J26" t="n">
         <v>63.5</v>
@@ -38151,28 +38151,28 @@
         <v>63.5</v>
       </c>
       <c r="M26" t="n">
-        <v>511</v>
+        <v>63.5</v>
       </c>
       <c r="N26" t="n">
+        <v>493</v>
+      </c>
+      <c r="O26" t="n">
         <v>63.5</v>
       </c>
-      <c r="O26" t="n">
-        <v>543</v>
-      </c>
       <c r="P26" t="n">
-        <v>493</v>
+        <v>63.5</v>
       </c>
       <c r="Q26" t="n">
+        <v>3</v>
+      </c>
+      <c r="R26" t="n">
+        <v>482</v>
+      </c>
+      <c r="S26" t="n">
         <v>63.5</v>
       </c>
-      <c r="R26" t="n">
+      <c r="T26" t="n">
         <v>63.5</v>
-      </c>
-      <c r="S26" t="n">
-        <v>3</v>
-      </c>
-      <c r="T26" t="n">
-        <v>482</v>
       </c>
       <c r="U26" t="n">
         <v>63.5</v>
@@ -38193,7 +38193,7 @@
         <v>63.5</v>
       </c>
       <c r="AA26" t="n">
-        <v>63.5</v>
+        <v>511</v>
       </c>
       <c r="AB26" t="n">
         <v>63.5</v>
@@ -38221,52 +38221,52 @@
         <v>15.5</v>
       </c>
       <c r="F27" t="n">
-        <v>15.5</v>
+        <v>579</v>
       </c>
       <c r="G27" t="n">
         <v>15.5</v>
       </c>
       <c r="H27" t="n">
+        <v>622</v>
+      </c>
+      <c r="I27" t="n">
         <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>15.5</v>
       </c>
       <c r="J27" t="n">
         <v>15.5</v>
       </c>
       <c r="K27" t="n">
-        <v>579</v>
+        <v>15.5</v>
       </c>
       <c r="L27" t="n">
         <v>15.5</v>
       </c>
       <c r="M27" t="n">
-        <v>454</v>
+        <v>15.5</v>
       </c>
       <c r="N27" t="n">
+        <v>444</v>
+      </c>
+      <c r="O27" t="n">
         <v>15.5</v>
       </c>
-      <c r="O27" t="n">
-        <v>622</v>
-      </c>
       <c r="P27" t="n">
-        <v>444</v>
+        <v>15.5</v>
       </c>
       <c r="Q27" t="n">
         <v>15.5</v>
       </c>
       <c r="R27" t="n">
+        <v>518</v>
+      </c>
+      <c r="S27" t="n">
+        <v>468</v>
+      </c>
+      <c r="T27" t="n">
         <v>15.5</v>
       </c>
-      <c r="S27" t="n">
+      <c r="U27" t="n">
         <v>15.5</v>
-      </c>
-      <c r="T27" t="n">
-        <v>518</v>
-      </c>
-      <c r="U27" t="n">
-        <v>468</v>
       </c>
       <c r="V27" t="n">
         <v>15.5</v>
@@ -38278,13 +38278,13 @@
         <v>15.5</v>
       </c>
       <c r="Y27" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Z27" t="n">
         <v>619</v>
       </c>
-      <c r="Z27" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AA27" t="n">
-        <v>15.5</v>
+        <v>454</v>
       </c>
       <c r="AB27" t="n">
         <v>15.5</v>
@@ -38348,13 +38348,13 @@
         <v>39</v>
       </c>
       <c r="R28" t="n">
-        <v>39</v>
+        <v>446</v>
       </c>
       <c r="S28" t="n">
         <v>39</v>
       </c>
       <c r="T28" t="n">
-        <v>446</v>
+        <v>39</v>
       </c>
       <c r="U28" t="n">
         <v>39</v>
@@ -38400,73 +38400,73 @@
         <v>172</v>
       </c>
       <c r="E29" t="n">
+        <v>677</v>
+      </c>
+      <c r="F29" t="n">
+        <v>561</v>
+      </c>
+      <c r="G29" t="n">
+        <v>532.5</v>
+      </c>
+      <c r="H29" t="n">
+        <v>805</v>
+      </c>
+      <c r="I29" t="n">
+        <v>732</v>
+      </c>
+      <c r="J29" t="n">
+        <v>553</v>
+      </c>
+      <c r="K29" t="n">
+        <v>682</v>
+      </c>
+      <c r="L29" t="n">
+        <v>575.5</v>
+      </c>
+      <c r="M29" t="n">
+        <v>172</v>
+      </c>
+      <c r="N29" t="n">
+        <v>698</v>
+      </c>
+      <c r="O29" t="n">
+        <v>172</v>
+      </c>
+      <c r="P29" t="n">
+        <v>172</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>581</v>
+      </c>
+      <c r="R29" t="n">
+        <v>669</v>
+      </c>
+      <c r="S29" t="n">
+        <v>172</v>
+      </c>
+      <c r="T29" t="n">
         <v>491</v>
       </c>
-      <c r="F29" t="n">
+      <c r="U29" t="n">
         <v>532.5</v>
       </c>
-      <c r="G29" t="n">
-        <v>677</v>
-      </c>
-      <c r="H29" t="n">
-        <v>732</v>
-      </c>
-      <c r="I29" t="n">
-        <v>553</v>
-      </c>
-      <c r="J29" t="n">
+      <c r="V29" t="n">
+        <v>172</v>
+      </c>
+      <c r="W29" t="n">
         <v>575.5</v>
       </c>
-      <c r="K29" t="n">
-        <v>561</v>
-      </c>
-      <c r="L29" t="n">
+      <c r="X29" t="n">
         <v>172</v>
       </c>
-      <c r="M29" t="n">
+      <c r="Y29" t="n">
+        <v>172</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>581</v>
+      </c>
+      <c r="AA29" t="n">
         <v>686</v>
-      </c>
-      <c r="N29" t="n">
-        <v>172</v>
-      </c>
-      <c r="O29" t="n">
-        <v>805</v>
-      </c>
-      <c r="P29" t="n">
-        <v>698</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>172</v>
-      </c>
-      <c r="R29" t="n">
-        <v>172</v>
-      </c>
-      <c r="S29" t="n">
-        <v>581</v>
-      </c>
-      <c r="T29" t="n">
-        <v>669</v>
-      </c>
-      <c r="U29" t="n">
-        <v>172</v>
-      </c>
-      <c r="V29" t="n">
-        <v>532.5</v>
-      </c>
-      <c r="W29" t="n">
-        <v>172</v>
-      </c>
-      <c r="X29" t="n">
-        <v>575.5</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>581</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>172</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>682</v>
       </c>
       <c r="AB29" t="n">
         <v>172</v>
@@ -38494,52 +38494,52 @@
         <v>356.5</v>
       </c>
       <c r="F30" t="n">
-        <v>356.5</v>
+        <v>560</v>
       </c>
       <c r="G30" t="n">
         <v>356.5</v>
       </c>
       <c r="H30" t="n">
+        <v>774</v>
+      </c>
+      <c r="I30" t="n">
         <v>612</v>
-      </c>
-      <c r="I30" t="n">
-        <v>356.5</v>
       </c>
       <c r="J30" t="n">
         <v>356.5</v>
       </c>
       <c r="K30" t="n">
-        <v>560</v>
+        <v>356.5</v>
       </c>
       <c r="L30" t="n">
         <v>356.5</v>
       </c>
       <c r="M30" t="n">
+        <v>458</v>
+      </c>
+      <c r="N30" t="n">
+        <v>523</v>
+      </c>
+      <c r="O30" t="n">
         <v>356.5</v>
       </c>
-      <c r="N30" t="n">
-        <v>458</v>
-      </c>
-      <c r="O30" t="n">
-        <v>774</v>
-      </c>
       <c r="P30" t="n">
-        <v>523</v>
+        <v>356.5</v>
       </c>
       <c r="Q30" t="n">
+        <v>474</v>
+      </c>
+      <c r="R30" t="n">
+        <v>602</v>
+      </c>
+      <c r="S30" t="n">
+        <v>497</v>
+      </c>
+      <c r="T30" t="n">
         <v>356.5</v>
       </c>
-      <c r="R30" t="n">
+      <c r="U30" t="n">
         <v>356.5</v>
-      </c>
-      <c r="S30" t="n">
-        <v>474</v>
-      </c>
-      <c r="T30" t="n">
-        <v>602</v>
-      </c>
-      <c r="U30" t="n">
-        <v>497</v>
       </c>
       <c r="V30" t="n">
         <v>356.5</v>
@@ -38585,55 +38585,55 @@
         <v>337.5</v>
       </c>
       <c r="F31" t="n">
-        <v>337.5</v>
+        <v>481</v>
       </c>
       <c r="G31" t="n">
         <v>337.5</v>
       </c>
       <c r="H31" t="n">
+        <v>773</v>
+      </c>
+      <c r="I31" t="n">
         <v>654</v>
       </c>
-      <c r="I31" t="n">
+      <c r="J31" t="n">
         <v>457</v>
       </c>
-      <c r="J31" t="n">
-        <v>337.5</v>
-      </c>
       <c r="K31" t="n">
-        <v>481</v>
+        <v>600</v>
       </c>
       <c r="L31" t="n">
         <v>337.5</v>
       </c>
       <c r="M31" t="n">
-        <v>550</v>
+        <v>337.5</v>
       </c>
       <c r="N31" t="n">
+        <v>639</v>
+      </c>
+      <c r="O31" t="n">
         <v>337.5</v>
       </c>
-      <c r="O31" t="n">
-        <v>773</v>
-      </c>
       <c r="P31" t="n">
-        <v>639</v>
+        <v>337.5</v>
       </c>
       <c r="Q31" t="n">
+        <v>494</v>
+      </c>
+      <c r="R31" t="n">
+        <v>628</v>
+      </c>
+      <c r="S31" t="n">
         <v>337.5</v>
       </c>
-      <c r="R31" t="n">
+      <c r="T31" t="n">
         <v>337.5</v>
       </c>
-      <c r="S31" t="n">
-        <v>494</v>
-      </c>
-      <c r="T31" t="n">
-        <v>628</v>
-      </c>
       <c r="U31" t="n">
+        <v>4</v>
+      </c>
+      <c r="V31" t="n">
         <v>337.5</v>
-      </c>
-      <c r="V31" t="n">
-        <v>4</v>
       </c>
       <c r="W31" t="n">
         <v>337.5</v>
@@ -38648,7 +38648,7 @@
         <v>337.5</v>
       </c>
       <c r="AA31" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="AB31" t="n">
         <v>337.5</v>
@@ -38676,22 +38676,22 @@
         <v>433.5</v>
       </c>
       <c r="F32" t="n">
-        <v>433.5</v>
+        <v>526.5</v>
       </c>
       <c r="G32" t="n">
         <v>433.5</v>
       </c>
       <c r="H32" t="n">
+        <v>705</v>
+      </c>
+      <c r="I32" t="n">
         <v>584</v>
-      </c>
-      <c r="I32" t="n">
-        <v>433.5</v>
       </c>
       <c r="J32" t="n">
         <v>433.5</v>
       </c>
       <c r="K32" t="n">
-        <v>526.5</v>
+        <v>499</v>
       </c>
       <c r="L32" t="n">
         <v>433.5</v>
@@ -38700,25 +38700,25 @@
         <v>433.5</v>
       </c>
       <c r="N32" t="n">
+        <v>526.5</v>
+      </c>
+      <c r="O32" t="n">
         <v>433.5</v>
       </c>
-      <c r="O32" t="n">
-        <v>705</v>
-      </c>
       <c r="P32" t="n">
-        <v>526.5</v>
+        <v>433.5</v>
       </c>
       <c r="Q32" t="n">
+        <v>490</v>
+      </c>
+      <c r="R32" t="n">
+        <v>461</v>
+      </c>
+      <c r="S32" t="n">
         <v>433.5</v>
       </c>
-      <c r="R32" t="n">
+      <c r="T32" t="n">
         <v>433.5</v>
-      </c>
-      <c r="S32" t="n">
-        <v>490</v>
-      </c>
-      <c r="T32" t="n">
-        <v>461</v>
       </c>
       <c r="U32" t="n">
         <v>433.5</v>
@@ -38739,7 +38739,7 @@
         <v>433.5</v>
       </c>
       <c r="AA32" t="n">
-        <v>499</v>
+        <v>433.5</v>
       </c>
       <c r="AB32" t="n">
         <v>433.5</v>
@@ -38764,73 +38764,73 @@
         <v>779</v>
       </c>
       <c r="E33" t="n">
+        <v>865.5</v>
+      </c>
+      <c r="F33" t="n">
+        <v>907</v>
+      </c>
+      <c r="G33" t="n">
+        <v>944</v>
+      </c>
+      <c r="H33" t="n">
+        <v>923</v>
+      </c>
+      <c r="I33" t="n">
+        <v>856.5</v>
+      </c>
+      <c r="J33" t="n">
+        <v>893</v>
+      </c>
+      <c r="K33" t="n">
+        <v>934</v>
+      </c>
+      <c r="L33" t="n">
+        <v>815</v>
+      </c>
+      <c r="M33" t="n">
+        <v>731</v>
+      </c>
+      <c r="N33" t="n">
+        <v>824</v>
+      </c>
+      <c r="O33" t="n">
+        <v>952</v>
+      </c>
+      <c r="P33" t="n">
+        <v>918</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>871</v>
+      </c>
+      <c r="R33" t="n">
+        <v>945</v>
+      </c>
+      <c r="S33" t="n">
+        <v>913</v>
+      </c>
+      <c r="T33" t="n">
         <v>791</v>
       </c>
-      <c r="F33" t="n">
-        <v>944</v>
-      </c>
-      <c r="G33" t="n">
-        <v>865.5</v>
-      </c>
-      <c r="H33" t="n">
-        <v>856.5</v>
-      </c>
-      <c r="I33" t="n">
-        <v>893</v>
-      </c>
-      <c r="J33" t="n">
-        <v>815</v>
-      </c>
-      <c r="K33" t="n">
-        <v>907</v>
-      </c>
-      <c r="L33" t="n">
+      <c r="U33" t="n">
+        <v>830</v>
+      </c>
+      <c r="V33" t="n">
+        <v>766</v>
+      </c>
+      <c r="W33" t="n">
+        <v>912</v>
+      </c>
+      <c r="X33" t="n">
         <v>816</v>
       </c>
-      <c r="M33" t="n">
+      <c r="Y33" t="n">
+        <v>811</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>971</v>
+      </c>
+      <c r="AA33" t="n">
         <v>969</v>
-      </c>
-      <c r="N33" t="n">
-        <v>731</v>
-      </c>
-      <c r="O33" t="n">
-        <v>923</v>
-      </c>
-      <c r="P33" t="n">
-        <v>824</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>952</v>
-      </c>
-      <c r="R33" t="n">
-        <v>918</v>
-      </c>
-      <c r="S33" t="n">
-        <v>871</v>
-      </c>
-      <c r="T33" t="n">
-        <v>945</v>
-      </c>
-      <c r="U33" t="n">
-        <v>913</v>
-      </c>
-      <c r="V33" t="n">
-        <v>830</v>
-      </c>
-      <c r="W33" t="n">
-        <v>766</v>
-      </c>
-      <c r="X33" t="n">
-        <v>912</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>971</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>811</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>934</v>
       </c>
       <c r="AB33" t="n">
         <v>718</v>
@@ -38855,73 +38855,73 @@
         <v>555</v>
       </c>
       <c r="E34" t="n">
-        <v>485.5</v>
+        <v>613</v>
       </c>
       <c r="F34" t="n">
+        <v>502</v>
+      </c>
+      <c r="G34" t="n">
         <v>92</v>
       </c>
-      <c r="G34" t="n">
-        <v>613</v>
-      </c>
       <c r="H34" t="n">
+        <v>92</v>
+      </c>
+      <c r="I34" t="n">
         <v>502</v>
       </c>
-      <c r="I34" t="n">
+      <c r="J34" t="n">
         <v>572</v>
-      </c>
-      <c r="J34" t="n">
-        <v>513.5</v>
       </c>
       <c r="K34" t="n">
         <v>502</v>
       </c>
       <c r="L34" t="n">
+        <v>513.5</v>
+      </c>
+      <c r="M34" t="n">
         <v>92</v>
       </c>
-      <c r="M34" t="n">
-        <v>528.5</v>
-      </c>
       <c r="N34" t="n">
-        <v>92</v>
+        <v>502</v>
       </c>
       <c r="O34" t="n">
         <v>92</v>
       </c>
       <c r="P34" t="n">
+        <v>464.5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>572</v>
+      </c>
+      <c r="R34" t="n">
+        <v>572</v>
+      </c>
+      <c r="S34" t="n">
+        <v>528.5</v>
+      </c>
+      <c r="T34" t="n">
+        <v>485.5</v>
+      </c>
+      <c r="U34" t="n">
         <v>502</v>
       </c>
-      <c r="Q34" t="n">
+      <c r="V34" t="n">
         <v>92</v>
       </c>
-      <c r="R34" t="n">
+      <c r="W34" t="n">
+        <v>476</v>
+      </c>
+      <c r="X34" t="n">
+        <v>92</v>
+      </c>
+      <c r="Y34" t="n">
         <v>464.5</v>
       </c>
-      <c r="S34" t="n">
-        <v>572</v>
-      </c>
-      <c r="T34" t="n">
-        <v>572</v>
-      </c>
-      <c r="U34" t="n">
+      <c r="Z34" t="n">
+        <v>593</v>
+      </c>
+      <c r="AA34" t="n">
         <v>528.5</v>
-      </c>
-      <c r="V34" t="n">
-        <v>502</v>
-      </c>
-      <c r="W34" t="n">
-        <v>92</v>
-      </c>
-      <c r="X34" t="n">
-        <v>476</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>593</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>464.5</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>502</v>
       </c>
       <c r="AB34" t="n">
         <v>485.5</v>
@@ -38946,52 +38946,52 @@
         <v>81.5</v>
       </c>
       <c r="E35" t="n">
+        <v>566</v>
+      </c>
+      <c r="F35" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="G35" t="n">
+        <v>2</v>
+      </c>
+      <c r="H35" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="I35" t="n">
+        <v>448</v>
+      </c>
+      <c r="J35" t="n">
         <v>462.5</v>
       </c>
-      <c r="F35" t="n">
-        <v>2</v>
-      </c>
-      <c r="G35" t="n">
-        <v>566</v>
-      </c>
-      <c r="H35" t="n">
-        <v>448</v>
-      </c>
-      <c r="I35" t="n">
-        <v>462.5</v>
-      </c>
-      <c r="J35" t="n">
+      <c r="K35" t="n">
+        <v>495.5</v>
+      </c>
+      <c r="L35" t="n">
         <v>535.5</v>
-      </c>
-      <c r="K35" t="n">
-        <v>81.5</v>
-      </c>
-      <c r="L35" t="n">
-        <v>81.5</v>
       </c>
       <c r="M35" t="n">
         <v>81.5</v>
       </c>
       <c r="N35" t="n">
-        <v>81.5</v>
+        <v>547</v>
       </c>
       <c r="O35" t="n">
         <v>81.5</v>
       </c>
       <c r="P35" t="n">
-        <v>547</v>
+        <v>81.5</v>
       </c>
       <c r="Q35" t="n">
+        <v>495.5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>524</v>
+      </c>
+      <c r="S35" t="n">
         <v>81.5</v>
       </c>
-      <c r="R35" t="n">
-        <v>81.5</v>
-      </c>
-      <c r="S35" t="n">
-        <v>495.5</v>
-      </c>
       <c r="T35" t="n">
-        <v>524</v>
+        <v>462.5</v>
       </c>
       <c r="U35" t="n">
         <v>81.5</v>
@@ -39000,19 +39000,19 @@
         <v>81.5</v>
       </c>
       <c r="W35" t="n">
+        <v>512</v>
+      </c>
+      <c r="X35" t="n">
         <v>81.5</v>
       </c>
-      <c r="X35" t="n">
-        <v>512</v>
-      </c>
       <c r="Y35" t="n">
+        <v>624</v>
+      </c>
+      <c r="Z35" t="n">
         <v>535.5</v>
       </c>
-      <c r="Z35" t="n">
-        <v>624</v>
-      </c>
       <c r="AA35" t="n">
-        <v>495.5</v>
+        <v>81.5</v>
       </c>
       <c r="AB35" t="n">
         <v>81.5</v>
@@ -39037,73 +39037,73 @@
         <v>506</v>
       </c>
       <c r="E36" t="n">
-        <v>449</v>
+        <v>656</v>
       </c>
       <c r="F36" t="n">
+        <v>466</v>
+      </c>
+      <c r="G36" t="n">
         <v>99.5</v>
       </c>
-      <c r="G36" t="n">
-        <v>656</v>
-      </c>
       <c r="H36" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="I36" t="n">
         <v>564</v>
       </c>
-      <c r="I36" t="n">
+      <c r="J36" t="n">
         <v>537.5</v>
       </c>
-      <c r="J36" t="n">
-        <v>99.5</v>
-      </c>
       <c r="K36" t="n">
-        <v>466</v>
+        <v>556</v>
       </c>
       <c r="L36" t="n">
         <v>99.5</v>
       </c>
       <c r="M36" t="n">
-        <v>537.5</v>
+        <v>99.5</v>
       </c>
       <c r="N36" t="n">
-        <v>99.5</v>
+        <v>530</v>
       </c>
       <c r="O36" t="n">
         <v>99.5</v>
       </c>
       <c r="P36" t="n">
-        <v>530</v>
+        <v>487.5</v>
       </c>
       <c r="Q36" t="n">
+        <v>595.5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>549</v>
+      </c>
+      <c r="S36" t="n">
+        <v>515</v>
+      </c>
+      <c r="T36" t="n">
+        <v>449</v>
+      </c>
+      <c r="U36" t="n">
+        <v>595.5</v>
+      </c>
+      <c r="V36" t="n">
         <v>99.5</v>
       </c>
-      <c r="R36" t="n">
-        <v>487.5</v>
-      </c>
-      <c r="S36" t="n">
-        <v>595.5</v>
-      </c>
-      <c r="T36" t="n">
-        <v>549</v>
-      </c>
-      <c r="U36" t="n">
-        <v>515</v>
-      </c>
-      <c r="V36" t="n">
-        <v>595.5</v>
-      </c>
       <c r="W36" t="n">
+        <v>506</v>
+      </c>
+      <c r="X36" t="n">
         <v>99.5</v>
       </c>
-      <c r="X36" t="n">
+      <c r="Y36" t="n">
         <v>506</v>
       </c>
-      <c r="Y36" t="n">
+      <c r="Z36" t="n">
         <v>606</v>
       </c>
-      <c r="Z36" t="n">
-        <v>506</v>
-      </c>
       <c r="AA36" t="n">
-        <v>556</v>
+        <v>537.5</v>
       </c>
       <c r="AB36" t="n">
         <v>487.5</v>
